--- a/software/development/output.xlsx
+++ b/software/development/output.xlsx
@@ -1940,1504 +1940,1504 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>94.93292798924301</v>
+        <v>0.05657819762279583</v>
       </c>
       <c r="C2" t="n">
-        <v>129.8632018685174</v>
+        <v>0.07735612876661653</v>
       </c>
       <c r="D2" t="n">
-        <v>152.0058626025113</v>
+        <v>0.08984761106929863</v>
       </c>
       <c r="E2" t="n">
-        <v>165.6796850950103</v>
+        <v>0.09901092064968045</v>
       </c>
       <c r="F2" t="n">
-        <v>177.2087388018956</v>
+        <v>0.106066548554182</v>
       </c>
       <c r="G2" t="n">
-        <v>182.6640148863038</v>
+        <v>-0.06026399131853716</v>
       </c>
       <c r="H2" t="n">
-        <v>189.355041989064</v>
+        <v>-0.199184889895533</v>
       </c>
       <c r="I2" t="n">
-        <v>193.850539082857</v>
+        <v>-0.3110610453679737</v>
       </c>
       <c r="J2" t="n">
-        <v>196.560173967787</v>
+        <v>-0.3985688394894432</v>
       </c>
       <c r="K2" t="n">
-        <v>196.2530429092003</v>
+        <v>-0.4656456612068768</v>
       </c>
       <c r="L2" t="n">
-        <v>199.9657609379905</v>
+        <v>-0.5163877609413808</v>
       </c>
       <c r="M2" t="n">
-        <v>199.8078474582896</v>
+        <v>-0.5544393077952358</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2245586049173</v>
+        <v>-0.5827861649564283</v>
       </c>
       <c r="O2" t="n">
-        <v>194.2080952936169</v>
+        <v>0.8119721576969275</v>
       </c>
       <c r="P2" t="n">
-        <v>194.8513185741588</v>
+        <v>1.962168814291268</v>
       </c>
       <c r="Q2" t="n">
-        <v>195.8491723323571</v>
+        <v>2.912787934400295</v>
       </c>
       <c r="R2" t="n">
-        <v>197.0673800112091</v>
+        <v>3.700810498514016</v>
       </c>
       <c r="S2" t="n">
-        <v>197.3133201360533</v>
+        <v>4.356223122842085</v>
       </c>
       <c r="T2" t="n">
-        <v>197.4757458091374</v>
+        <v>4.903183325914271</v>
       </c>
       <c r="U2" t="n">
-        <v>197.7061400545449</v>
+        <v>5.317009108739748</v>
       </c>
       <c r="V2" t="n">
-        <v>198.361404571071</v>
+        <v>5.663719307482864</v>
       </c>
       <c r="W2" t="n">
-        <v>198.8205967000053</v>
+        <v>5.954893178826142</v>
       </c>
       <c r="X2" t="n">
-        <v>199.7280790120538</v>
+        <v>6.199888271166944</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.9365549452664</v>
+        <v>6.406297633795021</v>
       </c>
       <c r="Z2" t="n">
-        <v>200.1310014129438</v>
+        <v>6.580309739061367</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.2420381019104</v>
+        <v>6.726991289326749</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.7939516743337</v>
+        <v>6.160040563313682</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.1525536850442</v>
+        <v>5.650900451506615</v>
       </c>
       <c r="AD2" t="n">
-        <v>201.1396602011956</v>
+        <v>5.192272832862458</v>
       </c>
       <c r="AE2" t="n">
-        <v>201.1633959488647</v>
+        <v>4.777940455790941</v>
       </c>
       <c r="AF2" t="n">
-        <v>201.5170895130453</v>
+        <v>4.402588076693395</v>
       </c>
       <c r="AG2" t="n">
-        <v>201.3491162649458</v>
+        <v>4.061655723456592</v>
       </c>
       <c r="AH2" t="n">
-        <v>201.1996830675347</v>
+        <v>3.751218026163583</v>
       </c>
       <c r="AI2" t="n">
-        <v>201.0311464446157</v>
+        <v>3.0144850526094</v>
       </c>
       <c r="AJ2" t="n">
-        <v>200.9374718948909</v>
+        <v>2.343110753347263</v>
       </c>
       <c r="AK2" t="n">
-        <v>200.3950919911889</v>
+        <v>1.730131045814315</v>
       </c>
       <c r="AL2" t="n">
-        <v>200.1723151676826</v>
+        <v>1.169483109366447</v>
       </c>
       <c r="AM2" t="n">
-        <v>199.6962397134075</v>
+        <v>0.6558733488075401</v>
       </c>
       <c r="AN2" t="n">
-        <v>199.2846368476185</v>
+        <v>0.1846668021674449</v>
       </c>
       <c r="AO2" t="n">
-        <v>198.8345821532644</v>
+        <v>-0.308070926062101</v>
       </c>
       <c r="AP2" t="n">
-        <v>198.672243804653</v>
+        <v>-0.7614448153778188</v>
       </c>
       <c r="AQ2" t="n">
-        <v>198.0703380152401</v>
+        <v>-1.179033516954605</v>
       </c>
       <c r="AR2" t="n">
-        <v>197.9473835804847</v>
+        <v>-1.564003262940406</v>
       </c>
       <c r="AS2" t="n">
-        <v>197.3867797335095</v>
+        <v>-1.919162191540311</v>
       </c>
       <c r="AT2" t="n">
-        <v>197.3764139865513</v>
+        <v>-2.247006800301624</v>
       </c>
       <c r="AU2" t="n">
-        <v>196.9444543086909</v>
+        <v>-2.386524826321417</v>
       </c>
       <c r="AV2" t="n">
-        <v>196.5650080865191</v>
+        <v>-2.513728265210472</v>
       </c>
       <c r="AW2" t="n">
-        <v>197.682499560483</v>
+        <v>-2.629577310704732</v>
       </c>
       <c r="AX2" t="n">
-        <v>197.6455094755093</v>
+        <v>-2.734934090200742</v>
       </c>
       <c r="AY2" t="n">
-        <v>197.4978309437237</v>
+        <v>-2.830574866592944</v>
       </c>
       <c r="AZ2" t="n">
-        <v>197.4756011062082</v>
+        <v>-2.917200630526035</v>
       </c>
       <c r="BA2" t="n">
-        <v>197.0451186588308</v>
+        <v>-2.995446314681529</v>
       </c>
       <c r="BB2" t="n">
-        <v>196.5895451982485</v>
+        <v>-3.242189068386073</v>
       </c>
       <c r="BC2" t="n">
-        <v>196.2193177221141</v>
+        <v>-3.471765321625615</v>
       </c>
       <c r="BD2" t="n">
-        <v>195.9148051320519</v>
+        <v>-3.685248699233</v>
       </c>
       <c r="BE2" t="n">
-        <v>195.3846903799301</v>
+        <v>-3.883619322797504</v>
       </c>
       <c r="BF2" t="n">
-        <v>194.8420666355921</v>
+        <v>-4.067774546310786</v>
       </c>
       <c r="BG2" t="n">
-        <v>194.278869739977</v>
+        <v>-4.238538430901889</v>
       </c>
       <c r="BH2" t="n">
-        <v>193.4154463704942</v>
+        <v>-4.396670113039753</v>
       </c>
       <c r="BI2" t="n">
-        <v>193.1721791881978</v>
+        <v>-4.542871198402652</v>
       </c>
       <c r="BJ2" t="n">
-        <v>192.2447272205119</v>
+        <v>-4.724249266648549</v>
       </c>
       <c r="BK2" t="n">
-        <v>191.7165424349642</v>
+        <v>-4.892731959167667</v>
       </c>
       <c r="BL2" t="n">
-        <v>190.0865958158925</v>
+        <v>-5.048978394586172</v>
       </c>
       <c r="BM2" t="n">
-        <v>187.9368723756335</v>
+        <v>-5.19360496816574</v>
       </c>
       <c r="BN2" t="n">
-        <v>185.7882269908923</v>
+        <v>-5.327190141798283</v>
       </c>
       <c r="BO2" t="n">
-        <v>183.7892537599541</v>
+        <v>-5.450278665431833</v>
       </c>
       <c r="BP2" t="n">
-        <v>181.9862372037558</v>
+        <v>-5.56338528857506</v>
       </c>
       <c r="BQ2" t="n">
-        <v>180.2542577895217</v>
+        <v>-5.494618868619897</v>
       </c>
       <c r="BR2" t="n">
-        <v>180.2369998236239</v>
+        <v>-5.424228251227399</v>
       </c>
       <c r="BS2" t="n">
-        <v>178.7269755314181</v>
+        <v>-5.352447242237085</v>
       </c>
       <c r="BT2" t="n">
-        <v>179.0235068635208</v>
+        <v>-5.279500832090574</v>
       </c>
       <c r="BU2" t="n">
-        <v>180.3943734905758</v>
+        <v>-5.205605372034611</v>
       </c>
       <c r="BV2" t="n">
-        <v>181.8762094140235</v>
+        <v>-5.130968682959238</v>
       </c>
       <c r="BW2" t="n">
-        <v>182.8199241012072</v>
+        <v>-4.884779852640197</v>
       </c>
       <c r="BX2" t="n">
-        <v>182.3720095517769</v>
+        <v>-4.645132674984157</v>
       </c>
       <c r="BY2" t="n">
-        <v>181.8148578860838</v>
+        <v>-4.412083185439568</v>
       </c>
       <c r="BZ2" t="n">
-        <v>180.518402602225</v>
+        <v>-4.185679613343267</v>
       </c>
       <c r="CA2" t="n">
-        <v>179.4533078017675</v>
+        <v>-3.965961572413605</v>
       </c>
       <c r="CB2" t="n">
-        <v>179.581832418875</v>
+        <v>-3.752959387948684</v>
       </c>
       <c r="CC2" t="n">
-        <v>179.2516784318805</v>
+        <v>-3.339332951309567</v>
       </c>
       <c r="CD2" t="n">
-        <v>180.0959075606322</v>
+        <v>-2.940479376411804</v>
       </c>
       <c r="CE2" t="n">
-        <v>180.0692136607446</v>
+        <v>-2.55630889160672</v>
       </c>
       <c r="CF2" t="n">
-        <v>180.1350659512909</v>
+        <v>-2.186713467749778</v>
       </c>
       <c r="CG2" t="n">
-        <v>180.079421524628</v>
+        <v>-1.831566647663389</v>
       </c>
       <c r="CH2" t="n">
-        <v>180.1277981372896</v>
+        <v>-1.490723587557146</v>
       </c>
       <c r="CI2" t="n">
-        <v>180.1878974975586</v>
+        <v>-1.1640212910133</v>
       </c>
       <c r="CJ2" t="n">
-        <v>180.2590473568924</v>
+        <v>-0.4297177444412792</v>
       </c>
       <c r="CK2" t="n">
-        <v>180.2548770853029</v>
+        <v>0.2749080542616988</v>
       </c>
       <c r="CL2" t="n">
-        <v>180.3127320068898</v>
+        <v>0.9501669627352827</v>
       </c>
       <c r="CM2" t="n">
-        <v>180.3382842621004</v>
+        <v>1.59641363868277</v>
       </c>
       <c r="CN2" t="n">
-        <v>180.4353135528624</v>
+        <v>2.214044390708541</v>
       </c>
       <c r="CO2" t="n">
-        <v>180.5371466553051</v>
+        <v>2.62971953169505</v>
       </c>
       <c r="CP2" t="n">
-        <v>180.6254558468918</v>
+        <v>3.024193984298721</v>
       </c>
       <c r="CQ2" t="n">
-        <v>180.7817605292096</v>
+        <v>3.397947614050301</v>
       </c>
       <c r="CR2" t="n">
-        <v>180.8815174473618</v>
+        <v>3.751477998700041</v>
       </c>
       <c r="CS2" t="n">
-        <v>181.0632836424588</v>
+        <v>4.085298500212299</v>
       </c>
       <c r="CT2" t="n">
-        <v>181.1473306470592</v>
+        <v>4.399936325830386</v>
       </c>
       <c r="CU2" t="n">
-        <v>181.2238563664454</v>
+        <v>4.695930596475442</v>
       </c>
       <c r="CV2" t="n">
-        <v>181.2507987586191</v>
+        <v>4.973830438665055</v>
       </c>
       <c r="CW2" t="n">
-        <v>181.3404137882139</v>
+        <v>4.992154625932072</v>
       </c>
       <c r="CX2" t="n">
-        <v>181.3149461351069</v>
+        <v>5.002528060753267</v>
       </c>
       <c r="CY2" t="n">
-        <v>181.2977431866981</v>
+        <v>5.005493412754228</v>
       </c>
       <c r="CZ2" t="n">
-        <v>181.2985855541494</v>
+        <v>5.001574488303283</v>
       </c>
       <c r="DA2" t="n">
-        <v>181.2930382241146</v>
+        <v>4.991276154109133</v>
       </c>
       <c r="DB2" t="n">
-        <v>181.0077846029128</v>
+        <v>4.975084313144203</v>
       </c>
       <c r="DC2" t="n">
-        <v>181.1602387527795</v>
+        <v>4.953465931300054</v>
       </c>
       <c r="DD2" t="n">
-        <v>180.9819252306753</v>
+        <v>4.952721830090116</v>
       </c>
       <c r="DE2" t="n">
-        <v>180.8228421878475</v>
+        <v>4.946465205754889</v>
       </c>
       <c r="DF2" t="n">
-        <v>180.8635463623009</v>
+        <v>4.935109348800751</v>
       </c>
       <c r="DG2" t="n">
-        <v>180.9888768416658</v>
+        <v>4.919051575260434</v>
       </c>
       <c r="DH2" t="n">
-        <v>181.5734917748195</v>
+        <v>4.898673288460574</v>
       </c>
       <c r="DI2" t="n">
-        <v>182.135558255117</v>
+        <v>4.874340080993613</v>
       </c>
       <c r="DJ2" t="n">
-        <v>181.5175699765732</v>
+        <v>4.846401874025247</v>
       </c>
       <c r="DK2" t="n">
-        <v>180.3517110204946</v>
+        <v>4.815193091028953</v>
       </c>
       <c r="DL2" t="n">
-        <v>180.7674397494672</v>
+        <v>4.679941956126791</v>
       </c>
       <c r="DM2" t="n">
-        <v>180.49249134298</v>
+        <v>4.545812416552306</v>
       </c>
       <c r="DN2" t="n">
-        <v>181.2029289302641</v>
+        <v>4.413083715197862</v>
       </c>
       <c r="DO2" t="n">
-        <v>181.6671867045191</v>
+        <v>4.282011177368757</v>
       </c>
       <c r="DP2" t="n">
-        <v>182.39294613484</v>
+        <v>4.152827246158771</v>
       </c>
       <c r="DQ2" t="n">
-        <v>183.0529330346207</v>
+        <v>4.088117032346657</v>
       </c>
       <c r="DR2" t="n">
-        <v>185.266091856601</v>
+        <v>4.023369915822728</v>
       </c>
       <c r="DS2" t="n">
-        <v>185.7747668719918</v>
+        <v>3.958762117936339</v>
       </c>
       <c r="DT2" t="n">
-        <v>188.3218512739634</v>
+        <v>3.894456772326857</v>
       </c>
       <c r="DU2" t="n">
-        <v>189.1791470570044</v>
+        <v>3.830604432440272</v>
       </c>
       <c r="DV2" t="n">
-        <v>190.214919955935</v>
+        <v>3.767343576726669</v>
       </c>
       <c r="DW2" t="n">
-        <v>190.5301596304855</v>
+        <v>3.535300299924792</v>
       </c>
       <c r="DX2" t="n">
-        <v>190.7830706949234</v>
+        <v>3.310411311595338</v>
       </c>
       <c r="DY2" t="n">
-        <v>190.3236392898152</v>
+        <v>3.092764382917907</v>
       </c>
       <c r="DZ2" t="n">
-        <v>191.3007372943605</v>
+        <v>2.882421533340422</v>
       </c>
       <c r="EA2" t="n">
-        <v>189.6721904609549</v>
+        <v>2.679420729229202</v>
       </c>
       <c r="EB2" t="n">
-        <v>189.5933664947223</v>
+        <v>2.483777523467701</v>
       </c>
       <c r="EC2" t="n">
-        <v>190.3556084022435</v>
+        <v>2.2954866358052</v>
       </c>
       <c r="ED2" t="n">
-        <v>190.2577071575888</v>
+        <v>2.08270122817484</v>
       </c>
       <c r="EE2" t="n">
-        <v>191.6371119811279</v>
+        <v>1.878387329910488</v>
       </c>
       <c r="EF2" t="n">
-        <v>193.2590969984154</v>
+        <v>1.682482768538274</v>
       </c>
       <c r="EG2" t="n">
-        <v>194.2268637397607</v>
+        <v>1.494907341318137</v>
       </c>
       <c r="EH2" t="n">
-        <v>194.4454324564261</v>
+        <v>1.315564331182394</v>
       </c>
       <c r="EI2" t="n">
-        <v>198.0553314044326</v>
+        <v>1.144341956673307</v>
       </c>
       <c r="EJ2" t="n">
-        <v>198.4115928265477</v>
+        <v>0.9811147568665509</v>
       </c>
       <c r="EK2" t="n">
-        <v>200.1660823697637</v>
+        <v>0.8257449123734942</v>
       </c>
       <c r="EL2" t="n">
-        <v>201.4956677693807</v>
+        <v>0.6780835036070872</v>
       </c>
       <c r="EM2" t="n">
-        <v>202.2877322276821</v>
+        <v>0.5379717075755005</v>
       </c>
       <c r="EN2" t="n">
-        <v>203.7492376045602</v>
+        <v>0.4052419345357378</v>
       </c>
       <c r="EO2" t="n">
-        <v>203.094034691068</v>
+        <v>0.2797189058974571</v>
       </c>
       <c r="EP2" t="n">
-        <v>203.0761119235893</v>
+        <v>0.1455601659418315</v>
       </c>
       <c r="EQ2" t="n">
-        <v>207.1234762221941</v>
+        <v>0.01882202358112989</v>
       </c>
       <c r="ER2" t="n">
-        <v>209.1364754671847</v>
+        <v>-0.1006895493611572</v>
       </c>
       <c r="ES2" t="n">
-        <v>209.8918103893293</v>
+        <v>-0.213173957290426</v>
       </c>
       <c r="ET2" t="n">
-        <v>211.2695188665605</v>
+        <v>-0.3188350628526779</v>
       </c>
       <c r="EU2" t="n">
-        <v>209.5452771404813</v>
+        <v>0.001139358010194824</v>
       </c>
       <c r="EV2" t="n">
-        <v>212.4944996593447</v>
+        <v>0.3119110978445974</v>
       </c>
       <c r="EW2" t="n">
-        <v>215.0748798527179</v>
+        <v>0.6133099040258065</v>
       </c>
       <c r="EX2" t="n">
-        <v>215.6236793968587</v>
+        <v>0.9052027916173706</v>
       </c>
       <c r="EY2" t="n">
-        <v>215.6415125769574</v>
+        <v>1.187491724286521</v>
       </c>
       <c r="EZ2" t="n">
-        <v>215.9070258530965</v>
+        <v>1.460111368617994</v>
       </c>
       <c r="FA2" t="n">
-        <v>216.1719471111679</v>
+        <v>1.723026922466347</v>
       </c>
       <c r="FB2" t="n">
-        <v>216.2063528712462</v>
+        <v>1.976232017755115</v>
       </c>
       <c r="FC2" t="n">
-        <v>216.4499722766417</v>
+        <v>2.219746697914405</v>
       </c>
       <c r="FD2" t="n">
-        <v>216.6686111775512</v>
+        <v>2.453615469946175</v>
       </c>
       <c r="FE2" t="n">
-        <v>217.4132763328069</v>
+        <v>2.677905430917853</v>
       </c>
       <c r="FF2" t="n">
-        <v>218.0682701449783</v>
+        <v>2.892704468509615</v>
       </c>
       <c r="FG2" t="n">
-        <v>218.6820031680742</v>
+        <v>3.098119535077953</v>
       </c>
       <c r="FH2" t="n">
-        <v>219.2006471238202</v>
+        <v>3.294274994547783</v>
       </c>
       <c r="FI2" t="n">
-        <v>219.7678619169315</v>
+        <v>3.077974866744309</v>
       </c>
       <c r="FJ2" t="n">
-        <v>220.0292239543045</v>
+        <v>2.867729781363856</v>
       </c>
       <c r="FK2" t="n">
-        <v>220.5281853593105</v>
+        <v>2.663667403728256</v>
       </c>
       <c r="FL2" t="n">
-        <v>220.9769247623922</v>
+        <v>2.465889698560898</v>
       </c>
       <c r="FM2" t="n">
-        <v>221.4336847226637</v>
+        <v>2.274474501429034</v>
       </c>
       <c r="FN2" t="n">
-        <v>221.8582020413736</v>
+        <v>2.089477041981727</v>
       </c>
       <c r="FO2" t="n">
-        <v>220.5306498917657</v>
+        <v>1.910931418378119</v>
       </c>
       <c r="FP2" t="n">
-        <v>220.9732796115229</v>
+        <v>1.738852022471402</v>
       </c>
       <c r="FQ2" t="n">
-        <v>221.2800678989598</v>
+        <v>1.57323491547405</v>
       </c>
       <c r="FR2" t="n">
-        <v>221.658514313768</v>
+        <v>1.414059153979683</v>
       </c>
       <c r="FS2" t="n">
-        <v>221.9395490002446</v>
+        <v>1.261288066356822</v>
       </c>
       <c r="FT2" t="n">
-        <v>222.2875697091081</v>
+        <v>1.114870479659933</v>
       </c>
       <c r="FU2" t="n">
-        <v>222.8407008457398</v>
+        <v>0.974741897323954</v>
       </c>
       <c r="FV2" t="n">
-        <v>223.3402290184882</v>
+        <v>0.8408256280201791</v>
       </c>
       <c r="FW2" t="n">
-        <v>223.8236448879878</v>
+        <v>0.9219305182757209</v>
       </c>
       <c r="FX2" t="n">
-        <v>224.2505085315138</v>
+        <v>1.001283411048663</v>
       </c>
       <c r="FY2" t="n">
-        <v>224.7391304439234</v>
+        <v>1.078797781631492</v>
       </c>
       <c r="FZ2" t="n">
-        <v>225.0412003165475</v>
+        <v>1.154398238564251</v>
       </c>
       <c r="GA2" t="n">
-        <v>225.4022256744084</v>
+        <v>1.228019926002969</v>
       </c>
       <c r="GB2" t="n">
-        <v>225.4490499210944</v>
+        <v>1.299607940790278</v>
       </c>
       <c r="GC2" t="n">
-        <v>225.513968229175</v>
+        <v>1.369116764733812</v>
       </c>
       <c r="GD2" t="n">
-        <v>225.505367571299</v>
+        <v>1.037995969533305</v>
       </c>
       <c r="GE2" t="n">
-        <v>225.4941107497697</v>
+        <v>0.7195701556488112</v>
       </c>
       <c r="GF2" t="n">
-        <v>225.5072501414555</v>
+        <v>0.4137797086950439</v>
       </c>
       <c r="GG2" t="n">
-        <v>225.4203937250993</v>
+        <v>0.1205354826222502</v>
       </c>
       <c r="GH2" t="n">
-        <v>225.3227305044556</v>
+        <v>-0.1602788410367504</v>
       </c>
       <c r="GI2" t="n">
-        <v>225.2595084168398</v>
+        <v>-0.4288044905805231</v>
       </c>
       <c r="GJ2" t="n">
-        <v>225.1997199686375</v>
+        <v>-0.2866917020171361</v>
       </c>
       <c r="GK2" t="n">
-        <v>225.1140202437398</v>
+        <v>-0.1474780928587508</v>
       </c>
       <c r="GL2" t="n">
-        <v>225.3311424732595</v>
+        <v>-0.01132799974343479</v>
       </c>
       <c r="GM2" t="n">
-        <v>225.4928819702501</v>
+        <v>0.121614242049985</v>
       </c>
       <c r="GN2" t="n">
-        <v>225.3596524543459</v>
+        <v>0.2512232483993733</v>
       </c>
       <c r="GO2" t="n">
-        <v>225.5079713965754</v>
+        <v>0.3773915608324457</v>
       </c>
       <c r="GP2" t="n">
-        <v>225.6385003069408</v>
+        <v>0.5000286466885531</v>
       </c>
       <c r="GQ2" t="n">
-        <v>225.4805957656519</v>
+        <v>0.8134951384954381</v>
       </c>
       <c r="GR2" t="n">
-        <v>225.5860974044402</v>
+        <v>1.116056165950174</v>
       </c>
       <c r="GS2" t="n">
-        <v>225.6781427818291</v>
+        <v>1.407685270982499</v>
       </c>
       <c r="GT2" t="n">
-        <v>225.7461598272118</v>
+        <v>1.688387151804514</v>
       </c>
       <c r="GU2" t="n">
-        <v>225.5117365429851</v>
+        <v>1.958195412628763</v>
       </c>
       <c r="GV2" t="n">
-        <v>225.5810347330263</v>
+        <v>1.782056213640028</v>
       </c>
       <c r="GW2" t="n">
-        <v>225.6587350080467</v>
+        <v>1.611370869050079</v>
       </c>
       <c r="GX2" t="n">
-        <v>225.7142293095447</v>
+        <v>1.446204457496513</v>
       </c>
       <c r="GY2" t="n">
-        <v>225.4914468548052</v>
+        <v>1.286602613783941</v>
       </c>
       <c r="GZ2" t="n">
-        <v>225.3086563205396</v>
+        <v>1.132592803266267</v>
       </c>
       <c r="HA2" t="n">
-        <v>225.0745513490718</v>
+        <v>0.9841855533258088</v>
       </c>
       <c r="HB2" t="n">
-        <v>225.1127442107209</v>
+        <v>0.8413756417343191</v>
       </c>
       <c r="HC2" t="n">
-        <v>225.0446632532164</v>
+        <v>0.7041432418119015</v>
       </c>
       <c r="HD2" t="n">
-        <v>225.0835683025634</v>
+        <v>0.3582067670176904</v>
       </c>
       <c r="HE2" t="n">
-        <v>224.849376585571</v>
+        <v>0.02574655606285514</v>
       </c>
       <c r="HF2" t="n">
-        <v>224.8773089364494</v>
+        <v>-0.2933155594512035</v>
       </c>
       <c r="HG2" t="n">
-        <v>222.8552746311093</v>
+        <v>-0.5990879893994931</v>
       </c>
       <c r="HH2" t="n">
-        <v>222.6873796368312</v>
+        <v>-0.8917069229829249</v>
       </c>
       <c r="HI2" t="n">
-        <v>222.5170129209096</v>
+        <v>-0.5219718033090557</v>
       </c>
       <c r="HJ2" t="n">
-        <v>222.3813273074841</v>
+        <v>-0.163609528430958</v>
       </c>
       <c r="HK2" t="n">
-        <v>222.2258392225377</v>
+        <v>0.1832376812218756</v>
       </c>
       <c r="HL2" t="n">
-        <v>222.3724469150813</v>
+        <v>0.5184686360003334</v>
       </c>
       <c r="HM2" t="n">
-        <v>222.483831228259</v>
+        <v>0.8420205009116968</v>
       </c>
       <c r="HN2" t="n">
-        <v>222.5757117584111</v>
+        <v>1.153866209060066</v>
       </c>
       <c r="HO2" t="n">
-        <v>222.6860187101731</v>
+        <v>1.454011965140343</v>
       </c>
       <c r="HP2" t="n">
-        <v>222.5152276260348</v>
+        <v>1.742494839198749</v>
       </c>
       <c r="HQ2" t="n">
-        <v>222.5367246761186</v>
+        <v>2.019380450615943</v>
       </c>
       <c r="HR2" t="n">
-        <v>222.3571048464652</v>
+        <v>2.284760742030525</v>
       </c>
       <c r="HS2" t="n">
-        <v>222.4559279948531</v>
+        <v>2.538751842700258</v>
       </c>
       <c r="HT2" t="n">
-        <v>222.3279220396887</v>
+        <v>2.587057008298948</v>
       </c>
       <c r="HU2" t="n">
-        <v>222.4314485439122</v>
+        <v>2.631509766452775</v>
       </c>
       <c r="HV2" t="n">
-        <v>222.2543404297807</v>
+        <v>2.67226784026994</v>
       </c>
       <c r="HW2" t="n">
-        <v>222.0937782083001</v>
+        <v>2.709487512503546</v>
       </c>
       <c r="HX2" t="n">
-        <v>222.1997405813258</v>
+        <v>2.743323310763736</v>
       </c>
       <c r="HY2" t="n">
-        <v>222.3149078253405</v>
+        <v>2.773927720035485</v>
       </c>
       <c r="HZ2" t="n">
-        <v>222.4517346948156</v>
+        <v>2.801450921310181</v>
       </c>
       <c r="IA2" t="n">
-        <v>222.5789748670919</v>
+        <v>2.903725160586958</v>
       </c>
       <c r="IB2" t="n">
-        <v>222.6664959977444</v>
+        <v>3.000318022786576</v>
       </c>
       <c r="IC2" t="n">
-        <v>222.746776429078</v>
+        <v>3.091379054913396</v>
       </c>
       <c r="ID2" t="n">
-        <v>222.5574285215829</v>
+        <v>3.17706186734029</v>
       </c>
       <c r="IE2" t="n">
-        <v>222.6432731106388</v>
+        <v>3.257523430887101</v>
       </c>
       <c r="IF2" t="n">
-        <v>222.4603133596817</v>
+        <v>3.332923415390868</v>
       </c>
       <c r="IG2" t="n">
-        <v>222.2666131735389</v>
+        <v>3.403423568557863</v>
       </c>
       <c r="IH2" t="n">
-        <v>222.3613614596918</v>
+        <v>3.449279156102451</v>
       </c>
       <c r="II2" t="n">
-        <v>222.4504835687316</v>
+        <v>3.491303652459757</v>
       </c>
       <c r="IJ2" t="n">
-        <v>222.5378629760631</v>
+        <v>3.529659748066183</v>
       </c>
       <c r="IK2" t="n">
-        <v>222.6048716208207</v>
+        <v>3.564508265919232</v>
       </c>
       <c r="IL2" t="n">
-        <v>222.4138119097188</v>
+        <v>3.596007865312342</v>
       </c>
       <c r="IM2" t="n">
-        <v>222.5042823764317</v>
+        <v>3.566538152566584</v>
       </c>
       <c r="IN2" t="n">
-        <v>222.6398109969178</v>
+        <v>3.536180691748111</v>
       </c>
       <c r="IO2" t="n">
-        <v>222.7319129564186</v>
+        <v>3.505080483901246</v>
       </c>
       <c r="IP2" t="n">
-        <v>222.8348978723199</v>
+        <v>3.473374103588034</v>
       </c>
       <c r="IQ2" t="n">
-        <v>222.6384590366677</v>
+        <v>3.44118993859497</v>
       </c>
       <c r="IR2" t="n">
-        <v>222.6943117226117</v>
+        <v>3.408648434332725</v>
       </c>
       <c r="IS2" t="n">
-        <v>222.760829894221</v>
+        <v>3.375862341937775</v>
       </c>
       <c r="IT2" t="n">
-        <v>222.8293196720961</v>
+        <v>3.304345332078452</v>
       </c>
       <c r="IU2" t="n">
-        <v>222.8961954405666</v>
+        <v>3.234224172743292</v>
       </c>
       <c r="IV2" t="n">
-        <v>222.9829094335884</v>
+        <v>3.165586267664469</v>
       </c>
       <c r="IW2" t="n">
-        <v>223.0276920287202</v>
+        <v>3.09850877367112</v>
       </c>
       <c r="IX2" t="n">
-        <v>223.0937494030043</v>
+        <v>3.033059130152686</v>
       </c>
       <c r="IY2" t="n">
-        <v>223.1735297409919</v>
+        <v>2.969295576500901</v>
       </c>
       <c r="IZ2" t="n">
-        <v>223.2328513810151</v>
+        <v>2.744014313328071</v>
       </c>
       <c r="JA2" t="n">
-        <v>223.26584799741</v>
+        <v>2.52658899268138</v>
       </c>
       <c r="JB2" t="n">
-        <v>223.3007170042119</v>
+        <v>2.317037254924493</v>
       </c>
       <c r="JC2" t="n">
-        <v>223.1308170756129</v>
+        <v>2.115354402447758</v>
       </c>
       <c r="JD2" t="n">
-        <v>223.179718942942</v>
+        <v>1.921515016586517</v>
       </c>
       <c r="JE2" t="n">
-        <v>223.2181922949857</v>
+        <v>1.735474513862991</v>
       </c>
       <c r="JF2" t="n">
-        <v>223.2589675832602</v>
+        <v>1.360502434162651</v>
       </c>
       <c r="JG2" t="n">
-        <v>223.2949101641931</v>
+        <v>1.0005117155576</v>
       </c>
       <c r="JH2" t="n">
-        <v>223.217156514684</v>
+        <v>0.6553897685527952</v>
       </c>
       <c r="JI2" t="n">
-        <v>223.0282588821984</v>
+        <v>0.3249922986945902</v>
       </c>
       <c r="JJ2" t="n">
-        <v>223.0732295980347</v>
+        <v>0.009145969825302774</v>
       </c>
       <c r="JK2" t="n">
-        <v>222.9086072750571</v>
+        <v>-0.292349046220669</v>
       </c>
       <c r="JL2" t="n">
-        <v>222.1500553944639</v>
+        <v>0.1319805223233741</v>
       </c>
       <c r="JM2" t="n">
-        <v>221.4345838798105</v>
+        <v>0.5436908692340734</v>
       </c>
       <c r="JN2" t="n">
-        <v>220.7278526255695</v>
+        <v>0.9425865210619164</v>
       </c>
       <c r="JO2" t="n">
-        <v>220.0857981161836</v>
+        <v>1.328520337830734</v>
       </c>
       <c r="JP2" t="n">
-        <v>217.9103992307506</v>
+        <v>1.701390435423797</v>
       </c>
       <c r="JQ2" t="n">
-        <v>217.5207227162815</v>
+        <v>2.061137207896584</v>
       </c>
       <c r="JR2" t="n">
-        <v>216.49284191833</v>
+        <v>2.094556483577625</v>
       </c>
       <c r="JS2" t="n">
-        <v>215.9029631975605</v>
+        <v>2.126510494146979</v>
       </c>
       <c r="JT2" t="n">
-        <v>215.2903756352029</v>
+        <v>2.157018962965555</v>
       </c>
       <c r="JU2" t="n">
-        <v>214.7159035814855</v>
+        <v>2.186104065342994</v>
       </c>
       <c r="JV2" t="n">
-        <v>214.2152473641321</v>
+        <v>2.213790193090042</v>
       </c>
       <c r="JW2" t="n">
-        <v>213.6735670451125</v>
+        <v>2.240103730049414</v>
       </c>
       <c r="JX2" t="n">
-        <v>213.0612066832373</v>
+        <v>2.040517907580397</v>
       </c>
       <c r="JY2" t="n">
-        <v>212.5160797746674</v>
+        <v>1.847979011649313</v>
       </c>
       <c r="JZ2" t="n">
-        <v>211.9148722369867</v>
+        <v>1.662496187228523</v>
       </c>
       <c r="KA2" t="n">
-        <v>211.4125809418094</v>
+        <v>1.484059039256903</v>
       </c>
       <c r="KB2" t="n">
-        <v>211.2864538861317</v>
+        <v>1.312639063854593</v>
       </c>
       <c r="KC2" t="n">
-        <v>210.6523772593275</v>
+        <v>1.148191025207895</v>
       </c>
       <c r="KD2" t="n">
-        <v>209.7826403014705</v>
+        <v>0.9906542783415991</v>
       </c>
       <c r="KE2" t="n">
-        <v>208.9713081979287</v>
+        <v>0.8399540381252261</v>
       </c>
       <c r="KF2" t="n">
-        <v>208.3598586160981</v>
+        <v>0.7187125458205534</v>
       </c>
       <c r="KG2" t="n">
-        <v>208.0633997979368</v>
+        <v>0.6032747426767828</v>
       </c>
       <c r="KH2" t="n">
-        <v>207.5509029806576</v>
+        <v>0.4935327295069327</v>
       </c>
       <c r="KI2" t="n">
-        <v>207.3662959445105</v>
+        <v>0.3893711137264375</v>
       </c>
       <c r="KJ2" t="n">
-        <v>207.2168909045677</v>
+        <v>0.2906678563505704</v>
       </c>
       <c r="KK2" t="n">
-        <v>206.7828633653888</v>
+        <v>0.197295075946059</v>
       </c>
       <c r="KL2" t="n">
-        <v>206.4183892594878</v>
+        <v>-0.08754839680819873</v>
       </c>
       <c r="KM2" t="n">
-        <v>206.0370107939976</v>
+        <v>-0.3600084601163623</v>
       </c>
       <c r="KN2" t="n">
-        <v>205.7177492336718</v>
+        <v>-0.620245361165823</v>
       </c>
       <c r="KO2" t="n">
-        <v>204.2871051775567</v>
+        <v>-0.8684405491654553</v>
       </c>
       <c r="KP2" t="n">
-        <v>204.1670931564597</v>
+        <v>-1.104794666994775</v>
       </c>
       <c r="KQ2" t="n">
-        <v>204.1642499181472</v>
+        <v>-1.329525635730535</v>
       </c>
       <c r="KR2" t="n">
-        <v>203.7034928346467</v>
+        <v>-1.34619862330837</v>
       </c>
       <c r="KS2" t="n">
-        <v>203.419075450977</v>
+        <v>-1.359052148045001</v>
       </c>
       <c r="KT2" t="n">
-        <v>202.968978191233</v>
+        <v>-1.36832613156216</v>
       </c>
       <c r="KU2" t="n">
-        <v>202.4746737861371</v>
+        <v>-1.374252843385576</v>
       </c>
       <c r="KV2" t="n">
-        <v>202.2697211785738</v>
+        <v>-1.377056828938419</v>
       </c>
       <c r="KW2" t="n">
-        <v>201.7760570354867</v>
+        <v>-1.376954863377365</v>
       </c>
       <c r="KX2" t="n">
-        <v>201.2629864676727</v>
+        <v>-1.374155929538756</v>
       </c>
       <c r="KY2" t="n">
-        <v>201.1036659839239</v>
+        <v>-1.621943039663811</v>
       </c>
       <c r="KZ2" t="n">
-        <v>201.3922320031676</v>
+        <v>-1.858003936167874</v>
       </c>
       <c r="LA2" t="n">
-        <v>202.7499200794256</v>
+        <v>-2.082549075659339</v>
       </c>
       <c r="LB2" t="n">
-        <v>203.6986322804379</v>
+        <v>-2.29580461751394</v>
       </c>
       <c r="LC2" t="n">
-        <v>205.0042624499509</v>
+        <v>-2.498010690837121</v>
       </c>
       <c r="LD2" t="n">
-        <v>206.2235626998472</v>
+        <v>-2.689419748510553</v>
       </c>
       <c r="LE2" t="n">
-        <v>207.1815372640543</v>
+        <v>-2.870295006473128</v>
       </c>
       <c r="LF2" t="n">
-        <v>207.555208020012</v>
+        <v>-2.631982563002109</v>
       </c>
       <c r="LG2" t="n">
-        <v>207.7533858009445</v>
+        <v>-2.398916160301448</v>
       </c>
       <c r="LH2" t="n">
-        <v>207.773345282645</v>
+        <v>-2.171342744158525</v>
       </c>
       <c r="LI2" t="n">
-        <v>208.6212725130067</v>
+        <v>-1.94947682417749</v>
       </c>
       <c r="LJ2" t="n">
-        <v>209.6981993430829</v>
+        <v>-1.73350222933318</v>
       </c>
       <c r="LK2" t="n">
-        <v>210.6788420734882</v>
+        <v>-1.702128352345384</v>
       </c>
       <c r="LL2" t="n">
-        <v>211.3754835248339</v>
+        <v>-1.670279489113566</v>
       </c>
       <c r="LM2" t="n">
-        <v>212.2919457301776</v>
+        <v>-1.638074986775031</v>
       </c>
       <c r="LN2" t="n">
-        <v>213.2413986051991</v>
+        <v>-1.605626572518505</v>
       </c>
       <c r="LO2" t="n">
-        <v>213.8940072081147</v>
+        <v>-1.573038601860142</v>
       </c>
       <c r="LP2" t="n">
-        <v>214.5062215841567</v>
+        <v>-1.121418418810266</v>
       </c>
       <c r="LQ2" t="n">
-        <v>215.054364154376</v>
+        <v>-0.6854479530628251</v>
       </c>
       <c r="LR2" t="n">
-        <v>215.5849584684285</v>
+        <v>-0.2651699472548871</v>
       </c>
       <c r="LS2" t="n">
-        <v>216.1004129483429</v>
+        <v>0.1394179214652967</v>
       </c>
       <c r="LT2" t="n">
-        <v>216.291409125302</v>
+        <v>0.5283597985479928</v>
       </c>
       <c r="LU2" t="n">
-        <v>216.0506304851827</v>
+        <v>0.901738530136881</v>
       </c>
       <c r="LV2" t="n">
-        <v>216.3685934608776</v>
+        <v>1.259672661814539</v>
       </c>
       <c r="LW2" t="n">
-        <v>216.6501095892337</v>
+        <v>1.602313557365059</v>
       </c>
       <c r="LX2" t="n">
-        <v>216.9598257953649</v>
+        <v>1.929842636644647</v>
       </c>
       <c r="LY2" t="n">
-        <v>217.3652962154432</v>
+        <v>2.242468731397616</v>
       </c>
       <c r="LZ2" t="n">
-        <v>217.0708306591181</v>
+        <v>2.540425557623009</v>
       </c>
       <c r="MA2" t="n">
-        <v>217.0765578341635</v>
+        <v>2.823969302885392</v>
       </c>
       <c r="MB2" t="n">
-        <v>217.5468240074495</v>
+        <v>3.093376326771092</v>
       </c>
       <c r="MC2" t="n">
-        <v>217.491544126736</v>
+        <v>3.154506012845495</v>
       </c>
       <c r="MD2" t="n">
-        <v>217.4301840965241</v>
+        <v>3.209343626629973</v>
       </c>
       <c r="ME2" t="n">
-        <v>217.4412810218138</v>
+        <v>3.258194319988164</v>
       </c>
       <c r="MF2" t="n">
-        <v>217.5297304577073</v>
+        <v>3.301357350298821</v>
       </c>
       <c r="MG2" t="n">
-        <v>217.5144763210142</v>
+        <v>3.339125702944187</v>
       </c>
       <c r="MH2" t="n">
-        <v>217.7713930507123</v>
+        <v>3.371785757696744</v>
       </c>
       <c r="MI2" t="n">
-        <v>217.9691646736118</v>
+        <v>3.697719264259306</v>
       </c>
       <c r="MJ2" t="n">
-        <v>217.8124992638484</v>
+        <v>4.007996031358044</v>
       </c>
       <c r="MK2" t="n">
-        <v>217.5881351180323</v>
+        <v>4.302910198045098</v>
       </c>
       <c r="ML2" t="n">
-        <v>217.4893519905416</v>
+        <v>4.5827758907319</v>
       </c>
       <c r="MM2" t="n">
-        <v>217.3777286086085</v>
+        <v>4.847924947010948</v>
       </c>
       <c r="MN2" t="n">
-        <v>217.2791234819892</v>
+        <v>5.098704755558193</v>
       </c>
       <c r="MO2" t="n">
-        <v>217.166444488274</v>
+        <v>5.335476209559707</v>
       </c>
       <c r="MP2" t="n">
-        <v>216.7064469385381</v>
+        <v>5.55861177098613</v>
       </c>
       <c r="MQ2" t="n">
-        <v>216.7695538775307</v>
+        <v>5.768493642933961</v>
       </c>
       <c r="MR2" t="n">
-        <v>216.6218613733866</v>
+        <v>5.965512047163272</v>
       </c>
       <c r="MS2" t="n">
-        <v>216.4612281844222</v>
+        <v>6.150063603886075</v>
       </c>
       <c r="MT2" t="n">
-        <v>216.4080673912904</v>
+        <v>6.322549810797507</v>
       </c>
       <c r="MU2" t="n">
-        <v>216.3806261053484</v>
+        <v>6.483375618292406</v>
       </c>
       <c r="MV2" t="n">
-        <v>216.2996641235309</v>
+        <v>6.632948097772071</v>
       </c>
       <c r="MW2" t="n">
-        <v>215.842797725437</v>
+        <v>6.77167519991914</v>
       </c>
       <c r="MX2" t="n">
-        <v>215.0874501992843</v>
+        <v>6.601862332287642</v>
       </c>
       <c r="MY2" t="n">
-        <v>214.7926550183141</v>
+        <v>6.433118346450511</v>
       </c>
       <c r="MZ2" t="n">
-        <v>214.4288836192794</v>
+        <v>6.265818060755812</v>
       </c>
       <c r="NA2" t="n">
-        <v>214.6586484996564</v>
+        <v>6.100305509928033</v>
       </c>
       <c r="NB2" t="n">
-        <v>214.7478348615726</v>
+        <v>5.936895235301704</v>
       </c>
       <c r="NC2" t="n">
-        <v>214.5569847114308</v>
+        <v>5.775873561317662</v>
       </c>
       <c r="ND2" t="n">
-        <v>214.6311076793301</v>
+        <v>5.617499855852474</v>
       </c>
       <c r="NE2" t="n">
-        <v>214.5279992314236</v>
+        <v>5.462007772169299</v>
       </c>
       <c r="NF2" t="n">
-        <v>214.6657540351084</v>
+        <v>5.309606470486504</v>
       </c>
       <c r="NG2" t="n">
-        <v>214.5986549853035</v>
+        <v>5.160481817358789</v>
       </c>
       <c r="NH2" t="n">
-        <v>214.4120733555876</v>
+        <v>5.01479756125461</v>
       </c>
       <c r="NI2" t="n">
-        <v>214.4056058250244</v>
+        <v>4.872696482893503</v>
       </c>
       <c r="NJ2" t="n">
-        <v>214.0261213663272</v>
+        <v>4.734301519077569</v>
       </c>
       <c r="NK2" t="n">
-        <v>213.746764493617</v>
+        <v>4.62548440086487</v>
       </c>
       <c r="NL2" t="n">
-        <v>213.7567993616722</v>
+        <v>4.519604604830035</v>
       </c>
       <c r="NM2" t="n">
-        <v>213.7753873216501</v>
+        <v>4.416734519927158</v>
       </c>
       <c r="NN2" t="n">
-        <v>213.4230074659458</v>
+        <v>4.316933281532227</v>
       </c>
       <c r="NO2" t="n">
-        <v>213.4458663369737</v>
+        <v>4.220247565079705</v>
       </c>
       <c r="NP2" t="n">
-        <v>213.6949791574789</v>
+        <v>4.126712356043774</v>
       </c>
       <c r="NQ2" t="n">
-        <v>213.8568654579728</v>
+        <v>4.205019113620852</v>
       </c>
       <c r="NR2" t="n">
-        <v>214.0874570821261</v>
+        <v>4.280233671511033</v>
       </c>
       <c r="NS2" t="n">
-        <v>214.2343479774162</v>
+        <v>4.352376829608517</v>
       </c>
       <c r="NT2" t="n">
-        <v>214.5176831304467</v>
+        <v>4.421476113505773</v>
       </c>
       <c r="NU2" t="n">
-        <v>213.7330485457803</v>
+        <v>4.487565217780275</v>
       </c>
       <c r="NV2" t="n">
-        <v>213.9814107165911</v>
+        <v>4.55068347275601</v>
       </c>
       <c r="NW2" t="n">
-        <v>214.2336301786573</v>
+        <v>4.610875334480824</v>
       </c>
       <c r="NX2" t="n">
-        <v>214.5310412409902</v>
+        <v>4.668189897617091</v>
       </c>
       <c r="NY2" t="n">
-        <v>214.8834249774332</v>
+        <v>4.319349210849998</v>
       </c>
       <c r="NZ2" t="n">
-        <v>215.201722221189</v>
+        <v>3.982760098079308</v>
       </c>
       <c r="OA2" t="n">
-        <v>215.3626474688158</v>
+        <v>3.658443400804066</v>
       </c>
       <c r="OB2" t="n">
-        <v>215.6186486086872</v>
+        <v>3.34638562061898</v>
       </c>
       <c r="OC2" t="n">
-        <v>215.6537117186946</v>
+        <v>3.046541421684105</v>
       </c>
       <c r="OD2" t="n">
-        <v>215.7395628019506</v>
+        <v>2.758836038665544</v>
       </c>
       <c r="OE2" t="n">
-        <v>215.9350737224701</v>
+        <v>2.692063850876202</v>
       </c>
       <c r="OF2" t="n">
-        <v>215.8557814250765</v>
+        <v>2.629423276179701</v>
       </c>
       <c r="OG2" t="n">
-        <v>215.7961980843865</v>
+        <v>2.570785212302626</v>
       </c>
       <c r="OH2" t="n">
-        <v>215.6737683221212</v>
+        <v>2.516019117911012</v>
       </c>
       <c r="OI2" t="n">
-        <v>215.5427581814041</v>
+        <v>2.464993465316353</v>
       </c>
       <c r="OJ2" t="n">
-        <v>215.5452960174349</v>
+        <v>2.417576163307209</v>
       </c>
       <c r="OK2" t="n">
-        <v>215.4416054737962</v>
+        <v>1.975121764615257</v>
       </c>
       <c r="OL2" t="n">
-        <v>215.3420843126994</v>
+        <v>1.55085058870269</v>
       </c>
       <c r="OM2" t="n">
-        <v>215.2554991500636</v>
+        <v>1.14459210862211</v>
       </c>
       <c r="ON2" t="n">
-        <v>215.2022754165265</v>
+        <v>0.7561398399535695</v>
       </c>
       <c r="OO2" t="n">
-        <v>215.4312897367979</v>
+        <v>0.3852544759133817</v>
       </c>
       <c r="OP2" t="n">
-        <v>215.6985191155075</v>
+        <v>0.03166688513263127</v>
       </c>
       <c r="OQ2" t="n">
-        <v>215.9444615638755</v>
+        <v>-0.304919026053883</v>
       </c>
       <c r="OR2" t="n">
-        <v>216.2378163607401</v>
+        <v>-0.8246883381053869</v>
       </c>
       <c r="OS2" t="n">
-        <v>216.4355944764881</v>
+        <v>-1.320676016173429</v>
       </c>
       <c r="OT2" t="n">
-        <v>216.6096517374793</v>
+        <v>-1.793262748517031</v>
       </c>
       <c r="OU2" t="n">
-        <v>216.8524910438781</v>
+        <v>-2.242864506610649</v>
       </c>
       <c r="OV2" t="n">
-        <v>217.1046105390592</v>
+        <v>-2.669928897839202</v>
       </c>
       <c r="OW2" t="n">
-        <v>217.3326652716109</v>
+        <v>-3.07493169548526</v>
       </c>
       <c r="OX2" t="n">
-        <v>217.4331371104536</v>
+        <v>-3.45837354256134</v>
       </c>
       <c r="OY2" t="n">
-        <v>217.6121542427669</v>
+        <v>-3.820776825822572</v>
       </c>
       <c r="OZ2" t="n">
-        <v>217.8058454734601</v>
+        <v>-4.162682716102784</v>
       </c>
       <c r="PA2" t="n">
-        <v>217.909519001674</v>
+        <v>-4.484648370948944</v>
       </c>
       <c r="PB2" t="n">
-        <v>217.9036454601622</v>
+        <v>-4.787244295383659</v>
       </c>
       <c r="PC2" t="n">
-        <v>216.8790198906602</v>
+        <v>-5.071051856501783</v>
       </c>
       <c r="PD2" t="n">
-        <v>217.0683108308014</v>
+        <v>-5.336660947503844</v>
       </c>
       <c r="PE2" t="n">
-        <v>217.2822693258198</v>
+        <v>-5.403747182492306</v>
       </c>
       <c r="PF2" t="n">
-        <v>217.4615867803597</v>
+        <v>-5.460568521133784</v>
       </c>
       <c r="PG2" t="n">
-        <v>217.5534613299604</v>
+        <v>-5.507710140957312</v>
       </c>
       <c r="PH2" t="n">
-        <v>217.4601321141969</v>
+        <v>-5.545741095671035</v>
       </c>
       <c r="PI2" t="n">
-        <v>217.1596579386454</v>
+        <v>-5.575213950317429</v>
       </c>
       <c r="PJ2" t="n">
-        <v>216.9921487653544</v>
+        <v>-5.577720347583178</v>
       </c>
       <c r="PK2" t="n">
-        <v>216.6813459891065</v>
+        <v>-5.573428608456552</v>
       </c>
       <c r="PL2" t="n">
-        <v>216.5838803782738</v>
+        <v>-5.562838471149524</v>
       </c>
       <c r="PM2" t="n">
-        <v>216.305520042319</v>
+        <v>-5.546430637459494</v>
       </c>
       <c r="PN2" t="n">
-        <v>216.2641724829875</v>
+        <v>-5.524666853556025</v>
       </c>
       <c r="PO2" t="n">
-        <v>215.9158919599349</v>
+        <v>-5.497990035693783</v>
       </c>
       <c r="PP2" t="n">
-        <v>215.8605843546111</v>
+        <v>-5.106902887408561</v>
       </c>
       <c r="PQ2" t="n">
-        <v>215.7379210667091</v>
+        <v>-4.72513493763276</v>
       </c>
       <c r="PR2" t="n">
-        <v>215.5566530888548</v>
+        <v>-4.353038541784255</v>
       </c>
       <c r="PS2" t="n">
-        <v>215.171396655211</v>
+        <v>-3.990914865868115</v>
       </c>
       <c r="PT2" t="n">
-        <v>215.0761759624906</v>
+        <v>-3.639016757009832</v>
       </c>
       <c r="PU2" t="n">
-        <v>214.9982313176453</v>
+        <v>-3.297551537131727</v>
       </c>
       <c r="PV2" t="n">
-        <v>214.8410628553256</v>
+        <v>-3.326605267696239</v>
       </c>
       <c r="PW2" t="n">
-        <v>214.7201478218011</v>
+        <v>-3.352978551056845</v>
       </c>
       <c r="PX2" t="n">
-        <v>214.7207919783445</v>
+        <v>-3.376793321814301</v>
       </c>
       <c r="PY2" t="n">
-        <v>214.5009399894741</v>
+        <v>-3.39816960404279</v>
       </c>
       <c r="PZ2" t="n">
-        <v>214.4857010518359</v>
+        <v>-3.417225327302452</v>
       </c>
       <c r="QA2" t="n">
-        <v>214.4463992701581</v>
+        <v>-3.434076161471447</v>
       </c>
       <c r="QB2" t="n">
-        <v>214.2089013019516</v>
+        <v>-3.259218443366617</v>
       </c>
       <c r="QC2" t="n">
-        <v>214.2591510390624</v>
+        <v>-3.089440476919531</v>
       </c>
       <c r="QD2" t="n">
-        <v>214.7880013651054</v>
+        <v>-2.924831780629104</v>
       </c>
       <c r="QE2" t="n">
-        <v>213.8600057056306</v>
+        <v>-2.765461609804483</v>
       </c>
       <c r="QF2" t="n">
-        <v>213.4906657404736</v>
+        <v>-2.611380226560283</v>
       </c>
       <c r="QG2" t="n">
-        <v>213.6822003001171</v>
+        <v>-2.059288909374803</v>
       </c>
       <c r="QH2" t="n">
-        <v>213.7707040435945</v>
+        <v>-1.527553405461204</v>
       </c>
       <c r="QI2" t="n">
-        <v>208.2192055359918</v>
+        <v>-1.016134741525703</v>
       </c>
       <c r="QJ2" t="n">
-        <v>208.2945541143611</v>
+        <v>-0.5249423721376874</v>
       </c>
       <c r="QK2" t="n">
-        <v>208.4205979171562</v>
+        <v>-0.05383812603605009</v>
       </c>
       <c r="QL2" t="n">
-        <v>208.5421851849108</v>
+        <v>0.3973600035397015</v>
       </c>
       <c r="QM2" t="n">
-        <v>208.747233010655</v>
+        <v>0.8288742234347236</v>
       </c>
       <c r="QN2" t="n">
-        <v>208.9459735673702</v>
+        <v>0.6090144598500045</v>
       </c>
       <c r="QO2" t="n">
-        <v>209.102309962832</v>
+        <v>0.3935535316061151</v>
       </c>
       <c r="QP2" t="n">
-        <v>209.308954691947</v>
+        <v>0.1827521169199145</v>
       </c>
       <c r="QQ2" t="n">
-        <v>209.5585298060112</v>
+        <v>-0.02316029794659624</v>
       </c>
       <c r="QR2" t="n">
-        <v>209.7753099992132</v>
+        <v>-0.2239837925748293</v>
       </c>
       <c r="QS2" t="n">
-        <v>209.9975958745738</v>
+        <v>-0.419546423944898</v>
       </c>
       <c r="QT2" t="n">
-        <v>210.1923833388021</v>
+        <v>0.02224632162984658</v>
       </c>
       <c r="QU2" t="n">
-        <v>210.3862559968176</v>
+        <v>0.4460345338447906</v>
       </c>
       <c r="QV2" t="n">
-        <v>210.5751584591152</v>
+        <v>0.851977198384994</v>
       </c>
       <c r="QW2" t="n">
-        <v>210.7836671910501</v>
+        <v>1.240269640003188</v>
       </c>
       <c r="QX2" t="n">
-        <v>210.9778343703773</v>
+        <v>1.611140389869348</v>
       </c>
       <c r="QY2" t="n">
-        <v>211.1443501706956</v>
+        <v>1.964848189046196</v>
       </c>
       <c r="QZ2" t="n">
-        <v>211.3166607384236</v>
+        <v>2.301679126333068</v>
       </c>
       <c r="RA2" t="n">
-        <v>211.4945596553333</v>
+        <v>2.427508948817929</v>
       </c>
       <c r="RB2" t="n">
-        <v>211.6576469566854</v>
+        <v>2.544345399567325</v>
       </c>
       <c r="RC2" t="n">
-        <v>211.8757863010024</v>
+        <v>2.652521722749912</v>
       </c>
       <c r="RD2" t="n">
-        <v>212.0141883755324</v>
+        <v>2.752370404365275</v>
       </c>
       <c r="RE2" t="n">
-        <v>212.1714112273807</v>
+        <v>2.258557914040886</v>
       </c>
       <c r="RF2" t="n">
-        <v>212.3335004668213</v>
+        <v>1.778885238340132</v>
       </c>
       <c r="RG2" t="n">
-        <v>212.469985372469</v>
+        <v>1.313620517894802</v>
       </c>
       <c r="RH2" t="n">
-        <v>212.5543126643618</v>
+        <v>0.8629740769600361</v>
       </c>
       <c r="RI2" t="n">
-        <v>212.6828126935124</v>
+        <v>0.4271020130141603</v>
       </c>
       <c r="RJ2" t="n">
-        <v>212.6773618606855</v>
+        <v>0.006109673667767768</v>
       </c>
       <c r="RK2" t="n">
-        <v>212.8427035845445</v>
+        <v>-0.3999449803291291</v>
       </c>
       <c r="RL2" t="n">
-        <v>212.8878777595263</v>
+        <v>0.290163273449856</v>
       </c>
       <c r="RM2" t="n">
-        <v>212.9410731801257</v>
+        <v>0.9549354293157519</v>
       </c>
       <c r="RN2" t="n">
-        <v>213.0405508321479</v>
+        <v>1.594412124085578</v>
       </c>
       <c r="RO2" t="n">
-        <v>213.0603498056493</v>
+        <v>2.208698770858641</v>
       </c>
       <c r="RP2" t="n">
-        <v>213.199083681451</v>
+        <v>2.797960624579439</v>
       </c>
       <c r="RQ2" t="n">
-        <v>213.168282659831</v>
+        <v>3.362418041852778</v>
       </c>
       <c r="RR2" t="n">
-        <v>213.2525519520087</v>
+        <v>3.902341933745142</v>
       </c>
       <c r="RS2" t="n">
-        <v>213.2550988982171</v>
+        <v>3.806734482864533</v>
       </c>
       <c r="RT2" t="n">
-        <v>213.3346080693393</v>
+        <v>3.710032925977643</v>
       </c>
       <c r="RU2" t="n">
-        <v>213.3639569227942</v>
+        <v>3.612574633021309</v>
       </c>
       <c r="RV2" t="n">
-        <v>213.4811778228501</v>
+        <v>3.514674768647437</v>
       </c>
       <c r="RW2" t="n">
-        <v>213.4022900649416</v>
+        <v>3.416627043608053</v>
       </c>
       <c r="RX2" t="n">
-        <v>213.4901661921976</v>
+        <v>3.318704469588915</v>
       </c>
       <c r="RY2" t="n">
-        <v>213.583965563701</v>
+        <v>2.938414878351992</v>
       </c>
       <c r="RZ2" t="n">
-        <v>213.6144605822414</v>
+        <v>2.569265802690806</v>
       </c>
       <c r="SA2" t="n">
-        <v>213.6528111034546</v>
+        <v>2.211445017963161</v>
       </c>
       <c r="SB2" t="n">
-        <v>213.7242272364256</v>
+        <v>1.865096496806529</v>
       </c>
       <c r="SC2" t="n">
-        <v>213.8088185074242</v>
+        <v>1.530323169823174</v>
       </c>
       <c r="SD2" t="n">
-        <v>213.8756867914477</v>
+        <v>1.207189597823883</v>
       </c>
       <c r="SE2" t="n">
-        <v>213.9509590100162</v>
+        <v>0.8957245548309567</v>
       </c>
       <c r="SF2" t="n">
-        <v>214.0419092020849</v>
+        <v>0.5959235213373013</v>
       </c>
       <c r="SG2" t="n">
-        <v>213.9124522454066</v>
+        <v>0.3077510875947981</v>
       </c>
     </row>
     <row r="3">
@@ -3445,1504 +3445,1504 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>116.950655903881</v>
+        <v>38.31203257710337</v>
       </c>
       <c r="C3" t="n">
-        <v>159.6376413754724</v>
+        <v>52.38184759973917</v>
       </c>
       <c r="D3" t="n">
-        <v>184.892777172268</v>
+        <v>60.84047825650376</v>
       </c>
       <c r="E3" t="n">
-        <v>204.5790861996875</v>
+        <v>67.04543051564438</v>
       </c>
       <c r="F3" t="n">
-        <v>219.5901498445417</v>
+        <v>71.82316217707628</v>
       </c>
       <c r="G3" t="n">
-        <v>232.2083022721693</v>
+        <v>75.62176812624006</v>
       </c>
       <c r="H3" t="n">
-        <v>242.0515039474436</v>
+        <v>78.37877264439712</v>
       </c>
       <c r="I3" t="n">
-        <v>248.6425412198257</v>
+        <v>80.28769360634368</v>
       </c>
       <c r="J3" t="n">
-        <v>254.5683860940298</v>
+        <v>81.54901203691911</v>
       </c>
       <c r="K3" t="n">
-        <v>261.8711668142697</v>
+        <v>82.34009228442112</v>
       </c>
       <c r="L3" t="n">
-        <v>264.0091894348881</v>
+        <v>82.80145734182</v>
       </c>
       <c r="M3" t="n">
-        <v>266.4416165530426</v>
+        <v>83.03704622004243</v>
       </c>
       <c r="N3" t="n">
-        <v>269.2126652618998</v>
+        <v>83.12065181141713</v>
       </c>
       <c r="O3" t="n">
-        <v>270.3421997692054</v>
+        <v>82.02170718126116</v>
       </c>
       <c r="P3" t="n">
-        <v>268.6393507859825</v>
+        <v>81.04811684724434</v>
       </c>
       <c r="Q3" t="n">
-        <v>266.6807039432331</v>
+        <v>80.18830332256509</v>
       </c>
       <c r="R3" t="n">
-        <v>264.4011650262025</v>
+        <v>79.42937760461321</v>
       </c>
       <c r="S3" t="n">
-        <v>263.5620010682984</v>
+        <v>78.75875157527744</v>
       </c>
       <c r="T3" t="n">
-        <v>262.2017430925507</v>
+        <v>78.16486995549576</v>
       </c>
       <c r="U3" t="n">
-        <v>260.7448484566945</v>
+        <v>77.46205941133944</v>
       </c>
       <c r="V3" t="n">
-        <v>258.3804896591179</v>
+        <v>76.84182698540232</v>
       </c>
       <c r="W3" t="n">
-        <v>256.901946252821</v>
+        <v>76.29242103142245</v>
       </c>
       <c r="X3" t="n">
-        <v>255.6505853437257</v>
+        <v>75.80392225285919</v>
       </c>
       <c r="Y3" t="n">
-        <v>254.6295326045957</v>
+        <v>75.36796121244494</v>
       </c>
       <c r="Z3" t="n">
-        <v>253.6640286756867</v>
+        <v>74.97746893534537</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.777957326177</v>
+        <v>74.62646323150319</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.8578578468438</v>
+        <v>74.16271485523897</v>
       </c>
       <c r="AC3" t="n">
-        <v>251.1063525435133</v>
+        <v>73.74558274959048</v>
       </c>
       <c r="AD3" t="n">
-        <v>250.7030813178237</v>
+        <v>73.36921661319325</v>
       </c>
       <c r="AE3" t="n">
-        <v>249.9599587700913</v>
+        <v>73.02862761270674</v>
       </c>
       <c r="AF3" t="n">
-        <v>248.8589257830813</v>
+        <v>72.71954665046239</v>
       </c>
       <c r="AG3" t="n">
-        <v>248.6240812455172</v>
+        <v>72.43830792244783</v>
       </c>
       <c r="AH3" t="n">
-        <v>248.3575165141472</v>
+        <v>72.18175304033504</v>
       </c>
       <c r="AI3" t="n">
-        <v>248.1234325522243</v>
+        <v>71.44318741446621</v>
       </c>
       <c r="AJ3" t="n">
-        <v>247.5784941644676</v>
+        <v>70.76999375535209</v>
       </c>
       <c r="AK3" t="n">
-        <v>247.1597086658134</v>
+        <v>70.15520994503954</v>
       </c>
       <c r="AL3" t="n">
-        <v>246.5718221028562</v>
+        <v>69.59277442949031</v>
       </c>
       <c r="AM3" t="n">
-        <v>246.2793498745269</v>
+        <v>69.07739434960953</v>
       </c>
       <c r="AN3" t="n">
-        <v>245.926775724749</v>
+        <v>68.60443508127231</v>
       </c>
       <c r="AO3" t="n">
-        <v>245.6464083495047</v>
+        <v>68.19005745720919</v>
       </c>
       <c r="AP3" t="n">
-        <v>245.5274335239643</v>
+        <v>67.80889068585059</v>
       </c>
       <c r="AQ3" t="n">
-        <v>245.6949484101253</v>
+        <v>67.45791436724693</v>
       </c>
       <c r="AR3" t="n">
-        <v>245.5816013863533</v>
+        <v>67.13445629756345</v>
       </c>
       <c r="AS3" t="n">
-        <v>245.6842038759557</v>
+        <v>66.83614657716819</v>
       </c>
       <c r="AT3" t="n">
-        <v>244.9920140068608</v>
+        <v>66.56087837077307</v>
       </c>
       <c r="AU3" t="n">
-        <v>244.57307568539</v>
+        <v>65.91908367325063</v>
       </c>
       <c r="AV3" t="n">
-        <v>243.7364206544153</v>
+        <v>65.32239735223445</v>
       </c>
       <c r="AW3" t="n">
-        <v>243.0973684210048</v>
+        <v>64.7673725281673</v>
       </c>
       <c r="AX3" t="n">
-        <v>242.9288365483902</v>
+        <v>64.25091622837833</v>
       </c>
       <c r="AY3" t="n">
-        <v>242.8380589289125</v>
+        <v>63.77024682731312</v>
       </c>
       <c r="AZ3" t="n">
-        <v>242.4435937648201</v>
+        <v>63.32285697001659</v>
       </c>
       <c r="BA3" t="n">
-        <v>242.5004317859617</v>
+        <v>62.90648119206625</v>
       </c>
       <c r="BB3" t="n">
-        <v>242.3426457995956</v>
+        <v>62.23363758498024</v>
       </c>
       <c r="BC3" t="n">
-        <v>242.1024148925179</v>
+        <v>61.60390353506356</v>
       </c>
       <c r="BD3" t="n">
-        <v>241.7769233790122</v>
+        <v>61.01462317381005</v>
       </c>
       <c r="BE3" t="n">
-        <v>241.7495354953852</v>
+        <v>60.46337560851556</v>
       </c>
       <c r="BF3" t="n">
-        <v>241.6802454402467</v>
+        <v>59.94794818015161</v>
       </c>
       <c r="BG3" t="n">
-        <v>241.6756181260778</v>
+        <v>59.466312810345</v>
       </c>
       <c r="BH3" t="n">
-        <v>241.7241669558163</v>
+        <v>59.01660505989431</v>
       </c>
       <c r="BI3" t="n">
-        <v>241.1687713983288</v>
+        <v>58.59710557581473</v>
       </c>
       <c r="BJ3" t="n">
-        <v>241.2735211086184</v>
+        <v>58.30342865300639</v>
       </c>
       <c r="BK3" t="n">
-        <v>241.4874719501278</v>
+        <v>58.03224599444</v>
       </c>
       <c r="BL3" t="n">
-        <v>242.6331069013593</v>
+        <v>57.78237855176689</v>
       </c>
       <c r="BM3" t="n">
-        <v>244.0239577016748</v>
+        <v>57.55272221791225</v>
       </c>
       <c r="BN3" t="n">
-        <v>245.4198478493671</v>
+        <v>57.34223949271887</v>
       </c>
       <c r="BO3" t="n">
-        <v>246.7302572635848</v>
+        <v>57.14995215641515</v>
       </c>
       <c r="BP3" t="n">
-        <v>247.6831310431804</v>
+        <v>56.97493484545261</v>
       </c>
       <c r="BQ3" t="n">
-        <v>248.5418744003829</v>
+        <v>56.40446116428543</v>
       </c>
       <c r="BR3" t="n">
-        <v>247.6959709258054</v>
+        <v>55.86723707467616</v>
       </c>
       <c r="BS3" t="n">
-        <v>248.7068800905405</v>
+        <v>55.36196589289928</v>
       </c>
       <c r="BT3" t="n">
-        <v>248.1681282574799</v>
+        <v>54.88741039666337</v>
       </c>
       <c r="BU3" t="n">
-        <v>246.5933454819278</v>
+        <v>54.44238568742718</v>
       </c>
       <c r="BV3" t="n">
-        <v>245.2676423501738</v>
+        <v>54.02575298377275</v>
       </c>
       <c r="BW3" t="n">
-        <v>244.531030165137</v>
+        <v>55.09256846035456</v>
       </c>
       <c r="BX3" t="n">
-        <v>245.1895413918889</v>
+        <v>56.12692511260424</v>
       </c>
       <c r="BY3" t="n">
-        <v>245.9225666003246</v>
+        <v>57.12886953624623</v>
       </c>
       <c r="BZ3" t="n">
-        <v>246.6485416577154</v>
+        <v>58.09847145984153</v>
       </c>
       <c r="CA3" t="n">
-        <v>247.2532619285516</v>
+        <v>59.03582762689199</v>
       </c>
       <c r="CB3" t="n">
-        <v>247.1321803225874</v>
+        <v>59.94106501320729</v>
       </c>
       <c r="CC3" t="n">
-        <v>247.1566259821238</v>
+        <v>60.38474889971545</v>
       </c>
       <c r="CD3" t="n">
-        <v>246.8456921071613</v>
+        <v>60.81329656827036</v>
       </c>
       <c r="CE3" t="n">
-        <v>246.2535123416185</v>
+        <v>61.22675336609966</v>
       </c>
       <c r="CF3" t="n">
-        <v>245.5276931609584</v>
+        <v>61.6251860487017</v>
       </c>
       <c r="CG3" t="n">
-        <v>244.9554545000685</v>
+        <v>62.00868293625097</v>
       </c>
       <c r="CH3" t="n">
-        <v>244.2462107023657</v>
+        <v>62.37735384754642</v>
       </c>
       <c r="CI3" t="n">
-        <v>243.5439033209444</v>
+        <v>62.73132983080473</v>
       </c>
       <c r="CJ3" t="n">
-        <v>242.8792084060617</v>
+        <v>63.21145160491121</v>
       </c>
       <c r="CK3" t="n">
-        <v>242.3108650660061</v>
+        <v>63.67189068364235</v>
       </c>
       <c r="CL3" t="n">
-        <v>241.753298123062</v>
+        <v>64.11287063947024</v>
       </c>
       <c r="CM3" t="n">
-        <v>241.3115745087318</v>
+        <v>64.53464294737147</v>
       </c>
       <c r="CN3" t="n">
-        <v>240.7517857924328</v>
+        <v>64.93748558224274</v>
       </c>
       <c r="CO3" t="n">
-        <v>240.1655028855266</v>
+        <v>65.50898445487444</v>
       </c>
       <c r="CP3" t="n">
-        <v>239.6409480557867</v>
+        <v>66.05516993509474</v>
       </c>
       <c r="CQ3" t="n">
-        <v>239.0733644844052</v>
+        <v>66.57641886392227</v>
       </c>
       <c r="CR3" t="n">
-        <v>238.5497839588943</v>
+        <v>67.07314287651691</v>
       </c>
       <c r="CS3" t="n">
-        <v>238.0522565089876</v>
+        <v>67.54578573732621</v>
       </c>
       <c r="CT3" t="n">
-        <v>237.5849867385512</v>
+        <v>67.99482064278524</v>
       </c>
       <c r="CU3" t="n">
-        <v>237.1469812841756</v>
+        <v>68.42074751537282</v>
       </c>
       <c r="CV3" t="n">
-        <v>236.7444076168656</v>
+        <v>68.82409031053857</v>
       </c>
       <c r="CW3" t="n">
-        <v>236.36125692273</v>
+        <v>69.29633948340883</v>
       </c>
       <c r="CX3" t="n">
-        <v>236.0189904181344</v>
+        <v>69.74372369345319</v>
       </c>
       <c r="CY3" t="n">
-        <v>235.7164340745888</v>
+        <v>70.16683280673099</v>
       </c>
       <c r="CZ3" t="n">
-        <v>235.617732244008</v>
+        <v>70.56627859252279</v>
       </c>
       <c r="DA3" t="n">
-        <v>235.5222159338527</v>
+        <v>70.9426917597156</v>
       </c>
       <c r="DB3" t="n">
-        <v>235.4924829985063</v>
+        <v>71.29671909944717</v>
       </c>
       <c r="DC3" t="n">
-        <v>235.1504279670785</v>
+        <v>71.62902074297506</v>
       </c>
       <c r="DD3" t="n">
-        <v>235.2019199660825</v>
+        <v>71.82025591080411</v>
       </c>
       <c r="DE3" t="n">
-        <v>235.2501598723376</v>
+        <v>71.99558777316334</v>
       </c>
       <c r="DF3" t="n">
-        <v>235.0048615380457</v>
+        <v>72.15568966259484</v>
       </c>
       <c r="DG3" t="n">
-        <v>234.6802998118351</v>
+        <v>72.30122743225466</v>
       </c>
       <c r="DH3" t="n">
-        <v>234.8405771883348</v>
+        <v>72.43285820439021</v>
       </c>
       <c r="DI3" t="n">
-        <v>234.2862252465511</v>
+        <v>72.55122922598552</v>
       </c>
       <c r="DJ3" t="n">
-        <v>234.436210142372</v>
+        <v>72.6569768291285</v>
       </c>
       <c r="DK3" t="n">
-        <v>234.8295036379834</v>
+        <v>72.75072549311326</v>
       </c>
       <c r="DL3" t="n">
-        <v>234.865055225863</v>
+        <v>72.86020452877945</v>
       </c>
       <c r="DM3" t="n">
-        <v>235.4438921770333</v>
+        <v>72.95788374025278</v>
       </c>
       <c r="DN3" t="n">
-        <v>235.5134936823351</v>
+        <v>73.04435007585374</v>
       </c>
       <c r="DO3" t="n">
-        <v>235.7304405944167</v>
+        <v>73.12017834575499</v>
       </c>
       <c r="DP3" t="n">
-        <v>236.3597677210722</v>
+        <v>73.18593053940805</v>
       </c>
       <c r="DQ3" t="n">
-        <v>236.8797280146731</v>
+        <v>72.91926014965694</v>
       </c>
       <c r="DR3" t="n">
-        <v>236.4158707437449</v>
+        <v>72.65563707556211</v>
       </c>
       <c r="DS3" t="n">
-        <v>237.6819899181009</v>
+        <v>72.39554880851819</v>
       </c>
       <c r="DT3" t="n">
-        <v>237.3681733771499</v>
+        <v>72.13943816297915</v>
       </c>
       <c r="DU3" t="n">
-        <v>237.4614643282786</v>
+        <v>71.88770531790703</v>
       </c>
       <c r="DV3" t="n">
-        <v>237.7902369505514</v>
+        <v>71.64070982680998</v>
       </c>
       <c r="DW3" t="n">
-        <v>236.0875436072116</v>
+        <v>71.6145953049469</v>
       </c>
       <c r="DX3" t="n">
-        <v>235.0390039828725</v>
+        <v>71.58577598150644</v>
       </c>
       <c r="DY3" t="n">
-        <v>234.5922916013641</v>
+        <v>71.55452347113737</v>
       </c>
       <c r="DZ3" t="n">
-        <v>232.1441545189002</v>
+        <v>71.52109634633052</v>
       </c>
       <c r="EA3" t="n">
-        <v>231.7909723743003</v>
+        <v>71.48574038575485</v>
       </c>
       <c r="EB3" t="n">
-        <v>231.0727805192481</v>
+        <v>71.44868883922341</v>
       </c>
       <c r="EC3" t="n">
-        <v>229.098784292866</v>
+        <v>71.41016270727287</v>
       </c>
       <c r="ED3" t="n">
-        <v>224.2618845181144</v>
+        <v>71.41382528252059</v>
       </c>
       <c r="EE3" t="n">
-        <v>219.5501538011668</v>
+        <v>71.41479987826082</v>
       </c>
       <c r="EF3" t="n">
-        <v>217.7866964903469</v>
+        <v>71.41327702726925</v>
       </c>
       <c r="EG3" t="n">
-        <v>213.921150317653</v>
+        <v>71.40944024121318</v>
       </c>
       <c r="EH3" t="n">
-        <v>212.9571774346847</v>
+        <v>71.40346602579991</v>
       </c>
       <c r="EI3" t="n">
-        <v>210.7994850399816</v>
+        <v>71.39552391360536</v>
       </c>
       <c r="EJ3" t="n">
-        <v>209.1397642028933</v>
+        <v>71.38577651318252</v>
       </c>
       <c r="EK3" t="n">
-        <v>206.897969064972</v>
+        <v>71.37437957311427</v>
       </c>
       <c r="EL3" t="n">
-        <v>205.0472780836942</v>
+        <v>71.36148205973763</v>
       </c>
       <c r="EM3" t="n">
-        <v>203.9412029362087</v>
+        <v>71.34722624732851</v>
       </c>
       <c r="EN3" t="n">
-        <v>202.589595128951</v>
+        <v>71.33174781959512</v>
       </c>
       <c r="EO3" t="n">
-        <v>200.8560250391596</v>
+        <v>71.31517598138603</v>
       </c>
       <c r="EP3" t="n">
-        <v>201.2228009595998</v>
+        <v>71.29940319201881</v>
       </c>
       <c r="EQ3" t="n">
-        <v>198.7760349836085</v>
+        <v>71.28271052806456</v>
       </c>
       <c r="ER3" t="n">
-        <v>197.0061100096909</v>
+        <v>71.26520869401291</v>
       </c>
       <c r="ES3" t="n">
-        <v>196.5845909512772</v>
+        <v>71.24700260731633</v>
       </c>
       <c r="ET3" t="n">
-        <v>195.6703250115118</v>
+        <v>71.22819153404231</v>
       </c>
       <c r="EU3" t="n">
-        <v>194.3002973823417</v>
+        <v>70.83074336368612</v>
       </c>
       <c r="EV3" t="n">
-        <v>192.106387344174</v>
+        <v>70.4469573638662</v>
       </c>
       <c r="EW3" t="n">
-        <v>189.2879039347928</v>
+        <v>70.07687879940376</v>
       </c>
       <c r="EX3" t="n">
-        <v>187.8617245659052</v>
+        <v>69.72051305796676</v>
       </c>
       <c r="EY3" t="n">
-        <v>186.9714493106868</v>
+        <v>69.37782849676812</v>
       </c>
       <c r="EZ3" t="n">
-        <v>185.8145324322333</v>
+        <v>69.04875918357399</v>
       </c>
       <c r="FA3" t="n">
-        <v>185.0039985575726</v>
+        <v>68.73320753239236</v>
       </c>
       <c r="FB3" t="n">
-        <v>184.2698551899504</v>
+        <v>68.43104683445064</v>
       </c>
       <c r="FC3" t="n">
-        <v>183.4365433687869</v>
+        <v>68.14212368529286</v>
       </c>
       <c r="FD3" t="n">
-        <v>182.7395470770053</v>
+        <v>67.86626030903048</v>
       </c>
       <c r="FE3" t="n">
-        <v>181.7942991176039</v>
+        <v>67.60325678096967</v>
       </c>
       <c r="FF3" t="n">
-        <v>180.9240225785011</v>
+        <v>67.35289315000993</v>
       </c>
       <c r="FG3" t="n">
-        <v>180.1627017960647</v>
+        <v>67.1149314623667</v>
       </c>
       <c r="FH3" t="n">
-        <v>179.4803509088928</v>
+        <v>66.88911768831397</v>
       </c>
       <c r="FI3" t="n">
-        <v>178.8464105907103</v>
+        <v>67.0515177543767</v>
       </c>
       <c r="FJ3" t="n">
-        <v>178.5683801142822</v>
+        <v>67.21150227306175</v>
       </c>
       <c r="FK3" t="n">
-        <v>178.0798974484212</v>
+        <v>67.36881667557329</v>
       </c>
       <c r="FL3" t="n">
-        <v>177.6121299330873</v>
+        <v>67.52323181112544</v>
       </c>
       <c r="FM3" t="n">
-        <v>177.2109378379529</v>
+        <v>67.67454273561501</v>
       </c>
       <c r="FN3" t="n">
-        <v>176.8989979357898</v>
+        <v>67.82256752249511</v>
       </c>
       <c r="FO3" t="n">
-        <v>176.5137845674749</v>
+        <v>67.96714609742376</v>
       </c>
       <c r="FP3" t="n">
-        <v>176.2130208358433</v>
+        <v>68.10813909808758</v>
       </c>
       <c r="FQ3" t="n">
-        <v>176.1349150708633</v>
+        <v>68.245426760436</v>
       </c>
       <c r="FR3" t="n">
-        <v>175.9116228898137</v>
+        <v>68.37890783240425</v>
       </c>
       <c r="FS3" t="n">
-        <v>175.8190112509666</v>
+        <v>68.5084985160542</v>
       </c>
       <c r="FT3" t="n">
-        <v>175.6279297561231</v>
+        <v>68.63413143892164</v>
       </c>
       <c r="FU3" t="n">
-        <v>175.6206260849009</v>
+        <v>68.75575465522459</v>
       </c>
       <c r="FV3" t="n">
-        <v>175.6457669930568</v>
+        <v>68.87333067746209</v>
       </c>
       <c r="FW3" t="n">
-        <v>175.6594190544554</v>
+        <v>68.7248866360685</v>
       </c>
       <c r="FX3" t="n">
-        <v>175.7367708959937</v>
+        <v>68.58211418860371</v>
       </c>
       <c r="FY3" t="n">
-        <v>175.7738019212246</v>
+        <v>68.44498806731799</v>
       </c>
       <c r="FZ3" t="n">
-        <v>175.9528661555091</v>
+        <v>68.31346971067691</v>
       </c>
       <c r="GA3" t="n">
-        <v>176.0261173812533</v>
+        <v>68.18750832096011</v>
       </c>
       <c r="GB3" t="n">
-        <v>176.0633945724707</v>
+        <v>68.06704187870288</v>
       </c>
       <c r="GC3" t="n">
-        <v>176.072790075997</v>
+        <v>67.95199811435998</v>
       </c>
       <c r="GD3" t="n">
-        <v>176.2157934056111</v>
+        <v>68.21899856194847</v>
       </c>
       <c r="GE3" t="n">
-        <v>176.3397223772419</v>
+        <v>68.47722297827036</v>
       </c>
       <c r="GF3" t="n">
-        <v>176.3991254018877</v>
+        <v>68.72661062143249</v>
       </c>
       <c r="GG3" t="n">
-        <v>176.5633701697195</v>
+        <v>68.96712875981048</v>
       </c>
       <c r="GH3" t="n">
-        <v>176.7376164176388</v>
+        <v>69.19877074818649</v>
       </c>
       <c r="GI3" t="n">
-        <v>176.9284822393405</v>
+        <v>69.42155417219712</v>
       </c>
       <c r="GJ3" t="n">
-        <v>177.0609420056787</v>
+        <v>69.25881594411771</v>
       </c>
       <c r="GK3" t="n">
-        <v>177.2514655242776</v>
+        <v>69.10134702482576</v>
       </c>
       <c r="GL3" t="n">
-        <v>177.4630200569306</v>
+        <v>68.94919037861845</v>
       </c>
       <c r="GM3" t="n">
-        <v>177.7069884529927</v>
+        <v>68.80237166749583</v>
       </c>
       <c r="GN3" t="n">
-        <v>177.9039597212086</v>
+        <v>68.66090042510801</v>
       </c>
       <c r="GO3" t="n">
-        <v>178.1573379634648</v>
+        <v>68.52477118956575</v>
       </c>
       <c r="GP3" t="n">
-        <v>178.4016642169913</v>
+        <v>68.39396459503469</v>
       </c>
       <c r="GQ3" t="n">
-        <v>178.5697955998732</v>
+        <v>68.15406710702952</v>
       </c>
       <c r="GR3" t="n">
-        <v>178.8424269910766</v>
+        <v>67.92367513520182</v>
       </c>
       <c r="GS3" t="n">
-        <v>179.1001003847285</v>
+        <v>67.70272254691673</v>
       </c>
       <c r="GT3" t="n">
-        <v>179.3810837637465</v>
+        <v>67.49112269764925</v>
       </c>
       <c r="GU3" t="n">
-        <v>179.6597322056586</v>
+        <v>67.28877013607139</v>
       </c>
       <c r="GV3" t="n">
-        <v>179.9075423002287</v>
+        <v>67.30305205460223</v>
       </c>
       <c r="GW3" t="n">
-        <v>180.1296978732377</v>
+        <v>67.31859345954611</v>
       </c>
       <c r="GX3" t="n">
-        <v>180.3646405004849</v>
+        <v>67.33526230078631</v>
       </c>
       <c r="GY3" t="n">
-        <v>180.5040292627959</v>
+        <v>67.35293299509397</v>
       </c>
       <c r="GZ3" t="n">
-        <v>180.7082768113855</v>
+        <v>67.37148629774759</v>
       </c>
       <c r="HA3" t="n">
-        <v>180.8883927757332</v>
+        <v>67.39080916640928</v>
       </c>
       <c r="HB3" t="n">
-        <v>181.1265036765564</v>
+        <v>67.41079461817806</v>
       </c>
       <c r="HC3" t="n">
-        <v>181.4686056111246</v>
+        <v>67.43134158069323</v>
       </c>
       <c r="HD3" t="n">
-        <v>181.6760549282779</v>
+        <v>67.71349411836543</v>
       </c>
       <c r="HE3" t="n">
-        <v>181.7910007302183</v>
+        <v>67.98629921832921</v>
       </c>
       <c r="HF3" t="n">
-        <v>182.0036174801822</v>
+        <v>68.24969815686006</v>
       </c>
       <c r="HG3" t="n">
-        <v>181.9492945684729</v>
+        <v>68.50366160044648</v>
       </c>
       <c r="HH3" t="n">
-        <v>182.0542378840756</v>
+        <v>68.74818757340789</v>
       </c>
       <c r="HI3" t="n">
-        <v>182.1706910183557</v>
+        <v>68.51465046482366</v>
       </c>
       <c r="HJ3" t="n">
-        <v>182.2422324323382</v>
+        <v>68.28919708285164</v>
       </c>
       <c r="HK3" t="n">
-        <v>182.3493657403606</v>
+        <v>68.0718501915789</v>
       </c>
       <c r="HL3" t="n">
-        <v>182.503103230472</v>
+        <v>67.86260922580067</v>
       </c>
       <c r="HM3" t="n">
-        <v>182.6930322291096</v>
+        <v>67.66145196809644</v>
       </c>
       <c r="HN3" t="n">
-        <v>182.9084941793458</v>
+        <v>67.46833616339802</v>
       </c>
       <c r="HO3" t="n">
-        <v>183.0755413202432</v>
+        <v>67.28320107121809</v>
       </c>
       <c r="HP3" t="n">
-        <v>183.1438261974817</v>
+        <v>67.10596895586303</v>
       </c>
       <c r="HQ3" t="n">
-        <v>183.3917146013143</v>
+        <v>66.93654651509615</v>
       </c>
       <c r="HR3" t="n">
-        <v>183.4928017211108</v>
+        <v>66.77482624784871</v>
       </c>
       <c r="HS3" t="n">
-        <v>183.6707063429982</v>
+        <v>66.62068776169657</v>
       </c>
       <c r="HT3" t="n">
-        <v>183.6646261128566</v>
+        <v>66.58838021815012</v>
       </c>
       <c r="HU3" t="n">
-        <v>183.8216700955121</v>
+        <v>66.55912078137968</v>
       </c>
       <c r="HV3" t="n">
-        <v>183.8905467629071</v>
+        <v>66.5327688346041</v>
       </c>
       <c r="HW3" t="n">
-        <v>183.9277875041357</v>
+        <v>66.50918607945181</v>
       </c>
       <c r="HX3" t="n">
-        <v>184.0624391397808</v>
+        <v>66.48823673955644</v>
       </c>
       <c r="HY3" t="n">
-        <v>184.1668792515433</v>
+        <v>66.46978774278055</v>
       </c>
       <c r="HZ3" t="n">
-        <v>184.2422790286148</v>
+        <v>66.45370888311497</v>
       </c>
       <c r="IA3" t="n">
-        <v>184.3161222129008</v>
+        <v>66.6271784771555</v>
       </c>
       <c r="IB3" t="n">
-        <v>184.4259206358932</v>
+        <v>66.79579235869163</v>
       </c>
       <c r="IC3" t="n">
-        <v>184.5319388099694</v>
+        <v>66.95944803415705</v>
       </c>
       <c r="ID3" t="n">
-        <v>184.5403735999346</v>
+        <v>67.11806364017799</v>
       </c>
       <c r="IE3" t="n">
-        <v>184.6413018270395</v>
+        <v>67.27157668096208</v>
       </c>
       <c r="IF3" t="n">
-        <v>184.6264734371837</v>
+        <v>67.41994280453939</v>
       </c>
       <c r="IG3" t="n">
-        <v>184.6235145910833</v>
+        <v>67.56313461834011</v>
       </c>
       <c r="IH3" t="n">
-        <v>184.7122831251238</v>
+        <v>67.64256374039128</v>
       </c>
       <c r="II3" t="n">
-        <v>184.7948498118292</v>
+        <v>67.7189912968167</v>
       </c>
       <c r="IJ3" t="n">
-        <v>184.8741246469841</v>
+        <v>67.79242833197156</v>
       </c>
       <c r="IK3" t="n">
-        <v>184.9765849708025</v>
+        <v>67.86289310010667</v>
       </c>
       <c r="IL3" t="n">
-        <v>184.9490131196305</v>
+        <v>67.93041049869247</v>
       </c>
       <c r="IM3" t="n">
-        <v>185.009610646632</v>
+        <v>67.86628283285427</v>
       </c>
       <c r="IN3" t="n">
-        <v>185.0033963668048</v>
+        <v>67.80406876399317</v>
       </c>
       <c r="IO3" t="n">
-        <v>185.058937875357</v>
+        <v>67.7437973497547</v>
       </c>
       <c r="IP3" t="n">
-        <v>185.1155214786886</v>
+        <v>67.68549036195979</v>
       </c>
       <c r="IQ3" t="n">
-        <v>185.0563414872404</v>
+        <v>67.62916275161814</v>
       </c>
       <c r="IR3" t="n">
-        <v>185.1755645357587</v>
+        <v>67.57482309879722</v>
       </c>
       <c r="IS3" t="n">
-        <v>185.1984464690911</v>
+        <v>67.5224740472308</v>
       </c>
       <c r="IT3" t="n">
-        <v>185.2409022988757</v>
+        <v>67.62011687185505</v>
       </c>
       <c r="IU3" t="n">
-        <v>185.2634196918034</v>
+        <v>67.71422829563554</v>
       </c>
       <c r="IV3" t="n">
-        <v>185.2701354590754</v>
+        <v>67.80481009145493</v>
       </c>
       <c r="IW3" t="n">
-        <v>185.3335153836946</v>
+        <v>67.89187335073127</v>
       </c>
       <c r="IX3" t="n">
-        <v>185.3663275262402</v>
+        <v>67.97543778446486</v>
       </c>
       <c r="IY3" t="n">
-        <v>185.3428671672806</v>
+        <v>68.05553105141729</v>
       </c>
       <c r="IZ3" t="n">
-        <v>185.3650642063872</v>
+        <v>68.10448430396457</v>
       </c>
       <c r="JA3" t="n">
-        <v>185.4311342375647</v>
+        <v>68.15107458815299</v>
       </c>
       <c r="JB3" t="n">
-        <v>185.4370884996932</v>
+        <v>68.19534693268952</v>
       </c>
       <c r="JC3" t="n">
-        <v>185.3906927760249</v>
+        <v>68.23734933544104</v>
       </c>
       <c r="JD3" t="n">
-        <v>185.3938751353451</v>
+        <v>68.27713242173475</v>
       </c>
       <c r="JE3" t="n">
-        <v>185.3953923343906</v>
+        <v>68.31474912016822</v>
       </c>
       <c r="JF3" t="n">
-        <v>185.3935448508928</v>
+        <v>68.60665661716715</v>
       </c>
       <c r="JG3" t="n">
-        <v>185.4295714729912</v>
+        <v>68.88696178402749</v>
       </c>
       <c r="JH3" t="n">
-        <v>185.5832375913648</v>
+        <v>69.15574777480188</v>
       </c>
       <c r="JI3" t="n">
-        <v>185.5374100783667</v>
+        <v>69.41312259852492</v>
       </c>
       <c r="JJ3" t="n">
-        <v>185.5454867429182</v>
+        <v>69.65921704504017</v>
       </c>
       <c r="JK3" t="n">
-        <v>185.4598981074618</v>
+        <v>69.89418269883214</v>
       </c>
       <c r="JL3" t="n">
-        <v>186.234826066997</v>
+        <v>69.77423360177212</v>
       </c>
       <c r="JM3" t="n">
-        <v>186.9501089263238</v>
+        <v>69.65632145421451</v>
       </c>
       <c r="JN3" t="n">
-        <v>187.7012103426283</v>
+        <v>69.54061551187276</v>
       </c>
       <c r="JO3" t="n">
-        <v>188.3554396145957</v>
+        <v>69.4272669700768</v>
       </c>
       <c r="JP3" t="n">
-        <v>188.9077184183721</v>
+        <v>69.31640985627378</v>
       </c>
       <c r="JQ3" t="n">
-        <v>189.4885547231288</v>
+        <v>69.20816190437229</v>
       </c>
       <c r="JR3" t="n">
-        <v>190.2309439507412</v>
+        <v>69.06987924874444</v>
       </c>
       <c r="JS3" t="n">
-        <v>190.9154759055195</v>
+        <v>68.93561509194211</v>
       </c>
       <c r="JT3" t="n">
-        <v>191.5928794101673</v>
+        <v>68.80544013241578</v>
       </c>
       <c r="JU3" t="n">
-        <v>192.2481077412643</v>
+        <v>68.67940904756692</v>
       </c>
       <c r="JV3" t="n">
-        <v>192.8354955330383</v>
+        <v>68.55756149807894</v>
       </c>
       <c r="JW3" t="n">
-        <v>193.46798676352</v>
+        <v>68.43992310030271</v>
       </c>
       <c r="JX3" t="n">
-        <v>194.1182565055141</v>
+        <v>68.5902241831875</v>
       </c>
       <c r="JY3" t="n">
-        <v>194.6974249633884</v>
+        <v>68.73492734292999</v>
       </c>
       <c r="JZ3" t="n">
-        <v>195.4055398767693</v>
+        <v>68.87404738129153</v>
       </c>
       <c r="KA3" t="n">
-        <v>196.0255350340687</v>
+        <v>69.00761297831419</v>
       </c>
       <c r="KB3" t="n">
-        <v>196.5114471712224</v>
+        <v>69.13566561880826</v>
       </c>
       <c r="KC3" t="n">
-        <v>197.7783327979107</v>
+        <v>69.25825856167349</v>
       </c>
       <c r="KD3" t="n">
-        <v>198.4861021732465</v>
+        <v>69.37545585173571</v>
       </c>
       <c r="KE3" t="n">
-        <v>199.2174105027279</v>
+        <v>69.48733137369015</v>
       </c>
       <c r="KF3" t="n">
-        <v>199.6579545610066</v>
+        <v>69.45055046860867</v>
       </c>
       <c r="KG3" t="n">
-        <v>200.0423379011071</v>
+        <v>69.41396185859665</v>
       </c>
       <c r="KH3" t="n">
-        <v>200.4056855424775</v>
+        <v>69.37764964995775</v>
       </c>
       <c r="KI3" t="n">
-        <v>200.8166036746515</v>
+        <v>69.34169116865279</v>
       </c>
       <c r="KJ3" t="n">
-        <v>201.0143110825511</v>
+        <v>69.30615724033748</v>
       </c>
       <c r="KK3" t="n">
-        <v>201.1504748830713</v>
+        <v>69.27111246768318</v>
       </c>
       <c r="KL3" t="n">
-        <v>201.2460849513598</v>
+        <v>69.49301776567434</v>
       </c>
       <c r="KM3" t="n">
-        <v>201.3499096862867</v>
+        <v>69.7059763505123</v>
       </c>
       <c r="KN3" t="n">
-        <v>201.4688567740541</v>
+        <v>69.9100608763769</v>
       </c>
       <c r="KO3" t="n">
-        <v>201.3827998758535</v>
+        <v>70.10536252777625</v>
       </c>
       <c r="KP3" t="n">
-        <v>201.1743411294966</v>
+        <v>70.2919894446445</v>
       </c>
       <c r="KQ3" t="n">
-        <v>200.7704856960869</v>
+        <v>70.47006521517598</v>
       </c>
       <c r="KR3" t="n">
-        <v>200.5853074195057</v>
+        <v>70.38332517443763</v>
       </c>
       <c r="KS3" t="n">
-        <v>200.6114716576521</v>
+        <v>70.29786931109827</v>
       </c>
       <c r="KT3" t="n">
-        <v>201.9053512388775</v>
+        <v>70.21383408770023</v>
       </c>
       <c r="KU3" t="n">
-        <v>203.0031390462939</v>
+        <v>70.13134236396243</v>
       </c>
       <c r="KV3" t="n">
-        <v>204.0026982122046</v>
+        <v>70.05050404496322</v>
       </c>
       <c r="KW3" t="n">
-        <v>205.045083163826</v>
+        <v>69.97141671743871</v>
       </c>
       <c r="KX3" t="n">
-        <v>205.5606120955315</v>
+        <v>69.89416627334694</v>
       </c>
       <c r="KY3" t="n">
-        <v>205.9161252077183</v>
+        <v>70.0527947572954</v>
       </c>
       <c r="KZ3" t="n">
-        <v>203.9526796533735</v>
+        <v>70.20468715232758</v>
       </c>
       <c r="LA3" t="n">
-        <v>203.215453339175</v>
+        <v>70.34992076546001</v>
       </c>
       <c r="LB3" t="n">
-        <v>202.4259077824103</v>
+        <v>70.48858517141157</v>
       </c>
       <c r="LC3" t="n">
-        <v>201.3366071887412</v>
+        <v>70.62078109180095</v>
       </c>
       <c r="LD3" t="n">
-        <v>200.3680043619561</v>
+        <v>70.74661932501094</v>
       </c>
       <c r="LE3" t="n">
-        <v>199.2680945138972</v>
+        <v>70.86621972594455</v>
       </c>
       <c r="LF3" t="n">
-        <v>199.3522072785495</v>
+        <v>70.60285976603473</v>
       </c>
       <c r="LG3" t="n">
-        <v>197.7782186575336</v>
+        <v>70.3475575720106</v>
       </c>
       <c r="LH3" t="n">
-        <v>196.2752942866985</v>
+        <v>70.10041765385324</v>
       </c>
       <c r="LI3" t="n">
-        <v>195.6760706386813</v>
+        <v>69.8615151718588</v>
       </c>
       <c r="LJ3" t="n">
-        <v>194.9137305945124</v>
+        <v>69.63089784343731</v>
       </c>
       <c r="LK3" t="n">
-        <v>194.2028837385865</v>
+        <v>69.69488849668669</v>
       </c>
       <c r="LL3" t="n">
-        <v>193.7868504359599</v>
+        <v>69.75652391065823</v>
       </c>
       <c r="LM3" t="n">
-        <v>193.1196962086059</v>
+        <v>69.81580829565476</v>
       </c>
       <c r="LN3" t="n">
-        <v>192.389873161321</v>
+        <v>69.87275185133504</v>
       </c>
       <c r="LO3" t="n">
-        <v>191.6244220303022</v>
+        <v>69.92737030925286</v>
       </c>
       <c r="LP3" t="n">
-        <v>190.940462100351</v>
+        <v>69.60158551098611</v>
       </c>
       <c r="LQ3" t="n">
-        <v>190.276876595378</v>
+        <v>69.2876009796871</v>
       </c>
       <c r="LR3" t="n">
-        <v>189.6566574126552</v>
+        <v>68.98540947679307</v>
       </c>
       <c r="LS3" t="n">
-        <v>189.1279128171633</v>
+        <v>68.694972723511</v>
       </c>
       <c r="LT3" t="n">
-        <v>188.8268200118303</v>
+        <v>68.41622373261603</v>
       </c>
       <c r="LU3" t="n">
-        <v>185.8416416584714</v>
+        <v>68.14906904960499</v>
       </c>
       <c r="LV3" t="n">
-        <v>183.5287221721282</v>
+        <v>67.89339090371759</v>
       </c>
       <c r="LW3" t="n">
-        <v>181.2998701793328</v>
+        <v>67.64904926954235</v>
       </c>
       <c r="LX3" t="n">
-        <v>179.4141640085226</v>
+        <v>67.4158838401119</v>
       </c>
       <c r="LY3" t="n">
-        <v>179.2395829187984</v>
+        <v>67.1937159125643</v>
       </c>
       <c r="LZ3" t="n">
-        <v>177.0313877735253</v>
+        <v>66.98235018760371</v>
       </c>
       <c r="MA3" t="n">
-        <v>177.4354814934422</v>
+        <v>66.78157648413584</v>
       </c>
       <c r="MB3" t="n">
-        <v>177.4056957698982</v>
+        <v>66.5911713705817</v>
       </c>
       <c r="MC3" t="n">
-        <v>177.8705930630856</v>
+        <v>66.52528088075137</v>
       </c>
       <c r="MD3" t="n">
-        <v>177.8008909590746</v>
+        <v>66.46501934161637</v>
       </c>
       <c r="ME3" t="n">
-        <v>177.7619770079255</v>
+        <v>66.4101437430752</v>
       </c>
       <c r="MF3" t="n">
-        <v>177.7287734627284</v>
+        <v>66.36041411471508</v>
       </c>
       <c r="MG3" t="n">
-        <v>177.8760500903241</v>
+        <v>66.31559394969767</v>
       </c>
       <c r="MH3" t="n">
-        <v>177.9871182208182</v>
+        <v>66.27545058893156</v>
       </c>
       <c r="MI3" t="n">
-        <v>177.9379903643846</v>
+        <v>66.1621783749855</v>
       </c>
       <c r="MJ3" t="n">
-        <v>177.9875217924263</v>
+        <v>66.05601923489485</v>
       </c>
       <c r="MK3" t="n">
-        <v>178.0574844791363</v>
+        <v>65.95674639616091</v>
       </c>
       <c r="ML3" t="n">
-        <v>178.1132564819768</v>
+        <v>65.86413094454745</v>
       </c>
       <c r="MM3" t="n">
-        <v>178.1346162971865</v>
+        <v>65.7779425905164</v>
       </c>
       <c r="MN3" t="n">
-        <v>178.1385885643874</v>
+        <v>65.69795038429746</v>
       </c>
       <c r="MO3" t="n">
-        <v>178.1824590527051</v>
+        <v>65.62392338136721</v>
       </c>
       <c r="MP3" t="n">
-        <v>178.697098999396</v>
+        <v>65.55563126011846</v>
       </c>
       <c r="MQ3" t="n">
-        <v>178.7138076520869</v>
+        <v>65.49284489350049</v>
       </c>
       <c r="MR3" t="n">
-        <v>178.8693445628232</v>
+        <v>65.43533687640648</v>
       </c>
       <c r="MS3" t="n">
-        <v>178.9949091849491</v>
+        <v>65.38288201057482</v>
       </c>
       <c r="MT3" t="n">
-        <v>179.1362168295728</v>
+        <v>65.33525774875822</v>
       </c>
       <c r="MU3" t="n">
-        <v>179.1558211142209</v>
+        <v>65.29224459989744</v>
       </c>
       <c r="MV3" t="n">
-        <v>179.2522801149405</v>
+        <v>65.25362649701576</v>
       </c>
       <c r="MW3" t="n">
-        <v>179.8151623117207</v>
+        <v>65.21919112952733</v>
       </c>
       <c r="MX3" t="n">
-        <v>177.4856189862725</v>
+        <v>65.26630743399596</v>
       </c>
       <c r="MY3" t="n">
-        <v>178.0631183169015</v>
+        <v>65.3143055876249</v>
       </c>
       <c r="MZ3" t="n">
-        <v>178.8399020147299</v>
+        <v>65.36299380354441</v>
       </c>
       <c r="NA3" t="n">
-        <v>178.8646974476484</v>
+        <v>65.41219222259603</v>
       </c>
       <c r="NB3" t="n">
-        <v>179.0626881172012</v>
+        <v>65.46173253799883</v>
       </c>
       <c r="NC3" t="n">
-        <v>179.6865730629334</v>
+        <v>65.51145761605662</v>
       </c>
       <c r="ND3" t="n">
-        <v>180.0145048367946</v>
+        <v>65.56122111420562</v>
       </c>
       <c r="NE3" t="n">
-        <v>180.1150146835667</v>
+        <v>65.6108870976155</v>
       </c>
       <c r="NF3" t="n">
-        <v>180.1699076833159</v>
+        <v>65.66032965547409</v>
       </c>
       <c r="NG3" t="n">
-        <v>180.2378664272904</v>
+        <v>65.70943251800499</v>
       </c>
       <c r="NH3" t="n">
-        <v>180.5233545123704</v>
+        <v>65.75808867519072</v>
       </c>
       <c r="NI3" t="n">
-        <v>180.620333560093</v>
+        <v>65.80619999809896</v>
       </c>
       <c r="NJ3" t="n">
-        <v>181.1697026041123</v>
+        <v>65.85367686363857</v>
       </c>
       <c r="NK3" t="n">
-        <v>181.6622167593188</v>
+        <v>66.07511946551109</v>
       </c>
       <c r="NL3" t="n">
-        <v>181.7416749295337</v>
+        <v>66.28926788470874</v>
       </c>
       <c r="NM3" t="n">
-        <v>181.788401474792</v>
+        <v>66.49607290388749</v>
       </c>
       <c r="NN3" t="n">
-        <v>182.3182205651199</v>
+        <v>66.69550849273602</v>
       </c>
       <c r="NO3" t="n">
-        <v>182.3866227045831</v>
+        <v>66.88757021230808</v>
       </c>
       <c r="NP3" t="n">
-        <v>182.4503719423039</v>
+        <v>67.07227367617624</v>
       </c>
       <c r="NQ3" t="n">
-        <v>182.6282541025834</v>
+        <v>66.96059022017469</v>
       </c>
       <c r="NR3" t="n">
-        <v>182.6941235887934</v>
+        <v>66.85239768232921</v>
       </c>
       <c r="NS3" t="n">
-        <v>182.7392628813406</v>
+        <v>66.74773488074754</v>
       </c>
       <c r="NT3" t="n">
-        <v>182.905450097906</v>
+        <v>66.64662839939591</v>
       </c>
       <c r="NU3" t="n">
-        <v>183.1768026439516</v>
+        <v>66.54909339563105</v>
       </c>
       <c r="NV3" t="n">
-        <v>183.1808599806534</v>
+        <v>66.45513438031361</v>
       </c>
       <c r="NW3" t="n">
-        <v>183.181445609818</v>
+        <v>66.36474597038433</v>
       </c>
       <c r="NX3" t="n">
-        <v>183.3224350254339</v>
+        <v>66.27791361386686</v>
       </c>
       <c r="NY3" t="n">
-        <v>183.3749172384224</v>
+        <v>66.5709438651196</v>
       </c>
       <c r="NZ3" t="n">
-        <v>183.459832224177</v>
+        <v>66.85346316216149</v>
       </c>
       <c r="OA3" t="n">
-        <v>183.5230252344091</v>
+        <v>67.12547034931974</v>
       </c>
       <c r="OB3" t="n">
-        <v>183.6200989048463</v>
+        <v>67.386992486087</v>
       </c>
       <c r="OC3" t="n">
-        <v>183.7901560392553</v>
+        <v>67.63808274824821</v>
       </c>
       <c r="OD3" t="n">
-        <v>183.6989086767801</v>
+        <v>67.87881840986039</v>
       </c>
       <c r="OE3" t="n">
-        <v>183.6914606762697</v>
+        <v>67.84735049415784</v>
       </c>
       <c r="OF3" t="n">
-        <v>183.7010138552662</v>
+        <v>67.81550116670141</v>
       </c>
       <c r="OG3" t="n">
-        <v>183.6757974097827</v>
+        <v>67.7833830552045</v>
       </c>
       <c r="OH3" t="n">
-        <v>183.650160004531</v>
+        <v>67.75110141759279</v>
       </c>
       <c r="OI3" t="n">
-        <v>183.6648315297842</v>
+        <v>67.71875438962617</v>
       </c>
       <c r="OJ3" t="n">
-        <v>183.5322242148154</v>
+        <v>67.68643323379607</v>
       </c>
       <c r="OK3" t="n">
-        <v>183.5203016447795</v>
+        <v>68.0309251870044</v>
       </c>
       <c r="OL3" t="n">
-        <v>183.510326014873</v>
+        <v>68.36157886568616</v>
       </c>
       <c r="OM3" t="n">
-        <v>183.4529984175231</v>
+        <v>68.67850327187266</v>
       </c>
       <c r="ON3" t="n">
-        <v>183.5422203422541</v>
+        <v>68.98183632072679</v>
       </c>
       <c r="OO3" t="n">
-        <v>183.6785344079577</v>
+        <v>69.27174239487253</v>
       </c>
       <c r="OP3" t="n">
-        <v>183.586273352817</v>
+        <v>69.54841000354509</v>
       </c>
       <c r="OQ3" t="n">
-        <v>183.6588520467536</v>
+        <v>69.81204954529767</v>
       </c>
       <c r="OR3" t="n">
-        <v>183.6508799991468</v>
+        <v>70.31379878214463</v>
       </c>
       <c r="OS3" t="n">
-        <v>183.591988172623</v>
+        <v>70.79365508031186</v>
       </c>
       <c r="OT3" t="n">
-        <v>183.7053003286555</v>
+        <v>71.25190664927327</v>
       </c>
       <c r="OU3" t="n">
-        <v>183.760044009438</v>
+        <v>71.68887881671368</v>
       </c>
       <c r="OV3" t="n">
-        <v>183.7406400771337</v>
+        <v>72.10493049200959</v>
       </c>
       <c r="OW3" t="n">
-        <v>183.7265937803535</v>
+        <v>72.50045079383797</v>
       </c>
       <c r="OX3" t="n">
-        <v>183.7018871893738</v>
+        <v>72.87585583915039</v>
       </c>
       <c r="OY3" t="n">
-        <v>183.7645851987985</v>
+        <v>73.23158569051614</v>
       </c>
       <c r="OZ3" t="n">
-        <v>183.813587269979</v>
+        <v>73.56810145862951</v>
       </c>
       <c r="PA3" t="n">
-        <v>183.8376807940866</v>
+        <v>73.88588255659117</v>
       </c>
       <c r="PB3" t="n">
-        <v>184.0433385706604</v>
+        <v>74.18542410241108</v>
       </c>
       <c r="PC3" t="n">
-        <v>184.186013072359</v>
+        <v>74.46723446603876</v>
       </c>
       <c r="PD3" t="n">
-        <v>184.2358949665607</v>
+        <v>74.7318329571053</v>
       </c>
       <c r="PE3" t="n">
-        <v>184.2936734156123</v>
+        <v>74.86463193722432</v>
       </c>
       <c r="PF3" t="n">
-        <v>184.3707358867941</v>
+        <v>74.98556840893836</v>
       </c>
       <c r="PG3" t="n">
-        <v>184.3025162166908</v>
+        <v>75.09517070996296</v>
       </c>
       <c r="PH3" t="n">
-        <v>184.2521200706759</v>
+        <v>75.19395956410689</v>
       </c>
       <c r="PI3" t="n">
-        <v>184.2673656270545</v>
+        <v>75.28244723457098</v>
       </c>
       <c r="PJ3" t="n">
-        <v>184.193593846113</v>
+        <v>75.22534486360499</v>
       </c>
       <c r="PK3" t="n">
-        <v>184.2407947258997</v>
+        <v>75.16399388169158</v>
       </c>
       <c r="PL3" t="n">
-        <v>184.1121629318932</v>
+        <v>75.0988636162044</v>
       </c>
       <c r="PM3" t="n">
-        <v>184.2088391937</v>
+        <v>75.03039980068476</v>
       </c>
       <c r="PN3" t="n">
-        <v>184.1786460906377</v>
+        <v>74.95902507653022</v>
       </c>
       <c r="PO3" t="n">
-        <v>183.7480870807387</v>
+        <v>74.8851395204494</v>
       </c>
       <c r="PP3" t="n">
-        <v>183.7196030332901</v>
+        <v>74.58042274271513</v>
       </c>
       <c r="PQ3" t="n">
-        <v>183.6613306967951</v>
+        <v>74.28244571910074</v>
       </c>
       <c r="PR3" t="n">
-        <v>183.7250058034645</v>
+        <v>73.99152182623484</v>
       </c>
       <c r="PS3" t="n">
-        <v>183.9462167174333</v>
+        <v>73.70792305818908</v>
       </c>
       <c r="PT3" t="n">
-        <v>183.8793556169601</v>
+        <v>73.43188227073651</v>
       </c>
       <c r="PU3" t="n">
-        <v>183.7899909312503</v>
+        <v>73.16359536916455</v>
       </c>
       <c r="PV3" t="n">
-        <v>183.7710423295335</v>
+        <v>73.13192188954744</v>
       </c>
       <c r="PW3" t="n">
-        <v>183.8580099319229</v>
+        <v>73.09977580598957</v>
       </c>
       <c r="PX3" t="n">
-        <v>183.8073249743051</v>
+        <v>73.06727708993891</v>
       </c>
       <c r="PY3" t="n">
-        <v>183.8889806622161</v>
+        <v>73.03453804000971</v>
       </c>
       <c r="PZ3" t="n">
-        <v>183.9381975047415</v>
+        <v>73.00166353252752</v>
       </c>
       <c r="QA3" t="n">
-        <v>183.9486646183039</v>
+        <v>72.968751273943</v>
       </c>
       <c r="QB3" t="n">
-        <v>184.9485754091617</v>
+        <v>72.82113786756186</v>
       </c>
       <c r="QC3" t="n">
-        <v>184.4405386670022</v>
+        <v>72.67793466055899</v>
       </c>
       <c r="QD3" t="n">
-        <v>185.4149834951548</v>
+        <v>72.53920814122809</v>
       </c>
       <c r="QE3" t="n">
-        <v>183.5445869456988</v>
+        <v>72.40500804220503</v>
       </c>
       <c r="QF3" t="n">
-        <v>181.9742509644112</v>
+        <v>72.27536841079252</v>
       </c>
       <c r="QG3" t="n">
-        <v>182.1709831264052</v>
+        <v>71.77397906660734</v>
       </c>
       <c r="QH3" t="n">
-        <v>182.6292745590897</v>
+        <v>71.291188494568</v>
       </c>
       <c r="QI3" t="n">
-        <v>177.3173931603911</v>
+        <v>70.8269529300067</v>
       </c>
       <c r="QJ3" t="n">
-        <v>177.5563450890814</v>
+        <v>70.38118209520101</v>
       </c>
       <c r="QK3" t="n">
-        <v>177.8829390429196</v>
+        <v>69.95374278161268</v>
       </c>
       <c r="QL3" t="n">
-        <v>177.6169159320623</v>
+        <v>69.54446228973423</v>
       </c>
       <c r="QM3" t="n">
-        <v>177.8218092281247</v>
+        <v>69.15313172756508</v>
       </c>
       <c r="QN3" t="n">
-        <v>178.002388693808</v>
+        <v>69.10930161774876</v>
       </c>
       <c r="QO3" t="n">
-        <v>177.7042489901993</v>
+        <v>69.07062728731157</v>
       </c>
       <c r="QP3" t="n">
-        <v>177.9115280430689</v>
+        <v>69.03684193907803</v>
       </c>
       <c r="QQ3" t="n">
-        <v>178.0480341326857</v>
+        <v>69.00768485392999</v>
       </c>
       <c r="QR3" t="n">
-        <v>178.2614485800649</v>
+        <v>68.98290165199894</v>
       </c>
       <c r="QS3" t="n">
-        <v>178.4611955451101</v>
+        <v>68.9622445181343</v>
       </c>
       <c r="QT3" t="n">
-        <v>178.6675418242102</v>
+        <v>68.61567994490395</v>
       </c>
       <c r="QU3" t="n">
-        <v>178.9006576011661</v>
+        <v>68.28504652270468</v>
       </c>
       <c r="QV3" t="n">
-        <v>179.0934275775361</v>
+        <v>67.97008488162768</v>
       </c>
       <c r="QW3" t="n">
-        <v>179.3145405735329</v>
+        <v>67.6705123398113</v>
       </c>
       <c r="QX3" t="n">
-        <v>179.4698979011167</v>
+        <v>67.38602533424579</v>
       </c>
       <c r="QY3" t="n">
-        <v>179.6592693861514</v>
+        <v>67.11630173287557</v>
       </c>
       <c r="QZ3" t="n">
-        <v>179.8354277153019</v>
+        <v>66.86100303033629</v>
       </c>
       <c r="RA3" t="n">
-        <v>180.031734507207</v>
+        <v>66.73415759606971</v>
       </c>
       <c r="RB3" t="n">
-        <v>180.197832432515</v>
+        <v>66.61676000305067</v>
       </c>
       <c r="RC3" t="n">
-        <v>180.3126794331246</v>
+        <v>66.50844586810905</v>
       </c>
       <c r="RD3" t="n">
-        <v>180.5090614448685</v>
+        <v>66.40885266979238</v>
       </c>
       <c r="RE3" t="n">
-        <v>180.6856136745466</v>
+        <v>66.81601306717181</v>
       </c>
       <c r="RF3" t="n">
-        <v>180.8505118334008</v>
+        <v>67.21261987921851</v>
       </c>
       <c r="RG3" t="n">
-        <v>180.9908167536019</v>
+        <v>67.59836969483335</v>
       </c>
       <c r="RH3" t="n">
-        <v>181.1715071641532</v>
+        <v>67.97300994951466</v>
       </c>
       <c r="RI3" t="n">
-        <v>181.3000794065429</v>
+        <v>68.33633594938085</v>
       </c>
       <c r="RJ3" t="n">
-        <v>180.9905012272306</v>
+        <v>68.68818798082251</v>
       </c>
       <c r="RK3" t="n">
-        <v>181.1058347980369</v>
+        <v>69.02844850736916</v>
       </c>
       <c r="RL3" t="n">
-        <v>181.3839295908382</v>
+        <v>68.67028912550644</v>
       </c>
       <c r="RM3" t="n">
-        <v>181.5518600594597</v>
+        <v>68.32599103908316</v>
       </c>
       <c r="RN3" t="n">
-        <v>181.7032796599506</v>
+        <v>67.9954801073858</v>
       </c>
       <c r="RO3" t="n">
-        <v>181.8184409087364</v>
+        <v>67.67865061787236</v>
       </c>
       <c r="RP3" t="n">
-        <v>181.8760696066636</v>
+        <v>67.37536783661494</v>
       </c>
       <c r="RQ3" t="n">
-        <v>181.9823414345266</v>
+        <v>67.08547045323165</v>
       </c>
       <c r="RR3" t="n">
-        <v>182.0411911307537</v>
+        <v>66.80877292134271</v>
       </c>
       <c r="RS3" t="n">
-        <v>182.1521560978966</v>
+        <v>67.03271556069177</v>
       </c>
       <c r="RT3" t="n">
-        <v>182.2024635982356</v>
+        <v>67.25126484601239</v>
       </c>
       <c r="RU3" t="n">
-        <v>182.2232981958937</v>
+        <v>67.46422326201737</v>
       </c>
       <c r="RV3" t="n">
-        <v>182.2500294701522</v>
+        <v>67.67142244137756</v>
       </c>
       <c r="RW3" t="n">
-        <v>182.5821181340522</v>
+        <v>67.87272152184894</v>
       </c>
       <c r="RX3" t="n">
-        <v>182.6464461576585</v>
+        <v>68.06800554778532</v>
       </c>
       <c r="RY3" t="n">
-        <v>182.7009712942778</v>
+        <v>68.33459649764148</v>
       </c>
       <c r="RZ3" t="n">
-        <v>182.7671902705279</v>
+        <v>68.59213146982765</v>
       </c>
       <c r="SA3" t="n">
-        <v>182.8541610636006</v>
+        <v>68.84057167220709</v>
       </c>
       <c r="SB3" t="n">
-        <v>182.8438756281127</v>
+        <v>69.07990543787932</v>
       </c>
       <c r="SC3" t="n">
-        <v>182.8616819682165</v>
+        <v>69.31014630822571</v>
       </c>
       <c r="SD3" t="n">
-        <v>182.9057536543489</v>
+        <v>69.53133118617224</v>
       </c>
       <c r="SE3" t="n">
-        <v>182.9274223578132</v>
+        <v>69.74351855956833</v>
       </c>
       <c r="SF3" t="n">
-        <v>182.9216455170926</v>
+        <v>69.94678679440064</v>
       </c>
       <c r="SG3" t="n">
-        <v>183.12333059256</v>
+        <v>70.14123249739362</v>
       </c>
     </row>
   </sheetData>

--- a/software/development/output.xlsx
+++ b/software/development/output.xlsx
@@ -1940,1504 +1940,1504 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05657819762279583</v>
+        <v>-41.57167074402765</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07735612876661653</v>
+        <v>-56.83856415077291</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08984761106929863</v>
+        <v>-66.01686623904448</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09901092064968045</v>
+        <v>-72.74974400480323</v>
       </c>
       <c r="F2" t="n">
-        <v>0.106066548554182</v>
+        <v>-77.93397136555842</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.06026399131853716</v>
+        <v>-81.83927965087824</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.199184889895533</v>
+        <v>-84.65081360774712</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3110610453679737</v>
+        <v>-81.92233258845091</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.3985688394894432</v>
+        <v>-79.39045687232621</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4656456612068768</v>
+        <v>-77.14819045731301</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.5163877609413808</v>
+        <v>-75.21680639217453</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.5544393077952358</v>
+        <v>-73.57907266636249</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.5827861649564283</v>
+        <v>-72.2013636009485</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8119721576969275</v>
+        <v>-75.78019390388093</v>
       </c>
       <c r="P2" t="n">
-        <v>1.962168814291268</v>
+        <v>-78.70907089945813</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.912787934400295</v>
+        <v>-81.11136927541514</v>
       </c>
       <c r="R2" t="n">
-        <v>3.700810498514016</v>
+        <v>-83.08739116527401</v>
       </c>
       <c r="S2" t="n">
-        <v>4.356223122842085</v>
+        <v>-84.7177564033413</v>
       </c>
       <c r="T2" t="n">
-        <v>4.903183325914271</v>
+        <v>-86.0669421067653</v>
       </c>
       <c r="U2" t="n">
-        <v>5.317009108739748</v>
+        <v>-87.18645979071852</v>
       </c>
       <c r="V2" t="n">
-        <v>5.663719307482864</v>
+        <v>-88.11751862464314</v>
       </c>
       <c r="W2" t="n">
-        <v>5.954893178826142</v>
+        <v>-88.39195999307157</v>
       </c>
       <c r="X2" t="n">
-        <v>6.199888271166944</v>
+        <v>-88.60422660965044</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.406297633795021</v>
+        <v>-88.76571173775493</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.580309739061367</v>
+        <v>-88.88552492689374</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.726991289326749</v>
+        <v>-88.97098608265178</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.160040563313682</v>
+        <v>-89.02800540294746</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.650900451506615</v>
+        <v>-89.00050386088404</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.192272832862458</v>
+        <v>-88.95988101488958</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.777940455790941</v>
+        <v>-88.90848972468434</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.402588076693395</v>
+        <v>-88.84823763036619</v>
       </c>
       <c r="AG2" t="n">
-        <v>4.061655723456592</v>
+        <v>-88.78067605961054</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.751218026163583</v>
+        <v>-88.76017220994628</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.0144850526094</v>
+        <v>-88.72969259624823</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.343110753347263</v>
+        <v>-88.69063143657776</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.730131045814315</v>
+        <v>-88.64415869143536</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.169483109366447</v>
+        <v>-88.59125936467727</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.6558733488075401</v>
+        <v>-88.53276553182923</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1846668021674449</v>
+        <v>-88.46938255832043</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.308070926062101</v>
+        <v>-88.40171065328029</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.7614448153778188</v>
+        <v>-88.28553740018911</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.179033516954605</v>
+        <v>-88.16938438790712</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.564003262940406</v>
+        <v>-88.05333616436887</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.919162191540311</v>
+        <v>-87.93746038914664</v>
       </c>
       <c r="AT2" t="n">
-        <v>-2.247006800301624</v>
+        <v>-87.82181210779095</v>
       </c>
       <c r="AU2" t="n">
-        <v>-2.386524826321417</v>
+        <v>-87.70643724776751</v>
       </c>
       <c r="AV2" t="n">
-        <v>-2.513728265210472</v>
+        <v>-87.59137547458857</v>
       </c>
       <c r="AW2" t="n">
-        <v>-2.629577310704732</v>
+        <v>-87.47666251866093</v>
       </c>
       <c r="AX2" t="n">
-        <v>-2.734934090200742</v>
+        <v>-87.36233206134841</v>
       </c>
       <c r="AY2" t="n">
-        <v>-2.830574866592944</v>
+        <v>-87.248417251433</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-2.917200630526035</v>
+        <v>-87.13495190952862</v>
       </c>
       <c r="BA2" t="n">
-        <v>-2.995446314681529</v>
+        <v>-87.02197146726471</v>
       </c>
       <c r="BB2" t="n">
-        <v>-3.242189068386073</v>
+        <v>-86.90951367960002</v>
       </c>
       <c r="BC2" t="n">
-        <v>-3.471765321625615</v>
+        <v>-86.79761914197498</v>
       </c>
       <c r="BD2" t="n">
-        <v>-3.685248699233</v>
+        <v>-86.68633163878542</v>
       </c>
       <c r="BE2" t="n">
-        <v>-3.883619322797504</v>
+        <v>-86.57569834557012</v>
       </c>
       <c r="BF2" t="n">
-        <v>-4.067774546310786</v>
+        <v>-86.4657699041083</v>
       </c>
       <c r="BG2" t="n">
-        <v>-4.238538430901889</v>
+        <v>-86.35660038713601</v>
       </c>
       <c r="BH2" t="n">
-        <v>-4.396670113039753</v>
+        <v>-86.248247167457</v>
       </c>
       <c r="BI2" t="n">
-        <v>-4.542871198402652</v>
+        <v>-86.14077070472044</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-4.724249266648549</v>
+        <v>-86.03423426196424</v>
       </c>
       <c r="BK2" t="n">
-        <v>-4.892731959167667</v>
+        <v>-85.9287035630942</v>
       </c>
       <c r="BL2" t="n">
-        <v>-5.048978394586172</v>
+        <v>-85.82424640171953</v>
       </c>
       <c r="BM2" t="n">
-        <v>-5.19360496816574</v>
+        <v>-85.72093221113788</v>
       </c>
       <c r="BN2" t="n">
-        <v>-5.327190141798283</v>
+        <v>-85.61883160471396</v>
       </c>
       <c r="BO2" t="n">
-        <v>-5.450278665431833</v>
+        <v>-85.51801589538974</v>
       </c>
       <c r="BP2" t="n">
-        <v>-5.56338528857506</v>
+        <v>-85.41855660257333</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-5.494618868619897</v>
+        <v>-85.32052495415806</v>
       </c>
       <c r="BR2" t="n">
-        <v>-5.424228251227399</v>
+        <v>-85.22399139090845</v>
       </c>
       <c r="BS2" t="n">
-        <v>-5.352447242237085</v>
+        <v>-85.12902507990722</v>
       </c>
       <c r="BT2" t="n">
-        <v>-5.279500832090574</v>
+        <v>-85.03569344318265</v>
       </c>
       <c r="BU2" t="n">
-        <v>-5.205605372034611</v>
+        <v>-84.94406170702888</v>
       </c>
       <c r="BV2" t="n">
-        <v>-5.130968682959238</v>
+        <v>-84.85419247689585</v>
       </c>
       <c r="BW2" t="n">
-        <v>-4.884779852640197</v>
+        <v>-84.76614534206641</v>
       </c>
       <c r="BX2" t="n">
-        <v>-4.645132674984157</v>
+        <v>-84.67997651366355</v>
       </c>
       <c r="BY2" t="n">
-        <v>-4.412083185439568</v>
+        <v>-84.59573849884927</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-4.185679613343267</v>
+        <v>-84.51347981339963</v>
       </c>
       <c r="CA2" t="n">
-        <v>-3.965961572413605</v>
+        <v>-84.43324473417549</v>
       </c>
       <c r="CB2" t="n">
-        <v>-3.752959387948684</v>
+        <v>-84.3550730923685</v>
       </c>
       <c r="CC2" t="n">
-        <v>-3.339332951309567</v>
+        <v>-84.27900010779308</v>
       </c>
       <c r="CD2" t="n">
-        <v>-2.940479376411804</v>
+        <v>-84.20505626392833</v>
       </c>
       <c r="CE2" t="n">
-        <v>-2.55630889160672</v>
+        <v>-84.13326722289419</v>
       </c>
       <c r="CF2" t="n">
-        <v>-2.186713467749778</v>
+        <v>-84.06365377908007</v>
       </c>
       <c r="CG2" t="n">
-        <v>-1.831566647663389</v>
+        <v>-83.99623184973595</v>
       </c>
       <c r="CH2" t="n">
-        <v>-1.490723587557146</v>
+        <v>-83.93101250048763</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.1640212910133</v>
+        <v>-83.86800200345085</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.4297177444412792</v>
+        <v>-83.80720192539268</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.2749080542616988</v>
+        <v>-83.74860924322167</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.9501669627352827</v>
+        <v>-83.6922164839781</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.59641363868277</v>
+        <v>-83.63801188643765</v>
       </c>
       <c r="CN2" t="n">
-        <v>2.214044390708541</v>
+        <v>-83.5859795814327</v>
       </c>
       <c r="CO2" t="n">
-        <v>2.62971953169505</v>
+        <v>-83.53609978802957</v>
       </c>
       <c r="CP2" t="n">
-        <v>3.024193984298721</v>
+        <v>-83.48834902277228</v>
       </c>
       <c r="CQ2" t="n">
-        <v>3.397947614050301</v>
+        <v>-83.44270031930756</v>
       </c>
       <c r="CR2" t="n">
-        <v>3.751477998700041</v>
+        <v>-83.39912345583794</v>
       </c>
       <c r="CS2" t="n">
-        <v>4.085298500212299</v>
+        <v>-83.35758518800245</v>
       </c>
       <c r="CT2" t="n">
-        <v>4.399936325830386</v>
+        <v>-83.31804948495402</v>
       </c>
       <c r="CU2" t="n">
-        <v>4.695930596475442</v>
+        <v>-83.2804777665833</v>
       </c>
       <c r="CV2" t="n">
-        <v>4.973830438665055</v>
+        <v>-83.24482914002691</v>
       </c>
       <c r="CW2" t="n">
-        <v>4.992154625932072</v>
+        <v>-83.21106063378829</v>
       </c>
       <c r="CX2" t="n">
-        <v>5.002528060753267</v>
+        <v>-83.17912742799062</v>
       </c>
       <c r="CY2" t="n">
-        <v>5.005493412754228</v>
+        <v>-83.14898307946731</v>
       </c>
       <c r="CZ2" t="n">
-        <v>5.001574488303283</v>
+        <v>-83.12057974057687</v>
       </c>
       <c r="DA2" t="n">
-        <v>4.991276154109133</v>
+        <v>-83.09386837080166</v>
       </c>
       <c r="DB2" t="n">
-        <v>4.975084313144203</v>
+        <v>-83.06879894035299</v>
       </c>
       <c r="DC2" t="n">
-        <v>4.953465931300054</v>
+        <v>-83.04532062515753</v>
       </c>
       <c r="DD2" t="n">
-        <v>4.952721830090116</v>
+        <v>-83.02338199274037</v>
       </c>
       <c r="DE2" t="n">
-        <v>4.946465205754889</v>
+        <v>-83.00293117864877</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.935109348800751</v>
+        <v>-82.98391605317683</v>
       </c>
       <c r="DG2" t="n">
-        <v>4.919051575260434</v>
+        <v>-82.96628437825534</v>
       </c>
       <c r="DH2" t="n">
-        <v>4.898673288460574</v>
+        <v>-82.94998395446322</v>
       </c>
       <c r="DI2" t="n">
-        <v>4.874340080993613</v>
+        <v>-82.93496275819753</v>
       </c>
       <c r="DJ2" t="n">
-        <v>4.846401874025247</v>
+        <v>-82.92116906910891</v>
       </c>
       <c r="DK2" t="n">
-        <v>4.815193091028953</v>
+        <v>-82.90855158796879</v>
       </c>
       <c r="DL2" t="n">
-        <v>4.679941956126791</v>
+        <v>-82.89705954518449</v>
       </c>
       <c r="DM2" t="n">
-        <v>4.545812416552306</v>
+        <v>-82.88664280022007</v>
       </c>
       <c r="DN2" t="n">
-        <v>4.413083715197862</v>
+        <v>-82.87725193221371</v>
       </c>
       <c r="DO2" t="n">
-        <v>4.282011177368757</v>
+        <v>-83.21569930083245</v>
       </c>
       <c r="DP2" t="n">
-        <v>4.152827246158771</v>
+        <v>-83.54214281773625</v>
       </c>
       <c r="DQ2" t="n">
-        <v>4.088117032346657</v>
+        <v>-83.85657059568464</v>
       </c>
       <c r="DR2" t="n">
-        <v>4.023369915822728</v>
+        <v>-84.15900395078192</v>
       </c>
       <c r="DS2" t="n">
-        <v>3.958762117936339</v>
+        <v>-84.4494949380435</v>
       </c>
       <c r="DT2" t="n">
-        <v>3.894456772326857</v>
+        <v>-84.72812398117227</v>
       </c>
       <c r="DU2" t="n">
-        <v>3.830604432440272</v>
+        <v>-84.99499759687178</v>
       </c>
       <c r="DV2" t="n">
-        <v>3.767343576726669</v>
+        <v>-85.25024621358023</v>
       </c>
       <c r="DW2" t="n">
-        <v>3.535300299924792</v>
+        <v>-85.49402208411932</v>
       </c>
       <c r="DX2" t="n">
-        <v>3.310411311595338</v>
+        <v>-85.72649729141183</v>
       </c>
       <c r="DY2" t="n">
-        <v>3.092764382917907</v>
+        <v>-85.94786184612688</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.882421533340422</v>
+        <v>-85.81154368563094</v>
       </c>
       <c r="EA2" t="n">
-        <v>2.679420729229202</v>
+        <v>-85.67747040597189</v>
       </c>
       <c r="EB2" t="n">
-        <v>2.483777523467701</v>
+        <v>-85.54583945495449</v>
       </c>
       <c r="EC2" t="n">
-        <v>2.2954866358052</v>
+        <v>-85.4168275217536</v>
       </c>
       <c r="ED2" t="n">
-        <v>2.08270122817484</v>
+        <v>-85.29059156376908</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.878387329910488</v>
+        <v>-85.16726981173066</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.682482768538274</v>
+        <v>-85.04698275190054</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.494907341318137</v>
+        <v>-85.27656239315591</v>
       </c>
       <c r="EH2" t="n">
-        <v>1.315564331182394</v>
+        <v>-85.49644524414028</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.144341956673307</v>
+        <v>-85.70673986667062</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.9811147568665509</v>
+        <v>-85.90757265777286</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.8257449123734942</v>
+        <v>-85.75238103124083</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.6780835036070872</v>
+        <v>-85.6009471655177</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.5379717075755005</v>
+        <v>-85.45340609855873</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.4052419345357378</v>
+        <v>-85.30987276415983</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.2797189058974571</v>
+        <v>-85.17044313089987</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.1455601659418315</v>
+        <v>-85.38187791353303</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.01882202358112989</v>
+        <v>-85.58463977394555</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.1006895493611572</v>
+        <v>-85.7788093818687</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.213173957290426</v>
+        <v>-85.96448457171047</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.3188350628526779</v>
+        <v>-86.14177884905327</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.001139358010194824</v>
+        <v>-86.31081996284392</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.3119110978445974</v>
+        <v>-86.47174854228906</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.6133099040258065</v>
+        <v>-86.6247167973773</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.9052027916173706</v>
+        <v>-86.76988728186708</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.187491724286521</v>
+        <v>-86.90743171750549</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.460111368617994</v>
+        <v>-87.03752987817707</v>
       </c>
       <c r="FA2" t="n">
-        <v>1.723026922466347</v>
+        <v>-87.16036853262375</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.976232017755115</v>
+        <v>-87.27614044432501</v>
       </c>
       <c r="FC2" t="n">
-        <v>2.219746697914405</v>
+        <v>-87.38504342708366</v>
       </c>
       <c r="FD2" t="n">
-        <v>2.453615469946175</v>
+        <v>-87.48727945482362</v>
       </c>
       <c r="FE2" t="n">
-        <v>2.677905430917853</v>
+        <v>-87.58305382407414</v>
       </c>
       <c r="FF2" t="n">
-        <v>2.892704468509615</v>
+        <v>-87.67257436758813</v>
       </c>
       <c r="FG2" t="n">
-        <v>3.098119535077953</v>
+        <v>-87.75605071752105</v>
       </c>
       <c r="FH2" t="n">
-        <v>3.294274994547783</v>
+        <v>-87.83369361658082</v>
       </c>
       <c r="FI2" t="n">
-        <v>3.077974866744309</v>
+        <v>-87.90571427554733</v>
       </c>
       <c r="FJ2" t="n">
-        <v>2.867729781363856</v>
+        <v>-87.972323775554</v>
       </c>
       <c r="FK2" t="n">
-        <v>2.663667403728256</v>
+        <v>-88.03373251352089</v>
       </c>
       <c r="FL2" t="n">
-        <v>2.465889698560898</v>
+        <v>-88.09014968913043</v>
       </c>
       <c r="FM2" t="n">
-        <v>2.274474501429034</v>
+        <v>-88.1417828317426</v>
       </c>
       <c r="FN2" t="n">
-        <v>2.089477041981727</v>
+        <v>-88.18883736565479</v>
       </c>
       <c r="FO2" t="n">
-        <v>1.910931418378119</v>
+        <v>-88.23151621212419</v>
       </c>
       <c r="FP2" t="n">
-        <v>1.738852022471402</v>
+        <v>-88.27001942658615</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.57323491547405</v>
+        <v>-88.30454386951953</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.414059153979683</v>
+        <v>-88.3352829094321</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.261288066356822</v>
+        <v>-88.36242615646123</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.114870479659933</v>
+        <v>-88.38615922511212</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.974741897323954</v>
+        <v>-88.40666352468249</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.8408256280201791</v>
+        <v>-88.42411607595245</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.9219305182757209</v>
+        <v>-88.43868935275036</v>
       </c>
       <c r="FX2" t="n">
-        <v>1.001283411048663</v>
+        <v>-88.45055114703663</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.078797781631492</v>
+        <v>-88.45986445618291</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.154398238564251</v>
+        <v>-88.46678739115829</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.228019926002969</v>
+        <v>-88.47147310437042</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.299607940790278</v>
+        <v>-88.4188656374573</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.369116764733812</v>
+        <v>-88.36636778777043</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.037995969533305</v>
+        <v>-88.31411217415508</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.7195701556488112</v>
+        <v>-88.26222124276769</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.4137797086950439</v>
+        <v>-88.21080766991663</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.1205354826222502</v>
+        <v>-88.15997476212725</v>
       </c>
       <c r="GH2" t="n">
-        <v>-0.1602788410367504</v>
+        <v>-88.10981685255935</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.4288044905805231</v>
+        <v>-88.06041969297759</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.2866917020171361</v>
+        <v>-88.06706493536926</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.1474780928587508</v>
+        <v>-88.07256262346769</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.01132799974343479</v>
+        <v>-88.07698046382865</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.121614242049985</v>
+        <v>-88.08038419009183</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.2512232483993733</v>
+        <v>-88.08283752875965</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.3773915608324457</v>
+        <v>-88.0844021728053</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.5000286466885531</v>
+        <v>-88.08513776261849</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.8134951384954381</v>
+        <v>-88.08510187381326</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.116056165950174</v>
+        <v>-88.08435001143741</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.407685270982499</v>
+        <v>-88.08293561013953</v>
       </c>
       <c r="GT2" t="n">
-        <v>1.688387151804514</v>
+        <v>-88.08091003986536</v>
       </c>
       <c r="GU2" t="n">
-        <v>1.958195412628763</v>
+        <v>-88.02311853217334</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.782056213640028</v>
+        <v>-87.96686805590706</v>
       </c>
       <c r="GW2" t="n">
-        <v>1.611370869050079</v>
+        <v>-87.91219846771853</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.446204457496513</v>
+        <v>-87.85914253089967</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.286602613783941</v>
+        <v>-87.80772633716494</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.132592803266267</v>
+        <v>-87.75796971599549</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9841855533258088</v>
+        <v>-87.70988663134278</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.8413756417343191</v>
+        <v>-87.66348556553741</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.7041432418119015</v>
+        <v>-87.61876989029453</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.3582067670176904</v>
+        <v>-87.57573822474964</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.02574655606285514</v>
+        <v>-87.53438478049804</v>
       </c>
       <c r="HF2" t="n">
-        <v>-0.2933155594512035</v>
+        <v>-87.4946996936477</v>
       </c>
       <c r="HG2" t="n">
-        <v>-0.5990879893994931</v>
+        <v>-87.45666934392983</v>
       </c>
       <c r="HH2" t="n">
-        <v>-0.8917069229829249</v>
+        <v>-87.42027666094245</v>
       </c>
       <c r="HI2" t="n">
-        <v>-0.5219718033090557</v>
+        <v>-87.38550141763172</v>
       </c>
       <c r="HJ2" t="n">
-        <v>-0.163609528430958</v>
+        <v>-87.35232051114211</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.1832376812218756</v>
+        <v>-87.32070823119102</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.5184686360003334</v>
+        <v>-87.29063651614578</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.8420205009116968</v>
+        <v>-87.26207519700085</v>
       </c>
       <c r="HN2" t="n">
-        <v>1.153866209060066</v>
+        <v>-87.29019627267442</v>
       </c>
       <c r="HO2" t="n">
-        <v>1.454011965140343</v>
+        <v>-87.31770639743384</v>
       </c>
       <c r="HP2" t="n">
-        <v>1.742494839198749</v>
+        <v>-87.34457582915024</v>
       </c>
       <c r="HQ2" t="n">
-        <v>2.019380450615943</v>
+        <v>-87.3707786764225</v>
       </c>
       <c r="HR2" t="n">
-        <v>2.284760742030525</v>
+        <v>-87.3962926913</v>
       </c>
       <c r="HS2" t="n">
-        <v>2.538751842700258</v>
+        <v>-87.42109906714236</v>
       </c>
       <c r="HT2" t="n">
-        <v>2.587057008298948</v>
+        <v>-87.44518224178775</v>
       </c>
       <c r="HU2" t="n">
-        <v>2.631509766452775</v>
+        <v>-87.47420492299385</v>
       </c>
       <c r="HV2" t="n">
-        <v>2.67226784026994</v>
+        <v>-87.5022709272959</v>
       </c>
       <c r="HW2" t="n">
-        <v>2.709487512503546</v>
+        <v>-87.52937385551571</v>
       </c>
       <c r="HX2" t="n">
-        <v>2.743323310763736</v>
+        <v>-87.55551034541888</v>
       </c>
       <c r="HY2" t="n">
-        <v>2.773927720035485</v>
+        <v>-87.58067986259452</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.801450921310181</v>
+        <v>-87.60488449878672</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.903725160586958</v>
+        <v>-87.62812877768239</v>
       </c>
       <c r="IB2" t="n">
-        <v>3.000318022786576</v>
+        <v>-87.58954022642779</v>
       </c>
       <c r="IC2" t="n">
-        <v>3.091379054913396</v>
+        <v>-87.55227384670634</v>
       </c>
       <c r="ID2" t="n">
-        <v>3.17706186734029</v>
+        <v>-87.51633440905015</v>
       </c>
       <c r="IE2" t="n">
-        <v>3.257523430887101</v>
+        <v>-87.48172279025565</v>
       </c>
       <c r="IF2" t="n">
-        <v>3.332923415390868</v>
+        <v>-87.44843625069078</v>
       </c>
       <c r="IG2" t="n">
-        <v>3.403423568557863</v>
+        <v>-87.41646870136358</v>
       </c>
       <c r="IH2" t="n">
-        <v>3.449279156102451</v>
+        <v>-87.38581096077309</v>
       </c>
       <c r="II2" t="n">
-        <v>3.491303652459757</v>
+        <v>-87.35645100158865</v>
       </c>
       <c r="IJ2" t="n">
-        <v>3.529659748066183</v>
+        <v>-87.32837418722843</v>
       </c>
       <c r="IK2" t="n">
-        <v>3.564508265919232</v>
+        <v>-87.30156349842915</v>
       </c>
       <c r="IL2" t="n">
-        <v>3.596007865312342</v>
+        <v>-87.27599974991978</v>
       </c>
       <c r="IM2" t="n">
-        <v>3.566538152566584</v>
+        <v>-87.25166179733</v>
       </c>
       <c r="IN2" t="n">
-        <v>3.536180691748111</v>
+        <v>-87.22852673448111</v>
       </c>
       <c r="IO2" t="n">
-        <v>3.505080483901246</v>
+        <v>-87.20657008122203</v>
       </c>
       <c r="IP2" t="n">
-        <v>3.473374103588034</v>
+        <v>-87.18576596198696</v>
       </c>
       <c r="IQ2" t="n">
-        <v>3.44118993859497</v>
+        <v>-87.16608727526318</v>
       </c>
       <c r="IR2" t="n">
-        <v>3.408648434332725</v>
+        <v>-87.14750585416817</v>
       </c>
       <c r="IS2" t="n">
-        <v>3.375862341937775</v>
+        <v>-87.13155794878578</v>
       </c>
       <c r="IT2" t="n">
-        <v>3.304345332078452</v>
+        <v>-87.1165900909966</v>
       </c>
       <c r="IU2" t="n">
-        <v>3.234224172743292</v>
+        <v>-87.10257194873161</v>
       </c>
       <c r="IV2" t="n">
-        <v>3.165586267664469</v>
+        <v>-87.08947282682227</v>
       </c>
       <c r="IW2" t="n">
-        <v>3.09850877367112</v>
+        <v>-87.077261775224</v>
       </c>
       <c r="IX2" t="n">
-        <v>3.033059130152686</v>
+        <v>-87.06590769014916</v>
       </c>
       <c r="IY2" t="n">
-        <v>2.969295576500901</v>
+        <v>-87.05537940834782</v>
       </c>
       <c r="IZ2" t="n">
-        <v>2.744014313328071</v>
+        <v>-87.04564579477643</v>
       </c>
       <c r="JA2" t="n">
-        <v>2.52658899268138</v>
+        <v>-87.03667582389441</v>
       </c>
       <c r="JB2" t="n">
-        <v>2.317037254924493</v>
+        <v>-87.02843865482892</v>
       </c>
       <c r="JC2" t="n">
-        <v>2.115354402447758</v>
+        <v>-87.02090370064697</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.921515016586517</v>
+        <v>-87.0140406919728</v>
       </c>
       <c r="JE2" t="n">
-        <v>1.735474513862991</v>
+        <v>-87.06145842373283</v>
       </c>
       <c r="JF2" t="n">
-        <v>1.360502434162651</v>
+        <v>-87.10749143074953</v>
       </c>
       <c r="JG2" t="n">
-        <v>1.0005117155576</v>
+        <v>-87.1521159741047</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.6553897685527952</v>
+        <v>-87.19531378912961</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.3249922986945902</v>
+        <v>-87.23707174111534</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.009145969825302774</v>
+        <v>-87.27738149202186</v>
       </c>
       <c r="JK2" t="n">
-        <v>-0.292349046220669</v>
+        <v>-87.31623917828789</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.1319805223233741</v>
+        <v>-87.03210153702736</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.5436908692340734</v>
+        <v>-86.75848941987897</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.9425865210619164</v>
+        <v>-86.49537909898012</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.328520337830734</v>
+        <v>-86.2427204460794</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.701390435423797</v>
+        <v>-86.00043896280495</v>
       </c>
       <c r="JQ2" t="n">
-        <v>2.061137207896584</v>
+        <v>-85.76843773033448</v>
       </c>
       <c r="JR2" t="n">
-        <v>2.094556483577625</v>
+        <v>-85.3982737278145</v>
       </c>
       <c r="JS2" t="n">
-        <v>2.126510494146979</v>
+        <v>-85.04365938623204</v>
       </c>
       <c r="JT2" t="n">
-        <v>2.157018962965555</v>
+        <v>-84.70442691184674</v>
       </c>
       <c r="JU2" t="n">
-        <v>2.186104065342994</v>
+        <v>-84.38037939767923</v>
       </c>
       <c r="JV2" t="n">
-        <v>2.213790193090042</v>
+        <v>-84.07129344142538</v>
       </c>
       <c r="JW2" t="n">
-        <v>2.240103730049414</v>
+        <v>-83.77692164625392</v>
       </c>
       <c r="JX2" t="n">
-        <v>2.040517907580397</v>
+        <v>-83.49699500620619</v>
       </c>
       <c r="JY2" t="n">
-        <v>1.847979011649313</v>
+        <v>-83.43743125458553</v>
       </c>
       <c r="JZ2" t="n">
-        <v>1.662496187228523</v>
+        <v>-83.38404042263691</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.484059039256903</v>
+        <v>-83.33652204439274</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.312639063854593</v>
+        <v>-83.29458151815393</v>
       </c>
       <c r="KC2" t="n">
-        <v>1.148191025207895</v>
+        <v>-83.25793047371246</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.9906542783415991</v>
+        <v>-83.22628709652277</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.8399540381252261</v>
+        <v>-83.20428868756461</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.7187125458205534</v>
+        <v>-83.18657216297842</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.6032747426767828</v>
+        <v>-83.17287740350361</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.4935327295069327</v>
+        <v>-83.16295220913662</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.3893711137264375</v>
+        <v>-83.15655240528683</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.2906678563505704</v>
+        <v>-83.15344191983091</v>
       </c>
       <c r="KK2" t="n">
-        <v>0.197295075946059</v>
+        <v>-83.15339283294934</v>
       </c>
       <c r="KL2" t="n">
-        <v>-0.08754839680819873</v>
+        <v>-83.27222064166764</v>
       </c>
       <c r="KM2" t="n">
-        <v>-0.3600084601163623</v>
+        <v>-83.38935780551174</v>
       </c>
       <c r="KN2" t="n">
-        <v>-0.620245361165823</v>
+        <v>-83.50461227061371</v>
       </c>
       <c r="KO2" t="n">
-        <v>-0.8684405491654553</v>
+        <v>-83.6178108151319</v>
       </c>
       <c r="KP2" t="n">
-        <v>-1.104794666994775</v>
+        <v>-83.72879816027579</v>
       </c>
       <c r="KQ2" t="n">
-        <v>-1.329525635730535</v>
+        <v>-83.83743609715997</v>
       </c>
       <c r="KR2" t="n">
-        <v>-1.34619862330837</v>
+        <v>-83.9436026306869</v>
       </c>
       <c r="KS2" t="n">
-        <v>-1.359052148045001</v>
+        <v>-84.22989280516721</v>
       </c>
       <c r="KT2" t="n">
-        <v>-1.36832613156216</v>
+        <v>-84.50670974183397</v>
       </c>
       <c r="KU2" t="n">
-        <v>-1.374252843385576</v>
+        <v>-84.77399301506964</v>
       </c>
       <c r="KV2" t="n">
-        <v>-1.377056828938419</v>
+        <v>-85.03171205279602</v>
       </c>
       <c r="KW2" t="n">
-        <v>-1.376954863377365</v>
+        <v>-85.27986407416232</v>
       </c>
       <c r="KX2" t="n">
-        <v>-1.374155929538756</v>
+        <v>-85.51847210097763</v>
       </c>
       <c r="KY2" t="n">
-        <v>-1.621943039663811</v>
+        <v>-86.00290502618452</v>
       </c>
       <c r="KZ2" t="n">
-        <v>-1.858003936167874</v>
+        <v>-86.46840255085888</v>
       </c>
       <c r="LA2" t="n">
-        <v>-2.082549075659339</v>
+        <v>-86.91507889593535</v>
       </c>
       <c r="LB2" t="n">
-        <v>-2.29580461751394</v>
+        <v>-87.3430904474446</v>
       </c>
       <c r="LC2" t="n">
-        <v>-2.498010690837121</v>
+        <v>-87.75263230963486</v>
       </c>
       <c r="LD2" t="n">
-        <v>-2.689419748510553</v>
+        <v>-88.14393500203738</v>
       </c>
       <c r="LE2" t="n">
-        <v>-2.870295006473128</v>
+        <v>-88.51726129897655</v>
       </c>
       <c r="LF2" t="n">
-        <v>-2.631982563002109</v>
+        <v>-88.87290320975214</v>
       </c>
       <c r="LG2" t="n">
-        <v>-2.398916160301448</v>
+        <v>-88.93940956518736</v>
       </c>
       <c r="LH2" t="n">
-        <v>-2.171342744158525</v>
+        <v>-88.9990115892369</v>
       </c>
       <c r="LI2" t="n">
-        <v>-1.94947682417749</v>
+        <v>-89.05204565681333</v>
       </c>
       <c r="LJ2" t="n">
-        <v>-1.73350222933318</v>
+        <v>-89.09884156080562</v>
       </c>
       <c r="LK2" t="n">
-        <v>-1.702128352345384</v>
+        <v>-89.1397221022295</v>
       </c>
       <c r="LL2" t="n">
-        <v>-1.670279489113566</v>
+        <v>-89.17500272852519</v>
       </c>
       <c r="LM2" t="n">
-        <v>-1.638074986775031</v>
+        <v>-89.20499121751276</v>
       </c>
       <c r="LN2" t="n">
-        <v>-1.605626572518505</v>
+        <v>-88.85266521031859</v>
       </c>
       <c r="LO2" t="n">
-        <v>-1.573038601860142</v>
+        <v>-88.50968868301162</v>
       </c>
       <c r="LP2" t="n">
-        <v>-1.121418418810266</v>
+        <v>-88.17630800382192</v>
       </c>
       <c r="LQ2" t="n">
-        <v>-0.6854479530628251</v>
+        <v>-87.85272616633407</v>
       </c>
       <c r="LR2" t="n">
-        <v>-0.2651699472548871</v>
+        <v>-87.53910536147738</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.1394179214652967</v>
+        <v>-87.23556947398642</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.5283597985479928</v>
+        <v>-86.94220650207561</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.901738530136881</v>
+        <v>-86.25366874180774</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.259672661814539</v>
+        <v>-85.59047724091207</v>
       </c>
       <c r="LW2" t="n">
-        <v>1.602313557365059</v>
+        <v>-84.95258640266164</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.929842636644647</v>
+        <v>-84.33988619635568</v>
       </c>
       <c r="LY2" t="n">
-        <v>2.242468731397616</v>
+        <v>-83.75220707952899</v>
       </c>
       <c r="LZ2" t="n">
-        <v>2.540425557623009</v>
+        <v>-83.18932472590402</v>
       </c>
       <c r="MA2" t="n">
-        <v>2.823969302885392</v>
+        <v>-82.65096456038465</v>
       </c>
       <c r="MB2" t="n">
-        <v>3.093376326771092</v>
+        <v>-82.13680610281389</v>
       </c>
       <c r="MC2" t="n">
-        <v>3.154506012845495</v>
+        <v>-81.64648712260565</v>
       </c>
       <c r="MD2" t="n">
-        <v>3.209343626629973</v>
+        <v>-81.10281332836578</v>
       </c>
       <c r="ME2" t="n">
-        <v>3.258194319988164</v>
+        <v>-80.58500452964455</v>
       </c>
       <c r="MF2" t="n">
-        <v>3.301357350298821</v>
+        <v>-80.09258880486132</v>
       </c>
       <c r="MG2" t="n">
-        <v>3.339125702944187</v>
+        <v>-79.62506017047201</v>
       </c>
       <c r="MH2" t="n">
-        <v>3.371785757696744</v>
+        <v>-79.18188238144914</v>
       </c>
       <c r="MI2" t="n">
-        <v>3.697719264259306</v>
+        <v>-78.7624925397903</v>
       </c>
       <c r="MJ2" t="n">
-        <v>4.007996031358044</v>
+        <v>-78.36630451518569</v>
       </c>
       <c r="MK2" t="n">
-        <v>4.302910198045098</v>
+        <v>-77.99271218218148</v>
       </c>
       <c r="ML2" t="n">
-        <v>4.5827758907319</v>
+        <v>-77.64109247835536</v>
       </c>
       <c r="MM2" t="n">
-        <v>4.847924947010948</v>
+        <v>-75.86873300974958</v>
       </c>
       <c r="MN2" t="n">
-        <v>5.098704755558193</v>
+        <v>-74.17075829501179</v>
       </c>
       <c r="MO2" t="n">
-        <v>5.335476209559707</v>
+        <v>-72.5463699688014</v>
       </c>
       <c r="MP2" t="n">
-        <v>5.55861177098613</v>
+        <v>-70.9946300761508</v>
       </c>
       <c r="MQ2" t="n">
-        <v>5.768493642933961</v>
+        <v>-69.51447360813529</v>
       </c>
       <c r="MR2" t="n">
-        <v>5.965512047163272</v>
+        <v>-68.10472047722904</v>
       </c>
       <c r="MS2" t="n">
-        <v>6.150063603886075</v>
+        <v>-66.76408694054196</v>
       </c>
       <c r="MT2" t="n">
-        <v>6.322549810797507</v>
+        <v>-65.49119648002079</v>
       </c>
       <c r="MU2" t="n">
-        <v>6.483375618292406</v>
+        <v>-65.58953583330199</v>
       </c>
       <c r="MV2" t="n">
-        <v>6.632948097772071</v>
+        <v>-65.70403628497017</v>
       </c>
       <c r="MW2" t="n">
-        <v>6.77167519991914</v>
+        <v>-65.83323069728519</v>
       </c>
       <c r="MX2" t="n">
-        <v>6.601862332287642</v>
+        <v>-65.97571798114187</v>
       </c>
       <c r="MY2" t="n">
-        <v>6.433118346450511</v>
+        <v>-66.13016210190234</v>
       </c>
       <c r="MZ2" t="n">
-        <v>6.265818060755812</v>
+        <v>-66.29529098253427</v>
       </c>
       <c r="NA2" t="n">
-        <v>6.100305509928033</v>
+        <v>-66.46989531436627</v>
       </c>
       <c r="NB2" t="n">
-        <v>5.936895235301704</v>
+        <v>-66.65282728527809</v>
       </c>
       <c r="NC2" t="n">
-        <v>5.775873561317662</v>
+        <v>-66.84299923465915</v>
       </c>
       <c r="ND2" t="n">
-        <v>5.617499855852474</v>
+        <v>-67.03938224399442</v>
       </c>
       <c r="NE2" t="n">
-        <v>5.462007772169299</v>
+        <v>-67.24100467147318</v>
       </c>
       <c r="NF2" t="n">
-        <v>5.309606470486504</v>
+        <v>-69.40316095191356</v>
       </c>
       <c r="NG2" t="n">
-        <v>5.160481817358789</v>
+        <v>-71.4959368694784</v>
       </c>
       <c r="NH2" t="n">
-        <v>5.01479756125461</v>
+        <v>-73.51871481229965</v>
       </c>
       <c r="NI2" t="n">
-        <v>4.872696482893503</v>
+        <v>-75.47110885264155</v>
       </c>
       <c r="NJ2" t="n">
-        <v>4.734301519077569</v>
+        <v>-77.35294913979062</v>
       </c>
       <c r="NK2" t="n">
-        <v>4.62548440086487</v>
+        <v>-79.16426683561444</v>
       </c>
       <c r="NL2" t="n">
-        <v>4.519604604830035</v>
+        <v>-80.90527959412894</v>
       </c>
       <c r="NM2" t="n">
-        <v>4.416734519927158</v>
+        <v>-82.57637758486182</v>
       </c>
       <c r="NN2" t="n">
-        <v>4.316933281532227</v>
+        <v>-83.55470081827077</v>
       </c>
       <c r="NO2" t="n">
-        <v>4.220247565079705</v>
+        <v>-84.48756748763626</v>
       </c>
       <c r="NP2" t="n">
-        <v>4.126712356043774</v>
+        <v>-85.37574584742775</v>
       </c>
       <c r="NQ2" t="n">
-        <v>4.205019113620852</v>
+        <v>-86.22006856826195</v>
       </c>
       <c r="NR2" t="n">
-        <v>4.280233671511033</v>
+        <v>-87.0214258820685</v>
       </c>
       <c r="NS2" t="n">
-        <v>4.352376829608517</v>
+        <v>-87.78075906553688</v>
       </c>
       <c r="NT2" t="n">
-        <v>4.421476113505773</v>
+        <v>-88.49905425498812</v>
       </c>
       <c r="NU2" t="n">
-        <v>4.487565217780275</v>
+        <v>-89.43788583662518</v>
       </c>
       <c r="NV2" t="n">
-        <v>4.55068347275601</v>
+        <v>-90.32806123192792</v>
       </c>
       <c r="NW2" t="n">
-        <v>4.610875334480824</v>
+        <v>-91.17069274623431</v>
       </c>
       <c r="NX2" t="n">
-        <v>4.668189897617091</v>
+        <v>-91.96694003274389</v>
       </c>
       <c r="NY2" t="n">
-        <v>4.319349210849998</v>
+        <v>-92.71800358849445</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3.982760098079308</v>
+        <v>-93.42511860816283</v>
       </c>
       <c r="OA2" t="n">
-        <v>3.658443400804066</v>
+        <v>-94.08954918643869</v>
       </c>
       <c r="OB2" t="n">
-        <v>3.34638562061898</v>
+        <v>-94.27871402375392</v>
       </c>
       <c r="OC2" t="n">
-        <v>3.046541421684105</v>
+        <v>-94.44394351841549</v>
       </c>
       <c r="OD2" t="n">
-        <v>2.758836038665544</v>
+        <v>-94.58651456246601</v>
       </c>
       <c r="OE2" t="n">
-        <v>2.692063850876202</v>
+        <v>-94.7076729773634</v>
       </c>
       <c r="OF2" t="n">
-        <v>2.629423276179701</v>
+        <v>-94.80863241149251</v>
       </c>
       <c r="OG2" t="n">
-        <v>2.570785212302626</v>
+        <v>-93.91772411459455</v>
       </c>
       <c r="OH2" t="n">
-        <v>2.516019117911012</v>
+        <v>-93.04516942858682</v>
       </c>
       <c r="OI2" t="n">
-        <v>2.464993465316353</v>
+        <v>-92.19198527058617</v>
       </c>
       <c r="OJ2" t="n">
-        <v>2.417576163307209</v>
+        <v>-91.35906368235898</v>
       </c>
       <c r="OK2" t="n">
-        <v>1.975121764615257</v>
+        <v>-90.54717841181146</v>
       </c>
       <c r="OL2" t="n">
-        <v>1.55085058870269</v>
+        <v>-89.75699133836122</v>
       </c>
       <c r="OM2" t="n">
-        <v>1.14459210862211</v>
+        <v>-88.9890587362073</v>
       </c>
       <c r="ON2" t="n">
-        <v>0.7561398399535695</v>
+        <v>-90.35017815691747</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.3852544759133817</v>
+        <v>-91.65593944244679</v>
       </c>
       <c r="OP2" t="n">
-        <v>0.03166688513263127</v>
+        <v>-92.90682406528489</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-0.304919026053883</v>
+        <v>-94.10342577693542</v>
       </c>
       <c r="OR2" t="n">
-        <v>-0.8246883381053869</v>
+        <v>-95.24644095488324</v>
       </c>
       <c r="OS2" t="n">
-        <v>-1.320676016173429</v>
+        <v>-96.33665936821316</v>
       </c>
       <c r="OT2" t="n">
-        <v>-1.793262748517031</v>
+        <v>-97.37495535652496</v>
       </c>
       <c r="OU2" t="n">
-        <v>-2.242864506610649</v>
+        <v>-98.36227941606761</v>
       </c>
       <c r="OV2" t="n">
-        <v>-2.669928897839202</v>
+        <v>-100.6778292432009</v>
       </c>
       <c r="OW2" t="n">
-        <v>-3.07493169548526</v>
+        <v>-102.8931865145373</v>
       </c>
       <c r="OX2" t="n">
-        <v>-3.45837354256134</v>
+        <v>-105.0096185499597</v>
       </c>
       <c r="OY2" t="n">
-        <v>-3.820776825822572</v>
+        <v>-107.0285663889196</v>
       </c>
       <c r="OZ2" t="n">
-        <v>-4.162682716102784</v>
+        <v>-108.9516284571631</v>
       </c>
       <c r="PA2" t="n">
-        <v>-4.484648370948944</v>
+        <v>-110.7805449853464</v>
       </c>
       <c r="PB2" t="n">
-        <v>-4.787244295383659</v>
+        <v>-112.517183167237</v>
       </c>
       <c r="PC2" t="n">
-        <v>-5.071051856501783</v>
+        <v>-114.1635230441013</v>
       </c>
       <c r="PD2" t="n">
-        <v>-5.336660947503844</v>
+        <v>-114.6123573164425</v>
       </c>
       <c r="PE2" t="n">
-        <v>-5.403747182492306</v>
+        <v>-115.0164448385577</v>
       </c>
       <c r="PF2" t="n">
-        <v>-5.460568521133784</v>
+        <v>-115.377917986362</v>
       </c>
       <c r="PG2" t="n">
-        <v>-5.507710140957312</v>
+        <v>-115.6988700283818</v>
       </c>
       <c r="PH2" t="n">
-        <v>-5.545741095671035</v>
+        <v>-115.9813523325726</v>
       </c>
       <c r="PI2" t="n">
-        <v>-5.575213950317429</v>
+        <v>-117.2678613625354</v>
       </c>
       <c r="PJ2" t="n">
-        <v>-5.577720347583178</v>
+        <v>-118.4811239797917</v>
       </c>
       <c r="PK2" t="n">
-        <v>-5.573428608456552</v>
+        <v>-119.6231539628314</v>
       </c>
       <c r="PL2" t="n">
-        <v>-5.562838471149524</v>
+        <v>-120.6960110878559</v>
       </c>
       <c r="PM2" t="n">
-        <v>-5.546430637459494</v>
+        <v>-121.7017923128452</v>
       </c>
       <c r="PN2" t="n">
-        <v>-5.524666853556025</v>
+        <v>-122.1601374773912</v>
       </c>
       <c r="PO2" t="n">
-        <v>-5.497990035693783</v>
+        <v>-122.5736456348816</v>
       </c>
       <c r="PP2" t="n">
-        <v>-5.106902887408561</v>
+        <v>-122.9444304324234</v>
       </c>
       <c r="PQ2" t="n">
-        <v>-4.72513493763276</v>
+        <v>-123.274568046531</v>
       </c>
       <c r="PR2" t="n">
-        <v>-4.353038541784255</v>
+        <v>-123.5660943181278</v>
       </c>
       <c r="PS2" t="n">
-        <v>-3.990914865868115</v>
+        <v>-125.0243202625537</v>
       </c>
       <c r="PT2" t="n">
-        <v>-3.639016757009832</v>
+        <v>-126.4030683975662</v>
       </c>
       <c r="PU2" t="n">
-        <v>-3.297551537131727</v>
+        <v>-127.7043571834172</v>
       </c>
       <c r="PV2" t="n">
-        <v>-3.326605267696239</v>
+        <v>-128.9302674055488</v>
       </c>
       <c r="PW2" t="n">
-        <v>-3.352978551056845</v>
+        <v>-130.0829321297707</v>
       </c>
       <c r="PX2" t="n">
-        <v>-3.376793321814301</v>
+        <v>-131.1645272389615</v>
       </c>
       <c r="PY2" t="n">
-        <v>-3.39816960404279</v>
+        <v>-132.1772625348539</v>
       </c>
       <c r="PZ2" t="n">
-        <v>-3.417225327302452</v>
+        <v>-133.1184412694954</v>
       </c>
       <c r="QA2" t="n">
-        <v>-3.434076161471447</v>
+        <v>-133.9954323368769</v>
       </c>
       <c r="QB2" t="n">
-        <v>-3.259218443366617</v>
+        <v>-134.8104988210821</v>
       </c>
       <c r="QC2" t="n">
-        <v>-3.089440476919531</v>
+        <v>-135.5659069884876</v>
       </c>
       <c r="QD2" t="n">
-        <v>-2.924831780629104</v>
+        <v>-136.2639199942979</v>
       </c>
       <c r="QE2" t="n">
-        <v>-2.765461609804483</v>
+        <v>-136.9067920494132</v>
       </c>
       <c r="QF2" t="n">
-        <v>-2.611380226560283</v>
+        <v>-137.4967630301782</v>
       </c>
       <c r="QG2" t="n">
-        <v>-2.059288909374803</v>
+        <v>-138.0360535136285</v>
       </c>
       <c r="QH2" t="n">
-        <v>-1.527553405461204</v>
+        <v>-138.5268602209623</v>
       </c>
       <c r="QI2" t="n">
-        <v>-1.016134741525703</v>
+        <v>-136.6103301469858</v>
       </c>
       <c r="QJ2" t="n">
-        <v>-0.5249423721376874</v>
+        <v>-134.7375378371279</v>
       </c>
       <c r="QK2" t="n">
-        <v>-0.05383812603605009</v>
+        <v>-132.9103538819468</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.3973600035397015</v>
+        <v>-131.1303924676775</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.8288742234347236</v>
+        <v>-129.3990254717586</v>
       </c>
       <c r="QN2" t="n">
-        <v>0.6090144598500045</v>
+        <v>-127.7173961944571</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.3935535316061151</v>
+        <v>-126.0864327159753</v>
       </c>
       <c r="QP2" t="n">
-        <v>0.1827521169199145</v>
+        <v>-124.5068608701957</v>
       </c>
       <c r="QQ2" t="n">
-        <v>-0.02316029794659624</v>
+        <v>-122.4141345673229</v>
       </c>
       <c r="QR2" t="n">
-        <v>-0.2239837925748293</v>
+        <v>-120.3947363926752</v>
       </c>
       <c r="QS2" t="n">
-        <v>-0.419546423944898</v>
+        <v>-118.448804052326</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02224632162984658</v>
+        <v>-116.5762687552305</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.4460345338447906</v>
+        <v>-114.7768702282679</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.851977198384994</v>
+        <v>-111.8089620899783</v>
       </c>
       <c r="QW2" t="n">
-        <v>1.240269640003188</v>
+        <v>-108.9593711215441</v>
       </c>
       <c r="QX2" t="n">
-        <v>1.611140389869348</v>
+        <v>-106.2272255803079</v>
       </c>
       <c r="QY2" t="n">
-        <v>1.964848189046196</v>
+        <v>-103.6114020299402</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.301679126333068</v>
+        <v>-101.1105464239769</v>
       </c>
       <c r="RA2" t="n">
-        <v>2.427508948817929</v>
+        <v>-98.72309429225433</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.544345399567325</v>
+        <v>-96.44729004065319</v>
       </c>
       <c r="RC2" t="n">
-        <v>2.652521722749912</v>
+        <v>-97.97570543683315</v>
       </c>
       <c r="RD2" t="n">
-        <v>2.752370404365275</v>
+        <v>-99.47418710344704</v>
       </c>
       <c r="RE2" t="n">
-        <v>2.258557914040886</v>
+        <v>-100.9408747404082</v>
       </c>
       <c r="RF2" t="n">
-        <v>1.778885238340132</v>
+        <v>-102.3741267434331</v>
       </c>
       <c r="RG2" t="n">
-        <v>1.313620517894802</v>
+        <v>-103.7725088901735</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.8629740769600361</v>
+        <v>-105.1347832839403</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.4271020130141603</v>
+        <v>-104.9365437436617</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.006109673667767768</v>
+        <v>-104.7569909769108</v>
       </c>
       <c r="RK2" t="n">
-        <v>-0.3999449803291291</v>
+        <v>-104.5952633835686</v>
       </c>
       <c r="RL2" t="n">
-        <v>0.290163273449856</v>
+        <v>-104.4505135418419</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.9549354293157519</v>
+        <v>-104.3219094577969</v>
       </c>
       <c r="RN2" t="n">
-        <v>1.594412124085578</v>
+        <v>-105.2904454924725</v>
       </c>
       <c r="RO2" t="n">
-        <v>2.208698770858641</v>
+        <v>-106.2332312252086</v>
       </c>
       <c r="RP2" t="n">
-        <v>2.797960624579439</v>
+        <v>-107.1495930308012</v>
       </c>
       <c r="RQ2" t="n">
-        <v>3.362418041852778</v>
+        <v>-108.0389763797093</v>
       </c>
       <c r="RR2" t="n">
-        <v>3.902341933745142</v>
+        <v>-108.9009387684315</v>
       </c>
       <c r="RS2" t="n">
-        <v>3.806734482864533</v>
+        <v>-109.7351428578337</v>
       </c>
       <c r="RT2" t="n">
-        <v>3.710032925977643</v>
+        <v>-110.5413498228554</v>
       </c>
       <c r="RU2" t="n">
-        <v>3.612574633021309</v>
+        <v>-111.3194129162109</v>
       </c>
       <c r="RV2" t="n">
-        <v>3.514674768647437</v>
+        <v>-112.9517413082334</v>
       </c>
       <c r="RW2" t="n">
-        <v>3.416627043608053</v>
+        <v>-114.5230238927791</v>
       </c>
       <c r="RX2" t="n">
-        <v>3.318704469588915</v>
+        <v>-116.0334400604891</v>
       </c>
       <c r="RY2" t="n">
-        <v>2.938414878351992</v>
+        <v>-117.4833192065933</v>
       </c>
       <c r="RZ2" t="n">
-        <v>2.569265802690806</v>
+        <v>-118.8731290758289</v>
       </c>
       <c r="SA2" t="n">
-        <v>2.211445017963161</v>
+        <v>-120.2034645741996</v>
       </c>
       <c r="SB2" t="n">
-        <v>1.865096496806529</v>
+        <v>-121.4750370439861</v>
       </c>
       <c r="SC2" t="n">
-        <v>1.530323169823174</v>
+        <v>-122.6886639974395</v>
       </c>
       <c r="SD2" t="n">
-        <v>1.207189597823883</v>
+        <v>-123.1286207561112</v>
       </c>
       <c r="SE2" t="n">
-        <v>0.8957245548309567</v>
+        <v>-123.5392317683318</v>
       </c>
       <c r="SF2" t="n">
-        <v>0.5959235213373013</v>
+        <v>-123.9215058278594</v>
       </c>
       <c r="SG2" t="n">
-        <v>0.3077510875947981</v>
+        <v>-124.2764551097266</v>
       </c>
     </row>
     <row r="3">
@@ -3445,1504 +3445,1504 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38.31203257710337</v>
+        <v>-238.5272195364124</v>
       </c>
       <c r="C3" t="n">
-        <v>52.38184759973917</v>
+        <v>-326.1246042480407</v>
       </c>
       <c r="D3" t="n">
-        <v>60.84047825650376</v>
+        <v>-378.7872670180998</v>
       </c>
       <c r="E3" t="n">
-        <v>67.04543051564438</v>
+        <v>-417.4187336924502</v>
       </c>
       <c r="F3" t="n">
-        <v>71.82316217707628</v>
+        <v>-447.1644551338522</v>
       </c>
       <c r="G3" t="n">
-        <v>75.62176812624006</v>
+        <v>-469.5720781631402</v>
       </c>
       <c r="H3" t="n">
-        <v>78.37877264439712</v>
+        <v>-485.7039142274987</v>
       </c>
       <c r="I3" t="n">
-        <v>80.28769360634368</v>
+        <v>-495.4972639914608</v>
       </c>
       <c r="J3" t="n">
-        <v>81.54901203691911</v>
+        <v>-501.6769495797012</v>
       </c>
       <c r="K3" t="n">
-        <v>82.34009228442112</v>
+        <v>-505.2913453056312</v>
       </c>
       <c r="L3" t="n">
-        <v>82.80145734182</v>
+        <v>-507.1501217513399</v>
       </c>
       <c r="M3" t="n">
-        <v>83.03704622004243</v>
+        <v>-507.8389876067255</v>
       </c>
       <c r="N3" t="n">
-        <v>83.12065181141713</v>
+        <v>-507.7652281971655</v>
       </c>
       <c r="O3" t="n">
-        <v>82.02170718126116</v>
+        <v>-502.2344517959941</v>
       </c>
       <c r="P3" t="n">
-        <v>81.04811684724434</v>
+        <v>-497.281512285924</v>
       </c>
       <c r="Q3" t="n">
-        <v>80.18830332256509</v>
+        <v>-492.8669432899444</v>
       </c>
       <c r="R3" t="n">
-        <v>79.42937760461321</v>
+        <v>-488.9386771662982</v>
       </c>
       <c r="S3" t="n">
-        <v>78.75875157527744</v>
+        <v>-485.442056251712</v>
       </c>
       <c r="T3" t="n">
-        <v>78.16486995549576</v>
+        <v>-482.3248165298302</v>
       </c>
       <c r="U3" t="n">
-        <v>77.46205941133944</v>
+        <v>-479.5392970952108</v>
       </c>
       <c r="V3" t="n">
-        <v>76.84182698540232</v>
+        <v>-477.0431680694148</v>
       </c>
       <c r="W3" t="n">
-        <v>76.29242103142245</v>
+        <v>-474.6831056744384</v>
       </c>
       <c r="X3" t="n">
-        <v>75.80392225285919</v>
+        <v>-472.5587532420806</v>
       </c>
       <c r="Y3" t="n">
-        <v>75.36796121244494</v>
+        <v>-470.6400481361581</v>
       </c>
       <c r="Z3" t="n">
-        <v>74.97746893534537</v>
+        <v>-468.9011796857694</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.62646323150319</v>
+        <v>-467.3199875882184</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.16271485523897</v>
+        <v>-465.8774258453054</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.74558274959048</v>
+        <v>-464.7750030002508</v>
       </c>
       <c r="AD3" t="n">
-        <v>73.36921661319325</v>
+        <v>-463.756963640318</v>
       </c>
       <c r="AE3" t="n">
-        <v>73.02862761270674</v>
+        <v>-462.8140848718658</v>
       </c>
       <c r="AF3" t="n">
-        <v>72.71954665046239</v>
+        <v>-461.9383181170398</v>
       </c>
       <c r="AG3" t="n">
-        <v>72.43830792244783</v>
+        <v>-461.1226240618359</v>
       </c>
       <c r="AH3" t="n">
-        <v>72.18175304033504</v>
+        <v>-460.1707429261496</v>
       </c>
       <c r="AI3" t="n">
-        <v>71.44318741446621</v>
+        <v>-459.2851167379591</v>
       </c>
       <c r="AJ3" t="n">
-        <v>70.76999375535209</v>
+        <v>-458.4590133669903</v>
       </c>
       <c r="AK3" t="n">
-        <v>70.15520994503954</v>
+        <v>-457.6865218564389</v>
       </c>
       <c r="AL3" t="n">
-        <v>69.59277442949031</v>
+        <v>-456.962439611174</v>
       </c>
       <c r="AM3" t="n">
-        <v>69.07739434960953</v>
+        <v>-456.2821769441823</v>
       </c>
       <c r="AN3" t="n">
-        <v>68.60443508127231</v>
+        <v>-455.6416760992208</v>
       </c>
       <c r="AO3" t="n">
-        <v>68.19005745720919</v>
+        <v>-455.0373423642875</v>
       </c>
       <c r="AP3" t="n">
-        <v>67.80889068585059</v>
+        <v>-454.6260876467121</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67.45791436724693</v>
+        <v>-454.2329593347903</v>
       </c>
       <c r="AR3" t="n">
-        <v>67.13445629756345</v>
+        <v>-453.856488891081</v>
       </c>
       <c r="AS3" t="n">
-        <v>66.83614657716819</v>
+        <v>-453.4953623886861</v>
       </c>
       <c r="AT3" t="n">
-        <v>66.56087837077307</v>
+        <v>-453.148403718819</v>
       </c>
       <c r="AU3" t="n">
-        <v>65.91908367325063</v>
+        <v>-452.8145599187221</v>
       </c>
       <c r="AV3" t="n">
-        <v>65.32239735223445</v>
+        <v>-452.4928883091164</v>
       </c>
       <c r="AW3" t="n">
-        <v>64.7673725281673</v>
+        <v>-452.182545177829</v>
       </c>
       <c r="AX3" t="n">
-        <v>64.25091622837833</v>
+        <v>-451.8827757862879</v>
       </c>
       <c r="AY3" t="n">
-        <v>63.77024682731312</v>
+        <v>-451.5929055093995</v>
       </c>
       <c r="AZ3" t="n">
-        <v>63.32285697001659</v>
+        <v>-451.3123319479419</v>
       </c>
       <c r="BA3" t="n">
-        <v>62.90648119206625</v>
+        <v>-451.0405178768831</v>
       </c>
       <c r="BB3" t="n">
-        <v>62.23363758498024</v>
+        <v>-450.7769849136619</v>
       </c>
       <c r="BC3" t="n">
-        <v>61.60390353506356</v>
+        <v>-450.5213078080433</v>
       </c>
       <c r="BD3" t="n">
-        <v>61.01462317381005</v>
+        <v>-450.2731092701709</v>
       </c>
       <c r="BE3" t="n">
-        <v>60.46337560851556</v>
+        <v>-450.0320552662748</v>
       </c>
       <c r="BF3" t="n">
-        <v>59.94794818015161</v>
+        <v>-449.7978507224993</v>
       </c>
       <c r="BG3" t="n">
-        <v>59.466312810345</v>
+        <v>-449.5702355867448</v>
       </c>
       <c r="BH3" t="n">
-        <v>59.01660505989431</v>
+        <v>-449.348981206512</v>
       </c>
       <c r="BI3" t="n">
-        <v>58.59710557581473</v>
+        <v>-449.1338869876648</v>
       </c>
       <c r="BJ3" t="n">
-        <v>58.30342865300639</v>
+        <v>-448.924777304952</v>
       </c>
       <c r="BK3" t="n">
-        <v>58.03224599444</v>
+        <v>-448.7214986401709</v>
       </c>
       <c r="BL3" t="n">
-        <v>57.78237855176689</v>
+        <v>-448.5239169281193</v>
       </c>
       <c r="BM3" t="n">
-        <v>57.55272221791225</v>
+        <v>-448.3319150940716</v>
       </c>
       <c r="BN3" t="n">
-        <v>57.34223949271887</v>
+        <v>-448.1453907694889</v>
       </c>
       <c r="BO3" t="n">
-        <v>57.14995215641515</v>
+        <v>-447.9642541751164</v>
       </c>
       <c r="BP3" t="n">
-        <v>56.97493484545261</v>
+        <v>-447.7884261625844</v>
       </c>
       <c r="BQ3" t="n">
-        <v>56.40446116428543</v>
+        <v>-447.6178364071793</v>
       </c>
       <c r="BR3" t="n">
-        <v>55.86723707467616</v>
+        <v>-447.4524217456225</v>
       </c>
       <c r="BS3" t="n">
-        <v>55.36196589289928</v>
+        <v>-447.2921246535548</v>
       </c>
       <c r="BT3" t="n">
-        <v>54.88741039666337</v>
+        <v>-447.136891858004</v>
       </c>
       <c r="BU3" t="n">
-        <v>54.44238568742718</v>
+        <v>-446.9866730804599</v>
       </c>
       <c r="BV3" t="n">
-        <v>54.02575298377275</v>
+        <v>-446.8414199063387</v>
       </c>
       <c r="BW3" t="n">
-        <v>55.09256846035456</v>
+        <v>-446.7010847766171</v>
       </c>
       <c r="BX3" t="n">
-        <v>56.12692511260424</v>
+        <v>-446.5656200973013</v>
       </c>
       <c r="BY3" t="n">
-        <v>57.12886953624623</v>
+        <v>-446.4349774621896</v>
       </c>
       <c r="BZ3" t="n">
-        <v>58.09847145984153</v>
+        <v>-446.3091069841275</v>
       </c>
       <c r="CA3" t="n">
-        <v>59.03582762689199</v>
+        <v>-446.1879567296644</v>
       </c>
       <c r="CB3" t="n">
-        <v>59.94106501320729</v>
+        <v>-446.0714722517212</v>
       </c>
       <c r="CC3" t="n">
-        <v>60.38474889971545</v>
+        <v>-445.9595962145985</v>
       </c>
       <c r="CD3" t="n">
-        <v>60.81329656827036</v>
+        <v>-445.8522681053962</v>
       </c>
       <c r="CE3" t="n">
-        <v>61.22675336609966</v>
+        <v>-445.7494240257074</v>
       </c>
       <c r="CF3" t="n">
-        <v>61.6251860487017</v>
+        <v>-445.6509965572885</v>
       </c>
       <c r="CG3" t="n">
-        <v>62.00868293625097</v>
+        <v>-445.5569146953076</v>
       </c>
       <c r="CH3" t="n">
-        <v>62.37735384754642</v>
+        <v>-445.4671038427347</v>
       </c>
       <c r="CI3" t="n">
-        <v>62.73132983080473</v>
+        <v>-445.3814858594627</v>
       </c>
       <c r="CJ3" t="n">
-        <v>63.21145160491121</v>
+        <v>-445.2999791598352</v>
       </c>
       <c r="CK3" t="n">
-        <v>63.67189068364235</v>
+        <v>-445.2224988524034</v>
       </c>
       <c r="CL3" t="n">
-        <v>64.11287063947024</v>
+        <v>-445.1489569159329</v>
       </c>
       <c r="CM3" t="n">
-        <v>64.53464294737147</v>
+        <v>-445.0792624059307</v>
       </c>
       <c r="CN3" t="n">
-        <v>64.93748558224274</v>
+        <v>-445.013321686252</v>
       </c>
       <c r="CO3" t="n">
-        <v>65.50898445487444</v>
+        <v>-444.9510386806671</v>
       </c>
       <c r="CP3" t="n">
-        <v>66.05516993509474</v>
+        <v>-444.8923151396229</v>
       </c>
       <c r="CQ3" t="n">
-        <v>66.57641886392227</v>
+        <v>-444.8370509177981</v>
       </c>
       <c r="CR3" t="n">
-        <v>67.07314287651691</v>
+        <v>-444.7851442584351</v>
       </c>
       <c r="CS3" t="n">
-        <v>67.54578573732621</v>
+        <v>-444.7364920808162</v>
       </c>
       <c r="CT3" t="n">
-        <v>67.99482064278524</v>
+        <v>-444.6909902676394</v>
       </c>
       <c r="CU3" t="n">
-        <v>68.42074751537282</v>
+        <v>-444.648533949425</v>
       </c>
       <c r="CV3" t="n">
-        <v>68.82409031053857</v>
+        <v>-444.6090177834545</v>
       </c>
       <c r="CW3" t="n">
-        <v>69.29633948340883</v>
+        <v>-444.5723362250973</v>
       </c>
       <c r="CX3" t="n">
-        <v>69.74372369345319</v>
+        <v>-444.5383837897112</v>
       </c>
       <c r="CY3" t="n">
-        <v>70.16683280673099</v>
+        <v>-444.5070553036238</v>
       </c>
       <c r="CZ3" t="n">
-        <v>70.56627859252279</v>
+        <v>-444.4782461429847</v>
       </c>
       <c r="DA3" t="n">
-        <v>70.9426917597156</v>
+        <v>-444.4518524595561</v>
       </c>
       <c r="DB3" t="n">
-        <v>71.29671909944717</v>
+        <v>-444.427771392743</v>
       </c>
       <c r="DC3" t="n">
-        <v>71.62902074297506</v>
+        <v>-444.4059012673924</v>
       </c>
       <c r="DD3" t="n">
-        <v>71.82025591080411</v>
+        <v>-444.3861417770793</v>
       </c>
       <c r="DE3" t="n">
-        <v>71.99558777316334</v>
+        <v>-444.3683941527729</v>
       </c>
       <c r="DF3" t="n">
-        <v>72.15568966259484</v>
+        <v>-444.3525613169249</v>
       </c>
       <c r="DG3" t="n">
-        <v>72.30122743225466</v>
+        <v>-444.3385480231502</v>
       </c>
       <c r="DH3" t="n">
-        <v>72.43285820439021</v>
+        <v>-444.3262609817782</v>
       </c>
       <c r="DI3" t="n">
-        <v>72.55122922598552</v>
+        <v>-444.3156089716448</v>
       </c>
       <c r="DJ3" t="n">
-        <v>72.6569768291285</v>
+        <v>-444.306502938568</v>
       </c>
       <c r="DK3" t="n">
-        <v>72.75072549311326</v>
+        <v>-444.2988560810088</v>
       </c>
       <c r="DL3" t="n">
-        <v>72.86020452877945</v>
+        <v>-444.2925839234634</v>
       </c>
       <c r="DM3" t="n">
-        <v>72.95788374025278</v>
+        <v>-444.2876043781689</v>
       </c>
       <c r="DN3" t="n">
-        <v>73.04435007585374</v>
+        <v>-444.2838377957218</v>
       </c>
       <c r="DO3" t="n">
-        <v>73.12017834575499</v>
+        <v>-444.2340827777892</v>
       </c>
       <c r="DP3" t="n">
-        <v>73.18593053940805</v>
+        <v>-444.1871460055025</v>
       </c>
       <c r="DQ3" t="n">
-        <v>72.91926014965694</v>
+        <v>-444.1429506032718</v>
       </c>
       <c r="DR3" t="n">
-        <v>72.65563707556211</v>
+        <v>-444.1014178628328</v>
       </c>
       <c r="DS3" t="n">
-        <v>72.39554880851819</v>
+        <v>-444.062467589533</v>
       </c>
       <c r="DT3" t="n">
-        <v>72.13943816297915</v>
+        <v>-444.0260184274841</v>
       </c>
       <c r="DU3" t="n">
-        <v>71.88770531790703</v>
+        <v>-443.9919881641567</v>
       </c>
       <c r="DV3" t="n">
-        <v>71.64070982680998</v>
+        <v>-443.960294015031</v>
       </c>
       <c r="DW3" t="n">
-        <v>71.6145953049469</v>
+        <v>-443.9308528889506</v>
       </c>
       <c r="DX3" t="n">
-        <v>71.58577598150644</v>
+        <v>-443.9035816348457</v>
       </c>
       <c r="DY3" t="n">
-        <v>71.55452347113737</v>
+        <v>-443.8783972705094</v>
       </c>
       <c r="DZ3" t="n">
-        <v>71.52109634633052</v>
+        <v>-443.9023301738512</v>
       </c>
       <c r="EA3" t="n">
-        <v>71.48574038575485</v>
+        <v>-443.9264288314259</v>
       </c>
       <c r="EB3" t="n">
-        <v>71.44868883922341</v>
+        <v>-443.9506168389195</v>
       </c>
       <c r="EC3" t="n">
-        <v>71.41016270727287</v>
+        <v>-443.9748230531822</v>
       </c>
       <c r="ED3" t="n">
-        <v>71.41382528252059</v>
+        <v>-443.9989814028011</v>
       </c>
       <c r="EE3" t="n">
-        <v>71.41479987826082</v>
+        <v>-444.0230306988165</v>
       </c>
       <c r="EF3" t="n">
-        <v>71.41327702726925</v>
+        <v>-444.0469144460952</v>
       </c>
       <c r="EG3" t="n">
-        <v>71.40944024121318</v>
+        <v>-444.0234744528155</v>
       </c>
       <c r="EH3" t="n">
-        <v>71.40346602579991</v>
+        <v>-444.0015249650763</v>
       </c>
       <c r="EI3" t="n">
-        <v>71.39552391360536</v>
+        <v>-443.9810176062838</v>
       </c>
       <c r="EJ3" t="n">
-        <v>71.38577651318252</v>
+        <v>-443.9619036209705</v>
       </c>
       <c r="EK3" t="n">
-        <v>71.37437957311427</v>
+        <v>-443.9912370953273</v>
       </c>
       <c r="EL3" t="n">
-        <v>71.36148205973763</v>
+        <v>-444.0201106549977</v>
       </c>
       <c r="EM3" t="n">
-        <v>71.34722624732851</v>
+        <v>-444.0484801234899</v>
       </c>
       <c r="EN3" t="n">
-        <v>71.33174781959512</v>
+        <v>-444.0763058449998</v>
       </c>
       <c r="EO3" t="n">
-        <v>71.31517598138603</v>
+        <v>-444.1035524651788</v>
       </c>
       <c r="EP3" t="n">
-        <v>71.29940319201881</v>
+        <v>-444.0830887226468</v>
       </c>
       <c r="EQ3" t="n">
-        <v>71.28271052806456</v>
+        <v>-444.0637419843861</v>
       </c>
       <c r="ER3" t="n">
-        <v>71.26520869401291</v>
+        <v>-444.0454837635882</v>
       </c>
       <c r="ES3" t="n">
-        <v>71.24700260731633</v>
+        <v>-444.0282847105681</v>
       </c>
       <c r="ET3" t="n">
-        <v>71.22819153404231</v>
+        <v>-444.0121147530193</v>
       </c>
       <c r="EU3" t="n">
-        <v>70.83074336368612</v>
+        <v>-443.9969432281097</v>
       </c>
       <c r="EV3" t="n">
-        <v>70.4469573638662</v>
+        <v>-443.9827390066602</v>
       </c>
       <c r="EW3" t="n">
-        <v>70.07687879940376</v>
+        <v>-443.9694706096485</v>
       </c>
       <c r="EX3" t="n">
-        <v>69.72051305796676</v>
+        <v>-443.9571063172858</v>
       </c>
       <c r="EY3" t="n">
-        <v>69.37782849676812</v>
+        <v>-443.9456142709092</v>
       </c>
       <c r="EZ3" t="n">
-        <v>69.04875918357399</v>
+        <v>-443.9349625679403</v>
       </c>
       <c r="FA3" t="n">
-        <v>68.73320753239236</v>
+        <v>-443.9251193501549</v>
       </c>
       <c r="FB3" t="n">
-        <v>68.43104683445064</v>
+        <v>-443.9160528855102</v>
       </c>
       <c r="FC3" t="n">
-        <v>68.14212368529286</v>
+        <v>-443.9077316437754</v>
       </c>
       <c r="FD3" t="n">
-        <v>67.86626030903048</v>
+        <v>-443.9001243662085</v>
       </c>
       <c r="FE3" t="n">
-        <v>67.60325678096967</v>
+        <v>-443.8932001295208</v>
       </c>
       <c r="FF3" t="n">
-        <v>67.35289315000993</v>
+        <v>-443.8869284043686</v>
       </c>
       <c r="FG3" t="n">
-        <v>67.1149314623667</v>
+        <v>-443.8812791086075</v>
       </c>
       <c r="FH3" t="n">
-        <v>66.88911768831397</v>
+        <v>-443.876222655543</v>
       </c>
       <c r="FI3" t="n">
-        <v>67.0515177543767</v>
+        <v>-443.8717299974056</v>
       </c>
       <c r="FJ3" t="n">
-        <v>67.21150227306175</v>
+        <v>-443.8677726642774</v>
       </c>
       <c r="FK3" t="n">
-        <v>67.36881667557329</v>
+        <v>-443.8643227986909</v>
       </c>
       <c r="FL3" t="n">
-        <v>67.52323181112544</v>
+        <v>-443.8613531861163</v>
       </c>
       <c r="FM3" t="n">
-        <v>67.67454273561501</v>
+        <v>-443.8588372815513</v>
       </c>
       <c r="FN3" t="n">
-        <v>67.82256752249511</v>
+        <v>-443.8567492324199</v>
       </c>
       <c r="FO3" t="n">
-        <v>67.96714609742376</v>
+        <v>-443.8550638979829</v>
       </c>
       <c r="FP3" t="n">
-        <v>68.10813909808758</v>
+        <v>-443.8537568654583</v>
       </c>
       <c r="FQ3" t="n">
-        <v>68.245426760436</v>
+        <v>-443.8528044630424</v>
       </c>
       <c r="FR3" t="n">
-        <v>68.37890783240425</v>
+        <v>-443.8521837700197</v>
       </c>
       <c r="FS3" t="n">
-        <v>68.5084985160542</v>
+        <v>-443.8518726241421</v>
       </c>
       <c r="FT3" t="n">
-        <v>68.63413143892164</v>
+        <v>-443.8518496264523</v>
       </c>
       <c r="FU3" t="n">
-        <v>68.75575465522459</v>
+        <v>-443.8520941437229</v>
       </c>
       <c r="FV3" t="n">
-        <v>68.87333067746209</v>
+        <v>-443.8525863086731</v>
       </c>
       <c r="FW3" t="n">
-        <v>68.7248866360685</v>
+        <v>-443.8533070181239</v>
       </c>
       <c r="FX3" t="n">
-        <v>68.58211418860371</v>
+        <v>-443.8542379292415</v>
       </c>
       <c r="FY3" t="n">
-        <v>68.44498806731799</v>
+        <v>-443.8553614540186</v>
       </c>
       <c r="FZ3" t="n">
-        <v>68.31346971067691</v>
+        <v>-443.8566607521323</v>
       </c>
       <c r="GA3" t="n">
-        <v>68.18750832096011</v>
+        <v>-443.8581197223151</v>
       </c>
       <c r="GB3" t="n">
-        <v>68.06704187870288</v>
+        <v>-443.5703430932947</v>
       </c>
       <c r="GC3" t="n">
-        <v>67.95199811435998</v>
+        <v>-443.2934716047173</v>
       </c>
       <c r="GD3" t="n">
-        <v>68.21899856194847</v>
+        <v>-443.0274629827445</v>
       </c>
       <c r="GE3" t="n">
-        <v>68.47722297827036</v>
+        <v>-442.7722489204108</v>
       </c>
       <c r="GF3" t="n">
-        <v>68.72661062143249</v>
+        <v>-442.527737129772</v>
       </c>
       <c r="GG3" t="n">
-        <v>68.96712875981048</v>
+        <v>-442.2938133109113</v>
       </c>
       <c r="GH3" t="n">
-        <v>69.19877074818649</v>
+        <v>-442.0703430384982</v>
       </c>
       <c r="GI3" t="n">
-        <v>69.42155417219712</v>
+        <v>-441.8571735667636</v>
       </c>
       <c r="GJ3" t="n">
-        <v>69.25881594411771</v>
+        <v>-441.943515433778</v>
       </c>
       <c r="GK3" t="n">
-        <v>69.10134702482576</v>
+        <v>-442.0290289851548</v>
       </c>
       <c r="GL3" t="n">
-        <v>68.94919037861845</v>
+        <v>-442.1135448622504</v>
       </c>
       <c r="GM3" t="n">
-        <v>68.80237166749583</v>
+        <v>-442.196908539924</v>
       </c>
       <c r="GN3" t="n">
-        <v>68.66090042510801</v>
+        <v>-442.2789796747509</v>
       </c>
       <c r="GO3" t="n">
-        <v>68.52477118956575</v>
+        <v>-442.3596314620867</v>
       </c>
       <c r="GP3" t="n">
-        <v>68.39396459503469</v>
+        <v>-442.4387500030671</v>
       </c>
       <c r="GQ3" t="n">
-        <v>68.15406710702952</v>
+        <v>-442.516233682526</v>
       </c>
       <c r="GR3" t="n">
-        <v>67.92367513520182</v>
+        <v>-442.591992558712</v>
       </c>
       <c r="GS3" t="n">
-        <v>67.70272254691673</v>
+        <v>-442.6659477655921</v>
       </c>
       <c r="GT3" t="n">
-        <v>67.49112269764925</v>
+        <v>-442.7380309284379</v>
       </c>
       <c r="GU3" t="n">
-        <v>67.28877013607139</v>
+        <v>-442.5188037675747</v>
       </c>
       <c r="GV3" t="n">
-        <v>67.30305205460223</v>
+        <v>-442.3083725100626</v>
       </c>
       <c r="GW3" t="n">
-        <v>67.31859345954611</v>
+        <v>-442.106668569859</v>
       </c>
       <c r="GX3" t="n">
-        <v>67.33526230078631</v>
+        <v>-441.9136049308999</v>
       </c>
       <c r="GY3" t="n">
-        <v>67.35293299509397</v>
+        <v>-441.7290777036707</v>
       </c>
       <c r="GZ3" t="n">
-        <v>67.37148629774759</v>
+        <v>-441.5529676151381</v>
       </c>
       <c r="HA3" t="n">
-        <v>67.39080916640928</v>
+        <v>-441.3851414328406</v>
       </c>
       <c r="HB3" t="n">
-        <v>67.41079461817806</v>
+        <v>-441.2254533240561</v>
       </c>
       <c r="HC3" t="n">
-        <v>67.43134158069323</v>
+        <v>-441.0737461510696</v>
       </c>
       <c r="HD3" t="n">
-        <v>67.71349411836543</v>
+        <v>-440.9298527036652</v>
       </c>
       <c r="HE3" t="n">
-        <v>67.98629921832921</v>
+        <v>-440.7935968700519</v>
       </c>
       <c r="HF3" t="n">
-        <v>68.24969815686006</v>
+        <v>-440.6647947475113</v>
       </c>
       <c r="HG3" t="n">
-        <v>68.50366160044648</v>
+        <v>-440.5432556941244</v>
       </c>
       <c r="HH3" t="n">
-        <v>68.74818757340789</v>
+        <v>-440.4287833229943</v>
       </c>
       <c r="HI3" t="n">
-        <v>68.51465046482366</v>
+        <v>-440.3211764404349</v>
       </c>
       <c r="HJ3" t="n">
-        <v>68.28919708285164</v>
+        <v>-440.2202299296384</v>
       </c>
       <c r="HK3" t="n">
-        <v>68.0718501915789</v>
+        <v>-440.1257355813742</v>
       </c>
       <c r="HL3" t="n">
-        <v>67.86260922580067</v>
+        <v>-440.0374828732992</v>
       </c>
       <c r="HM3" t="n">
-        <v>67.66145196809644</v>
+        <v>-439.9552596994857</v>
       </c>
       <c r="HN3" t="n">
-        <v>67.46833616339802</v>
+        <v>-440.1682326610526</v>
       </c>
       <c r="HO3" t="n">
-        <v>67.28320107121809</v>
+        <v>-440.3760333996044</v>
       </c>
       <c r="HP3" t="n">
-        <v>67.10596895586303</v>
+        <v>-440.5784772836504</v>
       </c>
       <c r="HQ3" t="n">
-        <v>66.93654651509615</v>
+        <v>-440.7754072780528</v>
       </c>
       <c r="HR3" t="n">
-        <v>66.77482624784871</v>
+        <v>-440.9666923822543</v>
       </c>
       <c r="HS3" t="n">
-        <v>66.62068776169657</v>
+        <v>-441.1522261110048</v>
       </c>
       <c r="HT3" t="n">
-        <v>66.58838021815012</v>
+        <v>-441.3319250185982</v>
       </c>
       <c r="HU3" t="n">
-        <v>66.55912078137968</v>
+        <v>-441.7337194673071</v>
       </c>
       <c r="HV3" t="n">
-        <v>66.5327688346041</v>
+        <v>-442.1210860229334</v>
       </c>
       <c r="HW3" t="n">
-        <v>66.50918607945181</v>
+        <v>-442.4940242631807</v>
       </c>
       <c r="HX3" t="n">
-        <v>66.48823673955644</v>
+        <v>-442.8525724085513</v>
       </c>
       <c r="HY3" t="n">
-        <v>66.46978774278055</v>
+        <v>-443.1968044446753</v>
       </c>
       <c r="HZ3" t="n">
-        <v>66.45370888311497</v>
+        <v>-443.5268273556071</v>
       </c>
       <c r="IA3" t="n">
-        <v>66.6271784771555</v>
+        <v>-443.8427784675233</v>
       </c>
       <c r="IB3" t="n">
-        <v>66.79579235869163</v>
+        <v>-443.6274512134868</v>
       </c>
       <c r="IC3" t="n">
-        <v>66.95944803415705</v>
+        <v>-443.4176728327914</v>
       </c>
       <c r="ID3" t="n">
-        <v>67.11806364017799</v>
+        <v>-443.2136061980968</v>
       </c>
       <c r="IE3" t="n">
-        <v>67.27157668096208</v>
+        <v>-443.0153871987594</v>
       </c>
       <c r="IF3" t="n">
-        <v>67.41994280453939</v>
+        <v>-442.82312631515</v>
       </c>
       <c r="IG3" t="n">
-        <v>67.56313461834011</v>
+        <v>-442.6369101479014</v>
       </c>
       <c r="IH3" t="n">
-        <v>67.64256374039128</v>
+        <v>-442.4568029012274</v>
       </c>
       <c r="II3" t="n">
-        <v>67.7189912968167</v>
+        <v>-442.2828478196452</v>
       </c>
       <c r="IJ3" t="n">
-        <v>67.79242833197156</v>
+        <v>-442.1150685776005</v>
       </c>
       <c r="IK3" t="n">
-        <v>67.86289310010667</v>
+        <v>-441.9534706216613</v>
       </c>
       <c r="IL3" t="n">
-        <v>67.93041049869247</v>
+        <v>-441.7980424650929</v>
       </c>
       <c r="IM3" t="n">
-        <v>67.86628283285427</v>
+        <v>-441.6487569347723</v>
       </c>
       <c r="IN3" t="n">
-        <v>67.80406876399317</v>
+        <v>-441.5055723705253</v>
       </c>
       <c r="IO3" t="n">
-        <v>67.7437973497547</v>
+        <v>-441.3684337770964</v>
       </c>
       <c r="IP3" t="n">
-        <v>67.68549036195979</v>
+        <v>-441.2372739290689</v>
       </c>
       <c r="IQ3" t="n">
-        <v>67.62916275161814</v>
+        <v>-441.112014429158</v>
       </c>
       <c r="IR3" t="n">
-        <v>67.57482309879722</v>
+        <v>-440.9925667203939</v>
       </c>
       <c r="IS3" t="n">
-        <v>67.5224740472308</v>
+        <v>-441.1366933564067</v>
       </c>
       <c r="IT3" t="n">
-        <v>67.62011687185505</v>
+        <v>-441.2768262217504</v>
       </c>
       <c r="IU3" t="n">
-        <v>67.71422829563554</v>
+        <v>-441.4128771364016</v>
       </c>
       <c r="IV3" t="n">
-        <v>67.80481009145493</v>
+        <v>-441.5447751775332</v>
       </c>
       <c r="IW3" t="n">
-        <v>67.89187335073127</v>
+        <v>-441.6724656298789</v>
       </c>
       <c r="IX3" t="n">
-        <v>67.97543778446486</v>
+        <v>-441.7959089681092</v>
       </c>
       <c r="IY3" t="n">
-        <v>68.05553105141729</v>
+        <v>-441.9150798716442</v>
       </c>
       <c r="IZ3" t="n">
-        <v>68.10448430396457</v>
+        <v>-442.0299662722097</v>
       </c>
       <c r="JA3" t="n">
-        <v>68.15107458815299</v>
+        <v>-442.1405684343333</v>
       </c>
       <c r="JB3" t="n">
-        <v>68.19534693268952</v>
+        <v>-442.2468980688769</v>
       </c>
       <c r="JC3" t="n">
-        <v>68.23734933544104</v>
+        <v>-442.348977479603</v>
       </c>
       <c r="JD3" t="n">
-        <v>68.27713242173475</v>
+        <v>-442.446838742689</v>
       </c>
       <c r="JE3" t="n">
-        <v>68.31474912016822</v>
+        <v>-442.5720421002823</v>
       </c>
       <c r="JF3" t="n">
-        <v>68.60665661716715</v>
+        <v>-442.6919440006102</v>
       </c>
       <c r="JG3" t="n">
-        <v>68.88696178402749</v>
+        <v>-442.8066043251154</v>
       </c>
       <c r="JH3" t="n">
-        <v>69.15574777480188</v>
+        <v>-442.9160926817924</v>
       </c>
       <c r="JI3" t="n">
-        <v>69.41312259852492</v>
+        <v>-443.0204875203293</v>
       </c>
       <c r="JJ3" t="n">
-        <v>69.65921704504017</v>
+        <v>-443.1198752871392</v>
       </c>
       <c r="JK3" t="n">
-        <v>69.89418269883214</v>
+        <v>-443.2143496196787</v>
       </c>
       <c r="JL3" t="n">
-        <v>69.77423360177212</v>
+        <v>-443.2331014942471</v>
       </c>
       <c r="JM3" t="n">
-        <v>69.65632145421451</v>
+        <v>-443.2497861514367</v>
       </c>
       <c r="JN3" t="n">
-        <v>69.54061551187276</v>
+        <v>-443.2645074111052</v>
       </c>
       <c r="JO3" t="n">
-        <v>69.4272669700768</v>
+        <v>-443.2773668909854</v>
       </c>
       <c r="JP3" t="n">
-        <v>69.31640985627378</v>
+        <v>-443.2884638928998</v>
       </c>
       <c r="JQ3" t="n">
-        <v>69.20816190437229</v>
+        <v>-443.2978953033436</v>
       </c>
       <c r="JR3" t="n">
-        <v>69.06987924874444</v>
+        <v>-443.3360739649585</v>
       </c>
       <c r="JS3" t="n">
-        <v>68.93561509194211</v>
+        <v>-443.3716442814616</v>
       </c>
       <c r="JT3" t="n">
-        <v>68.80544013241578</v>
+        <v>-443.4046983961705</v>
       </c>
       <c r="JU3" t="n">
-        <v>68.67940904756692</v>
+        <v>-443.4353285683024</v>
       </c>
       <c r="JV3" t="n">
-        <v>68.55756149807894</v>
+        <v>-443.4636269177482</v>
       </c>
       <c r="JW3" t="n">
-        <v>68.43992310030271</v>
+        <v>-443.4896851885516</v>
       </c>
       <c r="JX3" t="n">
-        <v>68.5902241831875</v>
+        <v>-443.5135945303803</v>
       </c>
       <c r="JY3" t="n">
-        <v>68.73492734292999</v>
+        <v>-443.7952313418173</v>
       </c>
       <c r="JZ3" t="n">
-        <v>68.87404738129153</v>
+        <v>-444.0652254545153</v>
       </c>
       <c r="KA3" t="n">
-        <v>69.00761297831419</v>
+        <v>-444.3236905159512</v>
       </c>
       <c r="KB3" t="n">
-        <v>69.13566561880826</v>
+        <v>-444.5707628649311</v>
       </c>
       <c r="KC3" t="n">
-        <v>69.25825856167349</v>
+        <v>-444.806599536998</v>
       </c>
       <c r="KD3" t="n">
-        <v>69.37545585173571</v>
+        <v>-445.0313763577061</v>
       </c>
       <c r="KE3" t="n">
-        <v>69.48733137369015</v>
+        <v>-444.9177814059533</v>
       </c>
       <c r="KF3" t="n">
-        <v>69.45055046860867</v>
+        <v>-444.8057225263076</v>
       </c>
       <c r="KG3" t="n">
-        <v>69.41396185859665</v>
+        <v>-444.6953892839587</v>
       </c>
       <c r="KH3" t="n">
-        <v>69.37764964995775</v>
+        <v>-444.5869530111336</v>
       </c>
       <c r="KI3" t="n">
-        <v>69.34169116865279</v>
+        <v>-444.4805676581026</v>
       </c>
       <c r="KJ3" t="n">
-        <v>69.30615724033748</v>
+        <v>-444.3763706295823</v>
       </c>
       <c r="KK3" t="n">
-        <v>69.27111246768318</v>
+        <v>-444.2744836053448</v>
       </c>
       <c r="KL3" t="n">
-        <v>69.49301776567434</v>
+        <v>-444.3154351772126</v>
       </c>
       <c r="KM3" t="n">
-        <v>69.7059763505123</v>
+        <v>-444.3536673314688</v>
       </c>
       <c r="KN3" t="n">
-        <v>69.9100608763769</v>
+        <v>-444.3892730653097</v>
       </c>
       <c r="KO3" t="n">
-        <v>70.10536252777625</v>
+        <v>-444.4223457254672</v>
       </c>
       <c r="KP3" t="n">
-        <v>70.2919894446445</v>
+        <v>-444.4529787332934</v>
       </c>
       <c r="KQ3" t="n">
-        <v>70.47006521517598</v>
+        <v>-444.4812653293899</v>
       </c>
       <c r="KR3" t="n">
-        <v>70.38332517443763</v>
+        <v>-444.5072983370623</v>
       </c>
       <c r="KS3" t="n">
-        <v>70.29786931109827</v>
+        <v>-444.4699013821254</v>
       </c>
       <c r="KT3" t="n">
-        <v>70.21383408770023</v>
+        <v>-444.4327157979102</v>
       </c>
       <c r="KU3" t="n">
-        <v>70.13134236396243</v>
+        <v>-444.3958259182795</v>
       </c>
       <c r="KV3" t="n">
-        <v>70.05050404496322</v>
+        <v>-444.3593092287508</v>
       </c>
       <c r="KW3" t="n">
-        <v>69.97141671743871</v>
+        <v>-444.3232366509915</v>
       </c>
       <c r="KX3" t="n">
-        <v>69.89416627334694</v>
+        <v>-444.2876728244463</v>
       </c>
       <c r="KY3" t="n">
-        <v>70.0527947572954</v>
+        <v>-441.8626724199179</v>
       </c>
       <c r="KZ3" t="n">
-        <v>70.20468715232758</v>
+        <v>-439.5272874559493</v>
       </c>
       <c r="LA3" t="n">
-        <v>70.34992076546001</v>
+        <v>-437.2813314917867</v>
       </c>
       <c r="LB3" t="n">
-        <v>70.48858517141157</v>
+        <v>-435.1243921501925</v>
       </c>
       <c r="LC3" t="n">
-        <v>70.62078109180095</v>
+        <v>-433.055848448148</v>
       </c>
       <c r="LD3" t="n">
-        <v>70.74661932501094</v>
+        <v>-431.0748874411015</v>
       </c>
       <c r="LE3" t="n">
-        <v>70.86621972594455</v>
+        <v>-429.1805201855216</v>
       </c>
       <c r="LF3" t="n">
-        <v>70.60285976603473</v>
+        <v>-427.3715970259978</v>
       </c>
       <c r="LG3" t="n">
-        <v>70.3475575720106</v>
+        <v>-426.4644414870189</v>
       </c>
       <c r="LH3" t="n">
-        <v>70.10041765385324</v>
+        <v>-425.6095612158185</v>
       </c>
       <c r="LI3" t="n">
-        <v>69.8615151718588</v>
+        <v>-424.8054895233064</v>
       </c>
       <c r="LJ3" t="n">
-        <v>69.63089784343731</v>
+        <v>-424.0507290880504</v>
       </c>
       <c r="LK3" t="n">
-        <v>69.69488849668669</v>
+        <v>-423.3437581634221</v>
       </c>
       <c r="LL3" t="n">
-        <v>69.75652391065823</v>
+        <v>-422.6830364043002</v>
       </c>
       <c r="LM3" t="n">
-        <v>69.81580829565476</v>
+        <v>-422.0670103250652</v>
       </c>
       <c r="LN3" t="n">
-        <v>69.87275185133504</v>
+        <v>-420.1180812021761</v>
       </c>
       <c r="LO3" t="n">
-        <v>69.92737030925286</v>
+        <v>-418.2619601002896</v>
       </c>
       <c r="LP3" t="n">
-        <v>69.60158551098611</v>
+        <v>-416.4969486923325</v>
       </c>
       <c r="LQ3" t="n">
-        <v>69.2876009796871</v>
+        <v>-414.8212268029717</v>
       </c>
       <c r="LR3" t="n">
-        <v>68.98540947679307</v>
+        <v>-413.2328660310407</v>
       </c>
       <c r="LS3" t="n">
-        <v>68.694972723511</v>
+        <v>-411.7298426832118</v>
       </c>
       <c r="LT3" t="n">
-        <v>68.41622373261603</v>
+        <v>-410.3100500337706</v>
       </c>
       <c r="LU3" t="n">
-        <v>68.14906904960499</v>
+        <v>-405.8247414593305</v>
       </c>
       <c r="LV3" t="n">
-        <v>67.89339090371759</v>
+        <v>-401.5354136862861</v>
       </c>
       <c r="LW3" t="n">
-        <v>67.64904926954235</v>
+        <v>-397.4394700246909</v>
       </c>
       <c r="LX3" t="n">
-        <v>67.4158838401119</v>
+        <v>-393.5339827547309</v>
       </c>
       <c r="LY3" t="n">
-        <v>67.1937159125643</v>
+        <v>-389.8157247368748</v>
       </c>
       <c r="LZ3" t="n">
-        <v>66.98235018760371</v>
+        <v>-386.2811995530318</v>
       </c>
       <c r="MA3" t="n">
-        <v>66.78157648413584</v>
+        <v>-382.9266702035588</v>
       </c>
       <c r="MB3" t="n">
-        <v>66.5911713705817</v>
+        <v>-379.7481863870394</v>
       </c>
       <c r="MC3" t="n">
-        <v>66.52528088075137</v>
+        <v>-376.7416103916184</v>
       </c>
       <c r="MD3" t="n">
-        <v>66.46501934161637</v>
+        <v>-373.9863566570196</v>
       </c>
       <c r="ME3" t="n">
-        <v>66.4101437430752</v>
+        <v>-371.3911526491884</v>
       </c>
       <c r="MF3" t="n">
-        <v>66.36041411471508</v>
+        <v>-368.9514485458531</v>
       </c>
       <c r="MG3" t="n">
-        <v>66.31559394969767</v>
+        <v>-366.6626051563651</v>
       </c>
       <c r="MH3" t="n">
-        <v>66.27545058893156</v>
+        <v>-364.5199127555258</v>
       </c>
       <c r="MI3" t="n">
-        <v>66.1621783749855</v>
+        <v>-362.5186087534999</v>
       </c>
       <c r="MJ3" t="n">
-        <v>66.05601923489485</v>
+        <v>-360.6538942381231</v>
       </c>
       <c r="MK3" t="n">
-        <v>65.95674639616091</v>
+        <v>-358.9209494263196</v>
       </c>
       <c r="ML3" t="n">
-        <v>65.86413094454745</v>
+        <v>-357.3149480616287</v>
       </c>
       <c r="MM3" t="n">
-        <v>65.7779425905164</v>
+        <v>-344.4918924061714</v>
       </c>
       <c r="MN3" t="n">
-        <v>65.69795038429746</v>
+        <v>-332.2083910112003</v>
       </c>
       <c r="MO3" t="n">
-        <v>65.62392338136721</v>
+        <v>-320.4585649478187</v>
       </c>
       <c r="MP3" t="n">
-        <v>65.55563126011846</v>
+        <v>-309.2355293166159</v>
       </c>
       <c r="MQ3" t="n">
-        <v>65.49284489350049</v>
+        <v>-298.5314839231868</v>
       </c>
       <c r="MR3" t="n">
-        <v>65.43533687640648</v>
+        <v>-288.3377998906751</v>
       </c>
       <c r="MS3" t="n">
-        <v>65.38288201057482</v>
+        <v>-278.645102269362</v>
       </c>
       <c r="MT3" t="n">
-        <v>65.33525774875822</v>
+        <v>-269.4433487097192</v>
       </c>
       <c r="MU3" t="n">
-        <v>65.29224459989744</v>
+        <v>-259.529287066421</v>
       </c>
       <c r="MV3" t="n">
-        <v>65.25362649701576</v>
+        <v>-250.1287868075738</v>
       </c>
       <c r="MW3" t="n">
-        <v>65.21919112952733</v>
+        <v>-241.2301204603957</v>
       </c>
       <c r="MX3" t="n">
-        <v>65.26630743399596</v>
+        <v>-232.8210598461333</v>
       </c>
       <c r="MY3" t="n">
-        <v>65.3143055876249</v>
+        <v>-224.8889447661979</v>
       </c>
       <c r="MZ3" t="n">
-        <v>65.36299380354441</v>
+        <v>-217.4207479113149</v>
       </c>
       <c r="NA3" t="n">
-        <v>65.41219222259603</v>
+        <v>-210.4031360912449</v>
       </c>
       <c r="NB3" t="n">
-        <v>65.46173253799883</v>
+        <v>-203.8225278854796</v>
       </c>
       <c r="NC3" t="n">
-        <v>65.51145761605662</v>
+        <v>-197.6651478176796</v>
       </c>
       <c r="ND3" t="n">
-        <v>65.56122111420562</v>
+        <v>-191.9170771585455</v>
       </c>
       <c r="NE3" t="n">
-        <v>65.6108870976155</v>
+        <v>-186.5643014633161</v>
       </c>
       <c r="NF3" t="n">
-        <v>65.66032965547409</v>
+        <v>-191.1937840994225</v>
       </c>
       <c r="NG3" t="n">
-        <v>65.70943251800499</v>
+        <v>-195.8329123520038</v>
       </c>
       <c r="NH3" t="n">
-        <v>65.75808867519072</v>
+        <v>-200.46857837513</v>
       </c>
       <c r="NI3" t="n">
-        <v>65.80619999809896</v>
+        <v>-205.088625014396</v>
       </c>
       <c r="NJ3" t="n">
-        <v>65.85367686363857</v>
+        <v>-209.6818100613444</v>
       </c>
       <c r="NK3" t="n">
-        <v>66.07511946551109</v>
+        <v>-214.2377706266443</v>
       </c>
       <c r="NL3" t="n">
-        <v>66.28926788470874</v>
+        <v>-218.7469877188386</v>
       </c>
       <c r="NM3" t="n">
-        <v>66.49607290388749</v>
+        <v>-223.2007511086895</v>
       </c>
       <c r="NN3" t="n">
-        <v>66.69550849273602</v>
+        <v>-228.9351986229381</v>
       </c>
       <c r="NO3" t="n">
-        <v>66.88757021230808</v>
+        <v>-234.5490111011027</v>
       </c>
       <c r="NP3" t="n">
-        <v>67.07227367617624</v>
+        <v>-240.0358292398136</v>
       </c>
       <c r="NQ3" t="n">
-        <v>66.96059022017469</v>
+        <v>-245.3900903289064</v>
       </c>
       <c r="NR3" t="n">
-        <v>66.85239768232921</v>
+        <v>-250.6069859255938</v>
       </c>
       <c r="NS3" t="n">
-        <v>66.74773488074754</v>
+        <v>-255.6824205499973</v>
       </c>
       <c r="NT3" t="n">
-        <v>66.64662839939591</v>
+        <v>-260.612971439224</v>
       </c>
       <c r="NU3" t="n">
-        <v>66.54909339563105</v>
+        <v>-264.4489596290216</v>
       </c>
       <c r="NV3" t="n">
-        <v>66.45513438031361</v>
+        <v>-268.1703399703932</v>
       </c>
       <c r="NW3" t="n">
-        <v>66.36474597038433</v>
+        <v>-271.7753847426383</v>
       </c>
       <c r="NX3" t="n">
-        <v>66.27791361386686</v>
+        <v>-275.2628016460912</v>
       </c>
       <c r="NY3" t="n">
-        <v>66.5709438651196</v>
+        <v>-278.6317059879111</v>
       </c>
       <c r="NZ3" t="n">
-        <v>66.85346316216149</v>
+        <v>-281.8815937747064</v>
       </c>
       <c r="OA3" t="n">
-        <v>67.12547034931974</v>
+        <v>-285.0123157188758</v>
       </c>
       <c r="OB3" t="n">
-        <v>67.386992486087</v>
+        <v>-288.7259240121755</v>
       </c>
       <c r="OC3" t="n">
-        <v>67.63808274824821</v>
+        <v>-292.2948974376275</v>
       </c>
       <c r="OD3" t="n">
-        <v>67.87881840986039</v>
+        <v>-295.7200727284669</v>
       </c>
       <c r="OE3" t="n">
-        <v>67.84735049415784</v>
+        <v>-299.0026113502823</v>
       </c>
       <c r="OF3" t="n">
-        <v>67.81550116670141</v>
+        <v>-302.1439730699534</v>
       </c>
       <c r="OG3" t="n">
-        <v>67.7833830552045</v>
+        <v>-304.0035213787691</v>
       </c>
       <c r="OH3" t="n">
-        <v>67.75110141759279</v>
+        <v>-305.7681447079534</v>
       </c>
       <c r="OI3" t="n">
-        <v>67.71875438962617</v>
+        <v>-307.4399382911918</v>
       </c>
       <c r="OJ3" t="n">
-        <v>67.68643323379607</v>
+        <v>-309.0210953071224</v>
       </c>
       <c r="OK3" t="n">
-        <v>68.0309251870044</v>
+        <v>-310.5138939754636</v>
       </c>
       <c r="OL3" t="n">
-        <v>68.36157886568616</v>
+        <v>-311.920685352334</v>
       </c>
       <c r="OM3" t="n">
-        <v>68.67850327187266</v>
+        <v>-313.2438818072085</v>
       </c>
       <c r="ON3" t="n">
-        <v>68.98183632072679</v>
+        <v>-314.3657824056341</v>
       </c>
       <c r="OO3" t="n">
-        <v>69.27174239487253</v>
+        <v>-315.4135284338755</v>
       </c>
       <c r="OP3" t="n">
-        <v>69.54841000354509</v>
+        <v>-316.3896418457736</v>
       </c>
       <c r="OQ3" t="n">
-        <v>69.81204954529767</v>
+        <v>-317.2966551653505</v>
       </c>
       <c r="OR3" t="n">
-        <v>70.31379878214463</v>
+        <v>-318.1371039501847</v>
       </c>
       <c r="OS3" t="n">
-        <v>70.79365508031186</v>
+        <v>-318.9135197879607</v>
       </c>
       <c r="OT3" t="n">
-        <v>71.25190664927327</v>
+        <v>-319.6284238066409</v>
       </c>
       <c r="OU3" t="n">
-        <v>71.68887881671368</v>
+        <v>-320.2843206787393</v>
       </c>
       <c r="OV3" t="n">
-        <v>72.10493049200959</v>
+        <v>-322.4640105202989</v>
       </c>
       <c r="OW3" t="n">
-        <v>72.50045079383797</v>
+        <v>-324.5307862305879</v>
       </c>
       <c r="OX3" t="n">
-        <v>72.87585583915039</v>
+        <v>-326.4872264420533</v>
       </c>
       <c r="OY3" t="n">
-        <v>73.23158569051614</v>
+        <v>-328.3360198619599</v>
       </c>
       <c r="OZ3" t="n">
-        <v>73.56810145862951</v>
+        <v>-330.0799501712141</v>
       </c>
       <c r="PA3" t="n">
-        <v>73.88588255659117</v>
+        <v>-331.7218817536133</v>
       </c>
       <c r="PB3" t="n">
-        <v>74.18542410241108</v>
+        <v>-333.2647462340676</v>
       </c>
       <c r="PC3" t="n">
-        <v>74.46723446603876</v>
+        <v>-334.71152980372</v>
       </c>
       <c r="PD3" t="n">
-        <v>74.7318329571053</v>
+        <v>-333.4964479208734</v>
       </c>
       <c r="PE3" t="n">
-        <v>74.86463193722432</v>
+        <v>-332.2870276747041</v>
       </c>
       <c r="PF3" t="n">
-        <v>74.98556840893836</v>
+        <v>-331.0860990483382</v>
       </c>
       <c r="PG3" t="n">
-        <v>75.09517070996296</v>
+        <v>-329.8962660460883</v>
       </c>
       <c r="PH3" t="n">
-        <v>75.19395956410689</v>
+        <v>-328.7199159548549</v>
       </c>
       <c r="PI3" t="n">
-        <v>75.28244723457098</v>
+        <v>-328.5936570290347</v>
       </c>
       <c r="PJ3" t="n">
-        <v>75.22534486360499</v>
+        <v>-328.44652364138</v>
       </c>
       <c r="PK3" t="n">
-        <v>75.16399388169158</v>
+        <v>-328.2804087819657</v>
       </c>
       <c r="PL3" t="n">
-        <v>75.0988636162044</v>
+        <v>-328.0971202809465</v>
       </c>
       <c r="PM3" t="n">
-        <v>75.03039980068476</v>
+        <v>-327.8983820868202</v>
       </c>
       <c r="PN3" t="n">
-        <v>74.95902507653022</v>
+        <v>-327.2134586817293</v>
       </c>
       <c r="PO3" t="n">
-        <v>74.8851395204494</v>
+        <v>-326.533877218295</v>
       </c>
       <c r="PP3" t="n">
-        <v>74.58042274271513</v>
+        <v>-325.8610727034934</v>
       </c>
       <c r="PQ3" t="n">
-        <v>74.28244571910074</v>
+        <v>-325.1963589436052</v>
       </c>
       <c r="PR3" t="n">
-        <v>73.99152182623484</v>
+        <v>-324.5409337330741</v>
       </c>
       <c r="PS3" t="n">
-        <v>73.70792305818908</v>
+        <v>-318.4332366286331</v>
       </c>
       <c r="PT3" t="n">
-        <v>73.43188227073651</v>
+        <v>-312.5403053938907</v>
       </c>
       <c r="PU3" t="n">
-        <v>73.16359536916455</v>
+        <v>-306.8624856767982</v>
       </c>
       <c r="PV3" t="n">
-        <v>73.13192188954744</v>
+        <v>-301.3995226259522</v>
       </c>
       <c r="PW3" t="n">
-        <v>73.09977580598957</v>
+        <v>-296.150604701423</v>
       </c>
       <c r="PX3" t="n">
-        <v>73.06727708993891</v>
+        <v>-291.1144058288132</v>
       </c>
       <c r="PY3" t="n">
-        <v>73.03453804000971</v>
+        <v>-286.2891259027253</v>
       </c>
       <c r="PZ3" t="n">
-        <v>73.00166353252752</v>
+        <v>-286.2700542597835</v>
       </c>
       <c r="QA3" t="n">
-        <v>72.968751273943</v>
+        <v>-286.2858378113294</v>
       </c>
       <c r="QB3" t="n">
-        <v>72.82113786756186</v>
+        <v>-286.3339309632939</v>
       </c>
       <c r="QC3" t="n">
-        <v>72.67793466055899</v>
+        <v>-286.4118844842687</v>
       </c>
       <c r="QD3" t="n">
-        <v>72.53920814122809</v>
+        <v>-286.5173451391418</v>
       </c>
       <c r="QE3" t="n">
-        <v>72.40500804220503</v>
+        <v>-286.6480550921434</v>
       </c>
       <c r="QF3" t="n">
-        <v>72.27536841079252</v>
+        <v>-286.801851097462</v>
       </c>
       <c r="QG3" t="n">
-        <v>71.77397906660734</v>
+        <v>-286.9766634948526</v>
       </c>
       <c r="QH3" t="n">
-        <v>71.291188494568</v>
+        <v>-287.1705150269318</v>
       </c>
       <c r="QI3" t="n">
-        <v>70.8269529300067</v>
+        <v>-287.1957738618376</v>
       </c>
       <c r="QJ3" t="n">
-        <v>70.38118209520101</v>
+        <v>-287.243305496979</v>
       </c>
       <c r="QK3" t="n">
-        <v>69.95374278161268</v>
+        <v>-287.311383062366</v>
       </c>
       <c r="QL3" t="n">
-        <v>69.54446228973423</v>
+        <v>-287.398348730172</v>
       </c>
       <c r="QM3" t="n">
-        <v>69.15313172756508</v>
+        <v>-287.502613192641</v>
       </c>
       <c r="QN3" t="n">
-        <v>69.10930161774876</v>
+        <v>-287.6226549941231</v>
       </c>
       <c r="QO3" t="n">
-        <v>69.07062728731157</v>
+        <v>-287.7570197294989</v>
       </c>
       <c r="QP3" t="n">
-        <v>69.03684193907803</v>
+        <v>-287.9043191207369</v>
       </c>
       <c r="QQ3" t="n">
-        <v>69.00768485392999</v>
+        <v>-283.8789136804554</v>
       </c>
       <c r="QR3" t="n">
-        <v>68.98290165199894</v>
+        <v>-280.0196693681254</v>
       </c>
       <c r="QS3" t="n">
-        <v>68.9622445181343</v>
+        <v>-276.324980214217</v>
       </c>
       <c r="QT3" t="n">
-        <v>68.61567994490395</v>
+        <v>-272.7929152153368</v>
       </c>
       <c r="QU3" t="n">
-        <v>68.28504652270468</v>
+        <v>-269.4212468463567</v>
       </c>
       <c r="QV3" t="n">
-        <v>67.97008488162768</v>
+        <v>-265.2456388353145</v>
       </c>
       <c r="QW3" t="n">
-        <v>67.6705123398113</v>
+        <v>-261.2610060746153</v>
       </c>
       <c r="QX3" t="n">
-        <v>67.38602533424579</v>
+        <v>-257.4642959660502</v>
       </c>
       <c r="QY3" t="n">
-        <v>67.11630173287557</v>
+        <v>-253.8521722413648</v>
       </c>
       <c r="QZ3" t="n">
-        <v>66.86100303033629</v>
+        <v>-250.4210442642971</v>
       </c>
       <c r="RA3" t="n">
-        <v>66.73415759606971</v>
+        <v>-247.1670949088294</v>
       </c>
       <c r="RB3" t="n">
-        <v>66.61676000305067</v>
+        <v>-244.0863070413042</v>
       </c>
       <c r="RC3" t="n">
-        <v>66.50844586810905</v>
+        <v>-244.4719261748063</v>
       </c>
       <c r="RD3" t="n">
-        <v>66.40885266979238</v>
+        <v>-244.8993869225927</v>
       </c>
       <c r="RE3" t="n">
-        <v>66.81601306717181</v>
+        <v>-245.3645401979945</v>
       </c>
       <c r="RF3" t="n">
-        <v>67.21261987921851</v>
+        <v>-245.8634340367397</v>
       </c>
       <c r="RG3" t="n">
-        <v>67.59836969483335</v>
+        <v>-246.3923100154313</v>
       </c>
       <c r="RH3" t="n">
-        <v>67.97300994951466</v>
+        <v>-246.9475994093077</v>
       </c>
       <c r="RI3" t="n">
-        <v>68.33633594938085</v>
+        <v>-245.1274638849192</v>
       </c>
       <c r="RJ3" t="n">
-        <v>68.68818798082251</v>
+        <v>-243.416466764949</v>
       </c>
       <c r="RK3" t="n">
-        <v>69.02844850736916</v>
+        <v>-241.8113484725875</v>
       </c>
       <c r="RL3" t="n">
-        <v>68.67028912550644</v>
+        <v>-240.3088001894951</v>
       </c>
       <c r="RM3" t="n">
-        <v>68.32599103908316</v>
+        <v>-238.9054762473565</v>
       </c>
       <c r="RN3" t="n">
-        <v>67.9954801073858</v>
+        <v>-239.8365916805496</v>
       </c>
       <c r="RO3" t="n">
-        <v>67.67865061787236</v>
+        <v>-240.7768183173013</v>
       </c>
       <c r="RP3" t="n">
-        <v>67.37536783661494</v>
+        <v>-241.7229855730632</v>
       </c>
       <c r="RQ3" t="n">
-        <v>67.08547045323165</v>
+        <v>-242.6721346815439</v>
       </c>
       <c r="RR3" t="n">
-        <v>66.80877292134271</v>
+        <v>-243.6215113997441</v>
       </c>
       <c r="RS3" t="n">
-        <v>67.03271556069177</v>
+        <v>-244.5685586895877</v>
       </c>
       <c r="RT3" t="n">
-        <v>67.25126484601239</v>
+        <v>-245.510909397417</v>
       </c>
       <c r="RU3" t="n">
-        <v>67.46422326201737</v>
+        <v>-246.446378951095</v>
       </c>
       <c r="RV3" t="n">
-        <v>67.67142244137756</v>
+        <v>-244.0922126465341</v>
       </c>
       <c r="RW3" t="n">
-        <v>67.87272152184894</v>
+        <v>-241.8494779285317</v>
       </c>
       <c r="RX3" t="n">
-        <v>68.06800554778532</v>
+        <v>-239.7161735390402</v>
       </c>
       <c r="RY3" t="n">
-        <v>68.33459649764148</v>
+        <v>-237.6901490996481</v>
       </c>
       <c r="RZ3" t="n">
-        <v>68.59213146982765</v>
+        <v>-235.7691215764098</v>
       </c>
       <c r="SA3" t="n">
-        <v>68.84057167220709</v>
+        <v>-233.9506909171544</v>
       </c>
       <c r="SB3" t="n">
-        <v>69.07990543787932</v>
+        <v>-232.2323548788587</v>
       </c>
       <c r="SC3" t="n">
-        <v>69.31014630822571</v>
+        <v>-230.6115230635747</v>
       </c>
       <c r="SD3" t="n">
-        <v>69.53133118617224</v>
+        <v>-231.2773422272297</v>
       </c>
       <c r="SE3" t="n">
-        <v>69.74351855956833</v>
+        <v>-231.9536574620559</v>
       </c>
       <c r="SF3" t="n">
-        <v>69.94678679440064</v>
+        <v>-232.6379049911696</v>
       </c>
       <c r="SG3" t="n">
-        <v>70.14123249739362</v>
+        <v>-233.3276839440118</v>
       </c>
     </row>
   </sheetData>
